--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="503">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -841,9 +841,6 @@
     <t>new property fields (e.g. comment)</t>
   </si>
   <si>
-    <t>New Ordinality property ?</t>
-  </si>
-  <si>
     <t>No equivalent in VMR</t>
   </si>
   <si>
@@ -1075,9 +1072,6 @@
     <t xml:space="preserve">implied Status </t>
   </si>
   <si>
-    <t>Symptoms are Observations</t>
-  </si>
-  <si>
     <t>closest thing to Device is Supply</t>
   </si>
   <si>
@@ -1211,9 +1205,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>vMR as Problem</t>
   </si>
   <si>
     <t>same as above</t>
@@ -1389,9 +1380,6 @@
     <t>(*) Add comment field</t>
   </si>
   <si>
-    <t>Symptoms are Observations. Problem (ConditionBase) may be better fit in vMR.</t>
-  </si>
-  <si>
     <t>GoalDescriptor + CarePlanParticipationDescriptor</t>
   </si>
   <si>
@@ -1513,9 +1501,6 @@
   </si>
   <si>
     <t>prnReason field added in vMR (MAY-2013)</t>
-  </si>
-  <si>
-    <t>TBD DiagnosisDescriptor interface</t>
   </si>
   <si>
     <t>TBD Order interface</t>
@@ -1551,14 +1536,44 @@
     <t>MedicationAdministrationProposal or MedicationPrescription</t>
   </si>
   <si>
-    <t>TDB Symptom class</t>
+    <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR. Symptom class is placeholder in QIDAM and needs further refinement.</t>
+  </si>
+  <si>
+    <t>Symptoms are Observations in vMR</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>ConditionAbsent</t>
+  </si>
+  <si>
+    <t>status = active</t>
+  </si>
+  <si>
+    <t>QIDAM category set to Condition, diagnosis, etc.</t>
+  </si>
+  <si>
+    <t>status = resolved</t>
+  </si>
+  <si>
+    <t>status = inactive</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>defined in model</t>
+  </si>
+  <si>
+    <t>(*) vMR needs "comment" field and/or extension (ClinicalStatement/attribute extension?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1653,22 +1668,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1821,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2035,9 +2034,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2079,9 +2075,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2107,26 +2100,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2136,6 +2114,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4686,16 +4694,16 @@
         <v>189</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>267</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>266</v>
@@ -4707,11 +4715,11 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4724,10 +4732,10 @@
         <v>7.31</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4739,10 +4747,10 @@
         <v>7.51</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4759,13 +4767,13 @@
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4777,7 +4785,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="22"/>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4789,13 +4797,13 @@
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F8" s="94" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G8" s="94" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4807,7 +4815,7 @@
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4822,7 +4830,7 @@
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4842,16 +4850,13 @@
       </c>
       <c r="C12" s="89"/>
       <c r="D12" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="134" t="s">
-        <v>489</v>
-      </c>
-      <c r="G12" t="s">
-        <v>271</v>
+      <c r="F12" s="140" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4860,13 +4865,13 @@
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>268</v>
@@ -4878,13 +4883,13 @@
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="134" t="s">
-        <v>489</v>
+      <c r="F14" s="140" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4893,13 +4898,13 @@
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="134" t="s">
-        <v>489</v>
+      <c r="F15" s="140" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4908,15 +4913,15 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4925,7 +4930,7 @@
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>148</v>
@@ -4940,13 +4945,13 @@
       </c>
       <c r="C18" s="89"/>
       <c r="D18" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4955,16 +4960,16 @@
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>202</v>
       </c>
       <c r="G19" s="95" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4973,13 +4978,13 @@
       </c>
       <c r="C20" s="89"/>
       <c r="D20" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4988,13 +4993,13 @@
       </c>
       <c r="C21" s="89"/>
       <c r="D21" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -5003,13 +5008,13 @@
       </c>
       <c r="C22" s="89"/>
       <c r="D22" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -5020,7 +5025,7 @@
       <c r="C23" s="91"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F23" s="22"/>
     </row>
@@ -5030,7 +5035,7 @@
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>148</v>
@@ -5045,13 +5050,13 @@
       </c>
       <c r="C25" s="89"/>
       <c r="D25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -5060,13 +5065,13 @@
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -5075,13 +5080,13 @@
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -5090,13 +5095,13 @@
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5105,13 +5110,13 @@
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5128,7 +5133,7 @@
       </c>
       <c r="C31" s="89"/>
       <c r="D31" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E31" t="s">
         <v>146</v>
@@ -5143,16 +5148,16 @@
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>269</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -5161,7 +5166,7 @@
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
         <v>146</v>
@@ -5176,13 +5181,13 @@
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G34" t="s">
         <v>270</v>
@@ -5194,11 +5199,11 @@
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F35" s="22"/>
     </row>
@@ -5208,13 +5213,13 @@
       </c>
       <c r="C36" s="89"/>
       <c r="D36" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -5223,13 +5228,13 @@
       </c>
       <c r="C37" s="89"/>
       <c r="D37" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -5238,13 +5243,13 @@
       </c>
       <c r="C38" s="89"/>
       <c r="D38" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5253,13 +5258,13 @@
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5268,11 +5273,11 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F40" s="63"/>
     </row>
@@ -5283,10 +5288,10 @@
       <c r="C41" s="89"/>
       <c r="D41" s="33"/>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5298,10 +5303,10 @@
         <v>7.32</v>
       </c>
       <c r="E42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5310,13 +5315,13 @@
       </c>
       <c r="C43" s="89"/>
       <c r="D43" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5334,7 +5339,7 @@
       </c>
       <c r="C45" s="89"/>
       <c r="D45" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E45" t="s">
         <v>148</v>
@@ -5349,13 +5354,13 @@
       </c>
       <c r="C46" s="89"/>
       <c r="D46" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -5364,13 +5369,13 @@
       </c>
       <c r="C47" s="89"/>
       <c r="D47" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E47" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="108" t="s">
-        <v>477</v>
+      <c r="F47" s="107" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5379,13 +5384,13 @@
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -5394,13 +5399,13 @@
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
@@ -5409,13 +5414,13 @@
       </c>
       <c r="C50" s="89"/>
       <c r="D50" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
-      </c>
-      <c r="F50" s="131" t="s">
-        <v>433</v>
+        <v>388</v>
+      </c>
+      <c r="F50" s="127" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5446,13 +5451,13 @@
       </c>
       <c r="C53" s="89"/>
       <c r="D53" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F53" s="96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G53" s="40"/>
     </row>
@@ -5462,13 +5467,13 @@
       </c>
       <c r="C54" s="89"/>
       <c r="D54" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="F54" s="108" t="s">
-        <v>477</v>
+        <v>340</v>
+      </c>
+      <c r="F54" s="107" t="s">
+        <v>473</v>
       </c>
       <c r="G54" s="40"/>
     </row>
@@ -5480,14 +5485,14 @@
       <c r="D55" s="34">
         <v>7.23</v>
       </c>
-      <c r="E55" s="107" t="s">
+      <c r="E55" s="106" t="s">
         <v>166</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -5496,13 +5501,13 @@
       </c>
       <c r="C56" s="89"/>
       <c r="D56" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="40" t="s">
-        <v>374</v>
+      <c r="F56" s="26" t="s">
+        <v>372</v>
       </c>
       <c r="G56" s="40"/>
     </row>
@@ -5513,10 +5518,10 @@
       <c r="C57" s="89"/>
       <c r="D57" s="31"/>
       <c r="E57" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="F57" s="135" t="s">
-        <v>433</v>
+        <v>388</v>
+      </c>
+      <c r="F57" s="132" t="s">
+        <v>430</v>
       </c>
       <c r="G57" s="40"/>
     </row>
@@ -5531,22 +5536,22 @@
       <c r="F58" s="44"/>
       <c r="G58" s="40"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="59" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="30" t="s">
-        <v>289</v>
+      <c r="C59" s="40"/>
+      <c r="D59" s="134" t="s">
+        <v>288</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="72" t="s">
-        <v>377</v>
+      <c r="F59" s="133" t="s">
+        <v>488</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -5561,13 +5566,13 @@
         <v>138</v>
       </c>
       <c r="F60" s="72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>236</v>
       </c>
@@ -5578,11 +5583,11 @@
       <c r="E61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="72" t="s">
-        <v>377</v>
+      <c r="F61" s="133" t="s">
+        <v>489</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -5591,7 +5596,7 @@
       </c>
       <c r="C62" s="89"/>
       <c r="D62" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>148</v>
@@ -5600,7 +5605,7 @@
         <v>148</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -5609,13 +5614,13 @@
       </c>
       <c r="C63" s="89"/>
       <c r="D63" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F63" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G63" s="40"/>
     </row>
@@ -5631,7 +5636,7 @@
         <v>139</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G64" s="40"/>
     </row>
@@ -5644,28 +5649,28 @@
         <v>7.61</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>241</v>
       </c>
       <c r="C66" s="89"/>
       <c r="D66" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E66" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="72" t="s">
-        <v>377</v>
+      <c r="F66" s="135" t="s">
+        <v>428</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5677,13 +5682,13 @@
       <c r="C67" s="92"/>
       <c r="D67" s="31"/>
       <c r="E67" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F67" s="74" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -5692,13 +5697,13 @@
       </c>
       <c r="C68" s="89"/>
       <c r="D68" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G68" s="40"/>
     </row>
@@ -5708,13 +5713,13 @@
       </c>
       <c r="C69" s="89"/>
       <c r="D69" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G69" s="40"/>
     </row>
@@ -5724,13 +5729,13 @@
       </c>
       <c r="C70" s="89"/>
       <c r="D70" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G70" s="40"/>
     </row>
@@ -5740,13 +5745,13 @@
       </c>
       <c r="C71" s="89"/>
       <c r="D71" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G71" s="40"/>
     </row>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C73" s="89"/>
       <c r="D73" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>148</v>
@@ -5783,13 +5788,13 @@
       </c>
       <c r="C74" s="89"/>
       <c r="D74" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F74" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G74" s="40"/>
     </row>
@@ -5799,7 +5804,7 @@
       </c>
       <c r="C75" s="89"/>
       <c r="D75" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E75" s="40" t="s">
         <v>141</v>
@@ -5815,7 +5820,7 @@
       </c>
       <c r="C76" s="89"/>
       <c r="D76" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>142</v>
@@ -5831,7 +5836,7 @@
       </c>
       <c r="C77" s="89"/>
       <c r="D77" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>143</v>
@@ -5847,13 +5852,13 @@
       </c>
       <c r="C78" s="89"/>
       <c r="D78" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="F78" s="120" t="s">
-        <v>433</v>
+        <v>388</v>
+      </c>
+      <c r="F78" s="118" t="s">
+        <v>430</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -5863,11 +5868,11 @@
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="40"/>
@@ -5878,13 +5883,13 @@
       </c>
       <c r="C80" s="89"/>
       <c r="D80" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G80" s="40"/>
     </row>
@@ -5901,7 +5906,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C82" s="89"/>
       <c r="D82" s="32">
@@ -5911,10 +5916,10 @@
         <v>140</v>
       </c>
       <c r="F82" s="72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G82" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5923,7 +5928,7 @@
       </c>
       <c r="C83" s="89"/>
       <c r="D83" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E83" s="44" t="s">
         <v>148</v>
@@ -5932,7 +5937,7 @@
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -5944,10 +5949,10 @@
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F84" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G84" s="40"/>
     </row>
@@ -5960,10 +5965,10 @@
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F85" s="73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G85" s="40"/>
     </row>
@@ -5973,16 +5978,16 @@
       </c>
       <c r="C86" s="89"/>
       <c r="D86" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E86" s="46" t="s">
         <v>138</v>
       </c>
       <c r="F86" s="72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G86" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -5991,16 +5996,16 @@
       </c>
       <c r="C87" s="89"/>
       <c r="D87" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
       <c r="F87" s="72" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -6011,10 +6016,10 @@
       <c r="C88" s="91"/>
       <c r="D88" s="31"/>
       <c r="E88" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -6023,16 +6028,16 @@
       </c>
       <c r="C89" s="89"/>
       <c r="D89" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>258</v>
       </c>
       <c r="G89" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -6041,10 +6046,10 @@
       </c>
       <c r="C90" s="89"/>
       <c r="D90" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F90" s="43" t="s">
         <v>258</v>
@@ -6057,10 +6062,10 @@
       </c>
       <c r="C91" s="89"/>
       <c r="D91" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F91" s="43" t="s">
         <v>258</v>
@@ -6073,10 +6078,10 @@
       </c>
       <c r="C92" s="89"/>
       <c r="D92" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>258</v>
@@ -6089,11 +6094,11 @@
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="40"/>
@@ -6104,16 +6109,16 @@
       </c>
       <c r="C94" s="89"/>
       <c r="D94" s="97" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -6122,15 +6127,15 @@
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="90" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -6141,10 +6146,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G96" s="40"/>
     </row>
@@ -6156,10 +6161,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G97" s="40"/>
     </row>
@@ -6204,22 +6209,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6230,8 +6235,8 @@
       <c r="C4" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="136" t="s">
-        <v>495</v>
+      <c r="D4" s="129" t="s">
+        <v>490</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -6241,10 +6246,10 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6253,10 +6258,10 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6265,10 +6270,10 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6277,13 +6282,13 @@
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6292,10 +6297,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6307,7 +6312,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -6319,10 +6324,10 @@
         <v>154</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6334,10 +6339,10 @@
         <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6349,7 +6354,7 @@
         <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6361,7 +6366,7 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6370,10 +6375,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -6382,10 +6387,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6407,10 +6412,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6419,10 +6424,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6431,10 +6436,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6443,10 +6448,10 @@
         <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6455,10 +6460,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -6467,10 +6472,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6479,10 +6484,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6491,10 +6496,10 @@
         <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6503,10 +6508,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -6515,10 +6520,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6527,10 +6532,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6539,10 +6544,10 @@
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="59" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E29" s="60"/>
     </row>
@@ -6552,10 +6557,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -6564,10 +6569,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -6576,10 +6581,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6588,10 +6593,10 @@
         <v>92</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6600,10 +6605,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6612,10 +6617,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -6624,10 +6629,10 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -6636,10 +6641,10 @@
         <v>93</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -6648,10 +6653,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6660,10 +6665,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -6672,10 +6677,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -6684,10 +6689,10 @@
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="59" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E41" s="60"/>
     </row>
@@ -6697,10 +6702,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -6709,10 +6714,10 @@
         <v>91</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -6721,10 +6726,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -6733,10 +6738,10 @@
         <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -6745,10 +6750,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -6757,10 +6762,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -6769,10 +6774,10 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D48" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -6781,10 +6786,10 @@
         <v>93</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -6793,10 +6798,10 @@
         <v>94</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6805,10 +6810,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -6817,10 +6822,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6831,11 +6836,11 @@
       <c r="C53" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="122" t="s">
-        <v>377</v>
+      <c r="D53" s="120" t="s">
+        <v>375</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -6844,10 +6849,10 @@
         <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -6856,13 +6861,13 @@
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D55" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6874,7 +6879,7 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6883,13 +6888,13 @@
         <v>10</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -6901,7 +6906,7 @@
         <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -6910,13 +6915,13 @@
         <v>3</v>
       </c>
       <c r="C59" s="69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E59" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -6925,13 +6930,13 @@
         <v>4</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E60" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -6940,13 +6945,13 @@
         <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E61" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -6958,7 +6963,7 @@
         <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -6970,7 +6975,7 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -6979,10 +6984,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -6991,10 +6996,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -7005,8 +7010,8 @@
       <c r="C66" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="138" t="s">
-        <v>496</v>
+      <c r="D66" s="131" t="s">
+        <v>491</v>
       </c>
       <c r="E66" s="27"/>
     </row>
@@ -7016,10 +7021,10 @@
         <v>90</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -7028,13 +7033,13 @@
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E68" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7046,7 +7051,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7058,7 +7063,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -7070,7 +7075,7 @@
         <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -7082,7 +7087,7 @@
         <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -7094,7 +7099,7 @@
         <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -7103,10 +7108,10 @@
         <v>31</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7118,7 +7123,7 @@
         <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -7130,7 +7135,7 @@
         <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -7139,10 +7144,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D77" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7151,10 +7156,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -7180,14 +7185,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
@@ -7203,22 +7209,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="119"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="141"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -7230,10 +7236,10 @@
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>447</v>
+        <v>258</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,7 +7254,7 @@
         <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7262,9 +7268,6 @@
       <c r="D5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F5" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -7278,7 +7281,7 @@
         <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7293,7 +7296,7 @@
         <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7308,7 +7311,7 @@
         <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7317,7 +7320,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>174</v>
@@ -7329,7 +7332,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>176</v>
@@ -7343,7 +7346,7 @@
       <c r="C11" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="101" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7356,7 +7359,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7370,8 +7373,8 @@
       <c r="D13" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="101" t="s">
-        <v>497</v>
+      <c r="E13" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="F13" s="60"/>
     </row>
@@ -7386,9 +7389,6 @@
       <c r="D14" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F14" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -7402,7 +7402,7 @@
         <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7417,7 +7417,7 @@
         <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,7 +7432,7 @@
         <v>269</v>
       </c>
       <c r="F17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,7 +7441,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>174</v>
@@ -7453,10 +7453,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7467,7 +7467,7 @@
       <c r="C20" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="102" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7480,7 +7480,7 @@
         <v>152</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7494,8 +7494,8 @@
       <c r="D22" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="101" t="s">
-        <v>497</v>
+      <c r="E22" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="F22" s="60"/>
     </row>
@@ -7510,9 +7510,6 @@
       <c r="D23" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F23" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -7526,7 +7523,7 @@
         <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7541,7 +7538,7 @@
         <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7556,7 +7553,7 @@
         <v>269</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7565,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>174</v>
@@ -7576,7 +7573,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>177</v>
@@ -7590,7 +7587,7 @@
       <c r="C29" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="102" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7603,7 +7600,7 @@
         <v>152</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7617,8 +7614,8 @@
       <c r="D31" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="101" t="s">
-        <v>497</v>
+      <c r="E31" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="F31" s="60"/>
     </row>
@@ -7633,9 +7630,6 @@
       <c r="D32" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F32" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -7649,7 +7643,7 @@
         <v>269</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7664,7 +7658,7 @@
         <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7679,7 +7673,7 @@
         <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7688,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>174</v>
@@ -7700,7 +7694,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>178</v>
@@ -7714,7 +7708,7 @@
       <c r="C38" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="102" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7727,7 +7721,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7774,28 +7768,28 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="100"/>
-      <c r="C3" s="115" t="s">
-        <v>445</v>
+      <c r="C3" s="114" t="s">
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7806,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7815,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -7825,7 +7819,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -7835,7 +7829,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -7845,7 +7839,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -7857,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -7867,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -7877,7 +7871,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -7887,7 +7881,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -7897,20 +7891,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" s="100"/>
-      <c r="E13" s="116"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="141" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="119"/>
+      <c r="A15" s="141"/>
       <c r="C15" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7921,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7930,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7939,31 +7933,31 @@
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="113" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7974,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7982,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -7990,7 +7984,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -7998,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8006,7 +8000,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -8017,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -8025,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -8033,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -8041,7 +8035,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -8049,27 +8043,27 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="117"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="119"/>
+      <c r="A32" s="141"/>
       <c r="C32" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8118,7 +8112,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8215,7 +8209,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -8344,13 +8338,13 @@
       <c r="E68" s="100"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="141" t="s">
         <v>38</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="119"/>
+      <c r="A70" s="141"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8421,7 +8415,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -8750,15 +8744,15 @@
       <c r="E124" s="100"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="119" t="s">
+      <c r="A125" s="141" t="s">
         <v>69</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="119"/>
+      <c r="A126" s="141"/>
       <c r="C126" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -8769,7 +8763,7 @@
         <v>42</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -8778,7 +8772,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8787,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8796,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8805,7 +8799,7 @@
         <v>31</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8814,7 +8808,7 @@
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8823,7 +8817,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8834,7 +8828,7 @@
         <v>42</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8843,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8852,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8861,7 +8855,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8870,7 +8864,7 @@
         <v>31</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8879,7 +8873,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8888,7 +8882,7 @@
         <v>8</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8899,7 +8893,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8908,7 +8902,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8917,7 +8911,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8926,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -8935,7 +8929,7 @@
         <v>31</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -8944,7 +8938,7 @@
         <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -8953,7 +8947,7 @@
         <v>8</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -8964,7 +8958,7 @@
         <v>42</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -8973,7 +8967,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -8982,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -8991,7 +8985,7 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -9000,7 +8994,7 @@
         <v>31</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -9009,7 +9003,7 @@
         <v>47</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -9018,7 +9012,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -9027,21 +9021,21 @@
         <v>8</v>
       </c>
       <c r="C155" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D155" s="100"/>
       <c r="E155" s="100"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="119" t="s">
+      <c r="A156" s="141" t="s">
         <v>70</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="119"/>
+      <c r="A157" s="141"/>
       <c r="C157" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -9052,7 +9046,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -9061,7 +9055,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -9072,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -9081,7 +9075,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -9092,7 +9086,7 @@
         <v>66</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -9101,7 +9095,7 @@
         <v>67</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -9110,7 +9104,7 @@
         <v>31</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9121,7 +9115,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -9130,7 +9124,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -9139,7 +9133,7 @@
         <v>31</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -9150,7 +9144,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -9159,7 +9153,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -9170,7 +9164,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -9179,7 +9173,7 @@
         <v>8</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -9188,7 +9182,7 @@
         <v>31</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9199,7 +9193,7 @@
         <v>137</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9210,7 +9204,7 @@
         <v>137</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -9221,7 +9215,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -9230,7 +9224,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -9239,23 +9233,23 @@
         <v>8</v>
       </c>
       <c r="C177" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D177" s="100"/>
       <c r="E177" s="100"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="119" t="s">
+      <c r="A178" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="119"/>
+      <c r="B178" s="141"/>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="119"/>
-      <c r="B179" s="119"/>
+      <c r="A179" s="141"/>
+      <c r="B179" s="141"/>
       <c r="C179" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -9266,7 +9260,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -9275,7 +9269,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -9284,7 +9278,7 @@
         <v>4</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -9293,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -9302,7 +9296,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -9311,23 +9305,23 @@
         <v>47</v>
       </c>
       <c r="C185" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D185" s="100"/>
       <c r="E185" s="100"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="119" t="s">
+      <c r="A186" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="B186" s="119"/>
+      <c r="B186" s="141"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="119"/>
-      <c r="B187" s="119"/>
+      <c r="A187" s="141"/>
+      <c r="B187" s="141"/>
       <c r="C187" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9338,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -9347,7 +9341,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -9356,23 +9350,23 @@
         <v>8</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D190" s="100"/>
       <c r="E190" s="100"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="119" t="s">
+      <c r="A191" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="B191" s="119"/>
+      <c r="B191" s="141"/>
       <c r="C191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="119"/>
-      <c r="B192" s="119"/>
+      <c r="A192" s="141"/>
+      <c r="B192" s="141"/>
       <c r="C192" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -9383,7 +9377,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -9392,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -9401,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -9410,7 +9404,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -9419,7 +9413,7 @@
         <v>8</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -9430,7 +9424,7 @@
         <v>10</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -9439,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -9448,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -9457,7 +9451,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -9466,7 +9460,7 @@
         <v>8</v>
       </c>
       <c r="C202" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D202" s="100"/>
       <c r="E202" s="100"/>
@@ -9526,30 +9520,30 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="17"/>
       <c r="C3" s="75" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9560,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -9571,13 +9565,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9585,13 +9579,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9599,13 +9593,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9613,10 +9607,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9624,10 +9618,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -9652,7 +9646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9675,21 +9669,21 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="141"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
@@ -9701,11 +9695,11 @@
       <c r="C4" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="133" t="s">
-        <v>489</v>
+      <c r="D4" s="136" t="s">
+        <v>494</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9714,31 +9708,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="D6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9747,7 +9747,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9758,6 +9761,9 @@
       <c r="C9" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="D9" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -9765,10 +9771,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -9777,6 +9786,9 @@
       </c>
       <c r="C11" s="5" t="s">
         <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -9787,20 +9799,23 @@
       <c r="C12" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="129" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="130" t="s">
-        <v>382</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>482</v>
+      <c r="C13" s="138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="137" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -9809,10 +9824,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9821,7 +9836,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D15" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -9830,7 +9848,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D16" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9839,7 +9860,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D17" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9850,6 +9874,9 @@
       <c r="C18" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -9859,6 +9886,9 @@
       <c r="C19" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="D19" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
@@ -9882,14 +9912,14 @@
         <v>11</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="133" t="s">
-        <v>489</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>456</v>
+      <c r="D22" s="119" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9898,10 +9928,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9910,7 +9940,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9919,7 +9952,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D25" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9928,7 +9964,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D26" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9939,13 +9978,19 @@
       <c r="C27" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="D27" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -9956,8 +10001,11 @@
       <c r="C29" s="52" t="s">
         <v>175</v>
       </c>
+      <c r="D29" t="s">
+        <v>455</v>
+      </c>
       <c r="E29" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -9968,20 +10016,23 @@
       <c r="C30" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="133" t="s">
-        <v>489</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>456</v>
+      <c r="D31" s="119" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -9990,10 +10041,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10002,7 +10053,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D33" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -10011,7 +10065,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D34" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10020,7 +10077,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
+      </c>
+      <c r="D35" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -10031,17 +10091,23 @@
       <c r="C36" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="D36" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>498</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -10052,6 +10118,9 @@
       <c r="C38" s="5" t="s">
         <v>175</v>
       </c>
+      <c r="D38" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
@@ -10059,6 +10128,9 @@
       </c>
       <c r="C39" s="5" t="s">
         <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -10107,20 +10179,20 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="141"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10141,10 +10213,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10153,10 +10225,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10165,10 +10237,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10177,13 +10249,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10192,10 +10264,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10204,10 +10276,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -10219,7 +10291,7 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10228,10 +10300,10 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10240,10 +10312,10 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10252,10 +10324,10 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -10263,11 +10335,11 @@
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>411</v>
+      <c r="D15" s="105" t="s">
+        <v>408</v>
       </c>
       <c r="E15" s="60"/>
     </row>
@@ -10277,10 +10349,10 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10289,10 +10361,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -10301,10 +10373,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10313,10 +10385,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10325,10 +10397,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10340,7 +10412,7 @@
         <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10352,7 +10424,7 @@
         <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10374,10 +10446,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D24" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10386,10 +10458,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10398,10 +10470,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10410,10 +10482,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10425,7 +10497,7 @@
         <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10437,7 +10509,7 @@
         <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10446,10 +10518,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10461,7 +10533,7 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10470,10 +10542,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10482,10 +10554,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10494,10 +10566,10 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10509,7 +10581,7 @@
         <v>147</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E35" s="60"/>
     </row>
@@ -10519,10 +10591,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -10531,10 +10603,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -10546,7 +10618,7 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10558,7 +10630,7 @@
         <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -10567,10 +10639,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10582,7 +10654,7 @@
         <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -10594,7 +10666,7 @@
         <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -10643,22 +10715,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10679,13 +10751,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10694,13 +10766,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10709,13 +10781,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10724,10 +10796,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10736,10 +10808,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10748,10 +10820,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E10" s="100"/>
     </row>
@@ -10761,10 +10833,10 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10773,13 +10845,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10788,13 +10860,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10803,13 +10875,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10818,10 +10890,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10830,10 +10902,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10842,10 +10914,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E17" s="100"/>
     </row>
@@ -10855,10 +10927,10 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D18" s="108" t="s">
-        <v>477</v>
+        <v>343</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10876,10 +10948,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10888,10 +10960,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10900,10 +10972,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10912,10 +10984,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E23" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10944,10 +11016,10 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D26" s="108" t="s">
-        <v>374</v>
+        <v>341</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10956,7 +11028,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10965,10 +11037,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10977,10 +11049,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10989,10 +11061,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11001,10 +11073,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11033,13 +11105,13 @@
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11084,7 +11156,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11093,7 +11165,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11102,7 +11174,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D41" s="100"/>
       <c r="E41" s="100"/>
@@ -11113,10 +11185,10 @@
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="75" t="s">
-        <v>390</v>
-      </c>
-      <c r="D42" s="128" t="s">
-        <v>433</v>
+        <v>388</v>
+      </c>
+      <c r="D42" s="126" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11128,7 +11200,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -11140,10 +11212,10 @@
         <v>269</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E44" s="76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11155,10 +11227,10 @@
         <v>269</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E45" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11170,10 +11242,10 @@
         <v>269</v>
       </c>
       <c r="D46" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11185,13 +11257,13 @@
         <v>269</v>
       </c>
       <c r="D47" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
         <v>47</v>
@@ -11200,7 +11272,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11212,7 +11284,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11224,7 +11296,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11236,10 +11308,10 @@
         <v>269</v>
       </c>
       <c r="D51" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E51" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -11287,22 +11359,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11323,10 +11395,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11338,7 +11410,7 @@
         <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11350,7 +11422,7 @@
         <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11362,7 +11434,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -11374,7 +11446,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11386,7 +11458,7 @@
         <v>158</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E10" s="100"/>
     </row>
@@ -11396,10 +11468,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -11408,10 +11480,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -11423,7 +11495,7 @@
         <v>154</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11435,7 +11507,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11444,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11456,7 +11528,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -11468,7 +11540,7 @@
         <v>158</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E17" s="100"/>
     </row>
@@ -11478,13 +11550,13 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>477</v>
+        <v>340</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>473</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -11502,7 +11574,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -11560,11 +11632,11 @@
       <c r="C26" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="125" t="s">
-        <v>422</v>
+      <c r="D26" s="123" t="s">
+        <v>419</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -11582,7 +11654,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -11611,7 +11683,7 @@
       <c r="C31" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="132" t="s">
+      <c r="E31" s="128" t="s">
         <v>187</v>
       </c>
     </row>
@@ -11644,10 +11716,10 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11665,7 +11737,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11703,7 +11775,7 @@
       <c r="C40" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="126" t="s">
+      <c r="E40" s="124" t="s">
         <v>188</v>
       </c>
     </row>
@@ -11724,10 +11796,10 @@
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="75" t="s">
-        <v>390</v>
-      </c>
-      <c r="D42" s="121" t="s">
-        <v>433</v>
+        <v>388</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11745,10 +11817,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11837,8 +11909,8 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11860,23 +11932,23 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -11888,11 +11960,11 @@
       <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="136" t="s">
-        <v>493</v>
+      <c r="D4" s="129" t="s">
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -11901,7 +11973,7 @@
         <v>89</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -11911,7 +11983,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="26"/>
     </row>
@@ -11921,11 +11993,11 @@
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11934,7 +12006,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D8" s="26"/>
     </row>
@@ -11954,11 +12026,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -11967,11 +12039,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -12000,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D14" s="26"/>
     </row>
@@ -12010,7 +12082,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D15" s="26"/>
     </row>
@@ -12023,10 +12095,10 @@
         <v>171</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -12127,11 +12199,11 @@
       <c r="C26" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="137" t="s">
-        <v>494</v>
+      <c r="D26" s="130" t="s">
+        <v>489</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -12140,7 +12212,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D27" s="26"/>
     </row>
@@ -12150,11 +12222,11 @@
         <v>31</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -12163,11 +12235,11 @@
         <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -12176,10 +12248,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -12202,7 +12274,7 @@
       </c>
       <c r="D32" s="26"/>
       <c r="E32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12215,7 +12287,7 @@
       </c>
       <c r="D33" s="26"/>
       <c r="E33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -12234,7 +12306,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D35" s="26"/>
     </row>
@@ -12244,7 +12316,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D36" s="26"/>
     </row>
@@ -12254,7 +12326,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D37" s="26"/>
     </row>
@@ -12264,7 +12336,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D38" s="26"/>
     </row>
@@ -12287,10 +12359,10 @@
         <v>90</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -12299,10 +12371,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -12311,10 +12383,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D42" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12323,10 +12395,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -12335,10 +12407,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12347,10 +12419,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -12359,10 +12431,10 @@
         <v>26</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12371,10 +12443,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -12383,10 +12455,10 @@
         <v>94</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -12395,10 +12467,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12407,10 +12479,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12418,11 +12490,11 @@
         <v>98</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="104" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="104" t="s">
-        <v>378</v>
+      <c r="C51" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="103" t="s">
+        <v>376</v>
       </c>
       <c r="E51" s="60"/>
     </row>
@@ -12432,10 +12504,10 @@
         <v>90</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -12444,10 +12516,10 @@
         <v>91</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -12456,10 +12528,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -12468,10 +12540,10 @@
         <v>92</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -12480,10 +12552,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -12492,10 +12564,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -12504,10 +12576,10 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -12516,10 +12588,10 @@
         <v>93</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -12528,10 +12600,10 @@
         <v>94</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12540,10 +12612,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -12552,10 +12624,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12567,7 +12639,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E63" s="60"/>
     </row>
@@ -12577,10 +12649,10 @@
         <v>89</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -12589,9 +12661,9 @@
         <v>90</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D65" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D65" s="107" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12601,10 +12673,10 @@
         <v>91</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="D66" s="123" t="s">
-        <v>467</v>
+        <v>359</v>
+      </c>
+      <c r="D66" s="121" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -12613,10 +12685,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -12625,10 +12697,10 @@
         <v>92</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12637,13 +12709,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -12652,13 +12724,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -12667,10 +12739,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -12691,10 +12763,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -12703,10 +12775,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -12715,10 +12787,10 @@
       </c>
       <c r="B75" s="54"/>
       <c r="C75" s="59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E75" s="60"/>
     </row>
@@ -12728,10 +12800,10 @@
         <v>90</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -12740,10 +12812,10 @@
         <v>91</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -12752,10 +12824,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -12764,10 +12836,10 @@
         <v>92</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -12776,10 +12848,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -12788,10 +12860,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -12800,10 +12872,10 @@
         <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D82" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -12812,10 +12884,10 @@
         <v>93</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -12824,10 +12896,10 @@
         <v>94</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12836,10 +12908,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -12848,10 +12920,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D86" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12859,14 +12931,14 @@
         <v>101</v>
       </c>
       <c r="B87" s="54"/>
-      <c r="C87" s="111" t="s">
+      <c r="C87" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="110" t="s">
-        <v>431</v>
+      <c r="D87" s="109" t="s">
+        <v>428</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12875,10 +12947,10 @@
         <v>89</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D88" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12887,10 +12959,10 @@
         <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D89" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -12899,13 +12971,13 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D90" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E90" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -12917,7 +12989,7 @@
         <v>168</v>
       </c>
       <c r="D91" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -12926,13 +12998,13 @@
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D92" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E92" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -12944,7 +13016,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -12953,13 +13025,13 @@
         <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D94" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -12968,13 +13040,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D95" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E95" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -12983,13 +13055,13 @@
         <v>31</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D96" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E96" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13001,7 +13073,7 @@
         <v>167</v>
       </c>
       <c r="D97" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13013,7 +13085,7 @@
         <v>169</v>
       </c>
       <c r="D98" s="73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -13021,11 +13093,11 @@
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="124" t="s">
-        <v>370</v>
+      <c r="C99" s="122" t="s">
+        <v>368</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E99" s="100"/>
     </row>
@@ -13075,23 +13147,23 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13099,14 +13171,14 @@
         <v>102</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="113" t="s">
-        <v>405</v>
+      <c r="C4" s="112" t="s">
+        <v>402</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13187,14 +13259,14 @@
         <v>103</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="113" t="s">
-        <v>405</v>
+      <c r="C14" s="112" t="s">
+        <v>402</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13267,14 +13339,14 @@
         <v>104</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="113" t="s">
-        <v>405</v>
+      <c r="C23" s="112" t="s">
+        <v>402</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -13347,14 +13419,14 @@
         <v>105</v>
       </c>
       <c r="B32" s="54"/>
-      <c r="C32" s="113" t="s">
-        <v>405</v>
+      <c r="C32" s="112" t="s">
+        <v>402</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -13467,22 +13539,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13503,10 +13575,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13515,13 +13587,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13530,13 +13602,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13545,10 +13617,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -13557,10 +13629,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -13569,10 +13641,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -13581,10 +13653,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E11" s="60"/>
     </row>
@@ -13594,13 +13666,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13609,13 +13681,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -13624,13 +13696,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13639,10 +13711,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13651,10 +13723,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13663,10 +13735,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13690,8 +13762,8 @@
       <c r="C19" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="108" t="s">
-        <v>374</v>
+      <c r="D19" s="107" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -13714,11 +13786,11 @@
       <c r="C21" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="109" t="s">
-        <v>425</v>
+      <c r="D21" s="108" t="s">
+        <v>422</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13729,8 +13801,8 @@
       <c r="C22" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="D22" s="108" t="s">
-        <v>374</v>
+      <c r="D22" s="107" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -13741,8 +13813,8 @@
       <c r="C23" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="D23" s="108" t="s">
-        <v>374</v>
+      <c r="D23" s="107" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13751,13 +13823,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="108" t="s">
-        <v>374</v>
+        <v>432</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>372</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -13768,8 +13840,8 @@
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="108" t="s">
-        <v>417</v>
+      <c r="D25" s="107" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -13780,8 +13852,8 @@
       <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="108" t="s">
-        <v>417</v>
+      <c r="D26" s="107" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13815,10 +13887,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -13830,10 +13902,10 @@
         <v>269</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -13845,7 +13917,7 @@
         <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13857,7 +13929,7 @@
         <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13869,7 +13941,7 @@
         <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13881,7 +13953,7 @@
         <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -13893,7 +13965,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13902,10 +13974,10 @@
         <v>110</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13917,7 +13989,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -13942,7 +14014,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -13963,10 +14035,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -13978,7 +14050,7 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -13990,7 +14062,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -13999,10 +14071,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14011,10 +14083,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14023,10 +14095,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -14034,11 +14106,11 @@
         <v>112</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="112" t="s">
-        <v>390</v>
-      </c>
-      <c r="D47" s="127" t="s">
-        <v>433</v>
+      <c r="C47" s="111" t="s">
+        <v>388</v>
+      </c>
+      <c r="D47" s="125" t="s">
+        <v>430</v>
       </c>
       <c r="E47" s="60"/>
     </row>
@@ -14048,7 +14120,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -14057,10 +14129,10 @@
         <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14069,7 +14141,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -14078,7 +14150,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -14087,10 +14159,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14099,7 +14171,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -14108,7 +14180,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -14117,10 +14189,10 @@
         <v>31</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E55" s="66" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -14129,10 +14201,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -14141,7 +14213,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">

--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="72" windowWidth="18144" windowHeight="8904"/>
+    <workbookView xWindow="384" yWindow="72" windowWidth="18144" windowHeight="8904" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="487">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -574,9 +574,6 @@
     <t>requestedAppointmentTime or proposedAppointmentTime</t>
   </si>
   <si>
-    <t>AppointmentProposal or AppointmentRequest or ScheduledAppointment</t>
-  </si>
-  <si>
     <t>proposedAppointmentTime</t>
   </si>
   <si>
@@ -1039,9 +1036,6 @@
     <t>7.49.1</t>
   </si>
   <si>
-    <t>ObservationOrder removed from latest vMR DAM (LM_R2_Ballot) and replaced with LabatoryOrder class.</t>
-  </si>
-  <si>
     <t>AdverseEventBase/adverseEventCode, AllergyOrIntolerance/rectionType</t>
   </si>
   <si>
@@ -1123,9 +1117,6 @@
     <t>administrationTimeInterval ?</t>
   </si>
   <si>
-    <t>deliveryRate  + frequency(*)</t>
-  </si>
-  <si>
     <t>comment(*)</t>
   </si>
   <si>
@@ -1135,9 +1126,6 @@
     <t>orderEventTime or administrationTimeInterval</t>
   </si>
   <si>
-    <t>Should move "comment" from SubstanceAdministrationProposal to SubstanceAdministrationBase class</t>
-  </si>
-  <si>
     <t>See comment above</t>
   </si>
   <si>
@@ -1150,30 +1138,15 @@
     <t>QIDAM class</t>
   </si>
   <si>
-    <t>perscription?</t>
-  </si>
-  <si>
-    <t>MedicationAdministrationDescriptor</t>
-  </si>
-  <si>
     <t>AllergyIntolerance</t>
   </si>
   <si>
-    <t>ClinicalStatement/attribute extension? (*)</t>
-  </si>
-  <si>
-    <t>(*) Should move "comment" from SubstanceAdministrationProposal to SubstanceAdministrationBase class</t>
-  </si>
-  <si>
     <t>QIDAM</t>
   </si>
   <si>
     <t>FamilyHistoryObservation</t>
   </si>
   <si>
-    <t>PhysicalExaminationDescriptor</t>
-  </si>
-  <si>
     <t>pmReason</t>
   </si>
   <si>
@@ -1231,9 +1204,6 @@
     <t>Goal or GoalProposal</t>
   </si>
   <si>
-    <t>QiDAM</t>
-  </si>
-  <si>
     <t>No direct class in vMR</t>
   </si>
   <si>
@@ -1246,9 +1216,6 @@
     <t>CommunicationEvent(*)</t>
   </si>
   <si>
-    <t>See note</t>
-  </si>
-  <si>
     <t>EncounterProposal</t>
   </si>
   <si>
@@ -1271,9 +1238,6 @@
   </si>
   <si>
     <t>orderedAtTime</t>
-  </si>
-  <si>
-    <t>(*) vMR: AppointmentProposal or AppointmentRequest or ScheduledAppointment</t>
   </si>
   <si>
     <t>MedicationDispensation</t>
@@ -1344,30 +1308,9 @@
     <t>method</t>
   </si>
   <si>
-    <t>(**)</t>
-  </si>
-  <si>
-    <t>(**) ProcedureProposal has prnReason field. Move to base class or copy</t>
-  </si>
-  <si>
-    <t>(*) ProcedureProposal has comment field. Suggest to move to ProcedureBase class or add to ProcedureOrder class</t>
-  </si>
-  <si>
     <t>interpretation</t>
   </si>
   <si>
-    <t>(*) ProcedureProposal has comment field. Suggest to move to ProcedureBase class or add to ProcedureEvent class</t>
-  </si>
-  <si>
-    <t>(**) problemStatus = active</t>
-  </si>
-  <si>
-    <t>(**) problemStatus = inactive</t>
-  </si>
-  <si>
-    <t>(**) problemStatus = resolved</t>
-  </si>
-  <si>
     <t>(*) TBD</t>
   </si>
   <si>
@@ -1386,21 +1329,9 @@
     <t>AllergyOrIntolerance</t>
   </si>
   <si>
-    <t>(*) Latest vMR (May-2013) GoalProposal has comment field which could have this info</t>
-  </si>
-  <si>
     <t>(*) comment</t>
   </si>
   <si>
-    <t>field changed to conditionStatus in updated vMR (MAY-2013)</t>
-  </si>
-  <si>
-    <t>Field changed to 'conditionEffectiveTime' in updated vMR (MAY-2013)</t>
-  </si>
-  <si>
-    <t>(**) problemStatus field changed to conditionStatus in vMR (MAY-2013)</t>
-  </si>
-  <si>
     <t>Device is TBD placeholder in QIDAM</t>
   </si>
   <si>
@@ -1452,9 +1383,6 @@
     <t>category + status</t>
   </si>
   <si>
-    <t>comment field added in vMR (MAY-2013)</t>
-  </si>
-  <si>
     <t>ObservationAbsence</t>
   </si>
   <si>
@@ -1486,21 +1414,6 @@
   </si>
   <si>
     <t>QRDA 7.40.1.  GoalDescriptor/CarePlanDescriptor interface are TBD placeholders in QIDAM.</t>
-  </si>
-  <si>
-    <t>(*) CommunicationEvent is new class defined in vMR (May-2013 balloted version)</t>
-  </si>
-  <si>
-    <t>frequency added in vMR (May-2013)</t>
-  </si>
-  <si>
-    <t>prnReason field added in vMR (May-2013)</t>
-  </si>
-  <si>
-    <t>frequency added in vMR (MAY-2013)</t>
-  </si>
-  <si>
-    <t>prnReason field added in vMR (MAY-2013)</t>
   </si>
   <si>
     <t>TBD Order interface</t>
@@ -1524,24 +1437,12 @@
     </r>
   </si>
   <si>
-    <t>Medication, MedicationPrescription or MedicationStatement</t>
-  </si>
-  <si>
     <t>MedicationStatement or MedicationDoseAdministration</t>
   </si>
   <si>
-    <t>Medication or MedicationStatement</t>
-  </si>
-  <si>
-    <t>MedicationAdministrationProposal or MedicationPrescription</t>
-  </si>
-  <si>
     <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR. Symptom class is placeholder in QIDAM and needs further refinement.</t>
   </si>
   <si>
-    <t>Symptoms are Observations in vMR</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -1551,9 +1452,6 @@
     <t>status = active</t>
   </si>
   <si>
-    <t>QIDAM category set to Condition, diagnosis, etc.</t>
-  </si>
-  <si>
     <t>status = resolved</t>
   </si>
   <si>
@@ -1563,10 +1461,64 @@
     <t>comments</t>
   </si>
   <si>
-    <t>defined in model</t>
-  </si>
-  <si>
     <t>(*) vMR needs "comment" field and/or extension (ClinicalStatement/attribute extension?)</t>
+  </si>
+  <si>
+    <t>CommunicationEvent</t>
+  </si>
+  <si>
+    <t>(*) CommunicationEvent is new class defined in vMR Release 2 (Aug-2013)</t>
+  </si>
+  <si>
+    <t>(*) Latest vMR Release 2 (Aug-2013) GoalProposal has comment field which could have this info</t>
+  </si>
+  <si>
+    <t>ObservationOrder removed from latest vMR DAM R2 (Aug 2013) and replaced with LaboratoryOrder class.</t>
+  </si>
+  <si>
+    <t>deliveryRate  + frequency</t>
+  </si>
+  <si>
+    <t>(*) vMR: ProcedureProposal has comment field. Suggest to move to ProcedureBase class or add to ProcedureEvent class</t>
+  </si>
+  <si>
+    <t>(*) vMR: Move "comment" from SubstanceAdministrationProposal to SubstanceAdministrationBase class and/or copy</t>
+  </si>
+  <si>
+    <t>prescription?</t>
+  </si>
+  <si>
+    <t>MedicationPrescription or MedicationStatement</t>
+  </si>
+  <si>
+    <t>MedicationAdministrationProposal</t>
+  </si>
+  <si>
+    <t>urgency code</t>
+  </si>
+  <si>
+    <t>prnReason field added in vMR R2 (AUG-2013)</t>
+  </si>
+  <si>
+    <t>MedicationAdministrationProposal, MedicationPrescription</t>
+  </si>
+  <si>
+    <t>proposedAtTime / orderedAtTime</t>
+  </si>
+  <si>
+    <t>See QRDA for Symptom description</t>
+  </si>
+  <si>
+    <t>QIDAM category set to condition, diagnosis, etc.</t>
+  </si>
+  <si>
+    <t>(*) vMR: AppointmentProposal or AppointmentRequest</t>
+  </si>
+  <si>
+    <t>AppointmentProposal or AppointmentRequest</t>
+  </si>
+  <si>
+    <t>(*) vMR: Should move "comment"+E28 from SubstanceAdministrationProposal to SubstanceAdministrationBase class and/or add to copy to event class</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1667,7 +1617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1820,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1958,10 +1910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1969,7 +1917,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2047,7 +1994,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2081,16 +2028,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2124,9 +2065,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2144,6 +2082,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4673,16 +4646,16 @@
   </sheetPr>
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="80" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="77" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
@@ -4691,35 +4664,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>392</v>
+        <v>188</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>383</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="90" t="s">
-        <v>399</v>
+      <c r="C2" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4727,30 +4700,30 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="30">
         <v>7.31</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="89"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="30">
         <v>7.51</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4758,64 +4731,62 @@
         <v>15</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="91"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>487</v>
+      <c r="F6" s="70" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="92"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="31"/>
       <c r="E7" s="22"/>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="93">
+      <c r="D8" s="90">
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" s="94" t="s">
-        <v>486</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>480</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="91"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="32">
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4825,12 +4796,12 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="32">
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4841,96 +4812,96 @@
         <v>24</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="91"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="140" t="s">
-        <v>494</v>
+      <c r="F12" s="134" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="89"/>
+        <v>192</v>
+      </c>
+      <c r="C13" s="86"/>
       <c r="D13" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="89"/>
+        <v>193</v>
+      </c>
+      <c r="C14" s="86"/>
       <c r="D14" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>494</v>
+      <c r="F14" s="134" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="89"/>
+        <v>194</v>
+      </c>
+      <c r="C15" s="86"/>
       <c r="D15" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="140" t="s">
-        <v>494</v>
+      <c r="F15" s="134" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="90" t="s">
-        <v>399</v>
+      <c r="C16" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="89"/>
+        <v>195</v>
+      </c>
+      <c r="C17" s="86"/>
       <c r="D17" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>148</v>
@@ -4941,101 +4912,101 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="89"/>
+        <v>196</v>
+      </c>
+      <c r="C18" s="86"/>
       <c r="D18" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="89"/>
+        <v>197</v>
+      </c>
+      <c r="C19" s="86"/>
       <c r="D19" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
-      </c>
-      <c r="F19" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="95" t="s">
-        <v>451</v>
+        <v>368</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="89"/>
+        <v>198</v>
+      </c>
+      <c r="C20" s="86"/>
       <c r="D20" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="89"/>
+        <v>199</v>
+      </c>
+      <c r="C21" s="86"/>
       <c r="D21" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E21" t="s">
-        <v>372</v>
-      </c>
-      <c r="F21" s="95" t="s">
-        <v>485</v>
+        <v>368</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="89"/>
+        <v>200</v>
+      </c>
+      <c r="C22" s="86"/>
       <c r="D22" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
-      </c>
-      <c r="F22" s="95" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="91"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" s="89"/>
+        <v>203</v>
+      </c>
+      <c r="C24" s="86"/>
       <c r="D24" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>148</v>
@@ -5046,77 +5017,77 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="89"/>
+        <v>204</v>
+      </c>
+      <c r="C25" s="86"/>
       <c r="D25" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="89"/>
+        <v>205</v>
+      </c>
+      <c r="C26" s="86"/>
       <c r="D26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>372</v>
-      </c>
-      <c r="F26" s="95" t="s">
-        <v>485</v>
+        <v>368</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="89"/>
+        <v>206</v>
+      </c>
+      <c r="C27" s="86"/>
       <c r="D27" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="89"/>
+        <v>207</v>
+      </c>
+      <c r="C28" s="86"/>
       <c r="D28" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F28" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="89"/>
+        <v>208</v>
+      </c>
+      <c r="C29" s="86"/>
       <c r="D29" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5124,16 +5095,16 @@
         <v>58</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="91"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="89"/>
+        <v>209</v>
+      </c>
+      <c r="C31" s="86"/>
       <c r="D31" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
         <v>146</v>
@@ -5142,31 +5113,31 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="89"/>
+        <v>210</v>
+      </c>
+      <c r="C32" s="86"/>
       <c r="D32" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="89"/>
+        <v>211</v>
+      </c>
+      <c r="C33" s="86"/>
       <c r="D33" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" t="s">
         <v>146</v>
@@ -5177,20 +5148,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="89"/>
+        <v>212</v>
+      </c>
+      <c r="C34" s="86"/>
       <c r="D34" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -5198,73 +5169,73 @@
         <v>69</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="90" t="s">
-        <v>399</v>
+      <c r="C35" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C36" s="89"/>
+        <v>213</v>
+      </c>
+      <c r="C36" s="86"/>
       <c r="D36" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="89"/>
+        <v>214</v>
+      </c>
+      <c r="C37" s="86"/>
       <c r="D37" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="89"/>
+        <v>215</v>
+      </c>
+      <c r="C38" s="86"/>
       <c r="D38" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="89"/>
+        <v>216</v>
+      </c>
+      <c r="C39" s="86"/>
       <c r="D39" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5272,74 +5243,74 @@
         <v>70</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="90" t="s">
-        <v>399</v>
+      <c r="C40" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="89"/>
+        <v>217</v>
+      </c>
+      <c r="C41" s="86"/>
       <c r="D41" s="33"/>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="89"/>
+        <v>218</v>
+      </c>
+      <c r="C42" s="86"/>
       <c r="D42" s="32">
         <v>7.32</v>
       </c>
       <c r="E42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="89"/>
+        <v>219</v>
+      </c>
+      <c r="C43" s="86"/>
       <c r="D43" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="91"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="31"/>
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="89"/>
+        <v>221</v>
+      </c>
+      <c r="C45" s="86"/>
       <c r="D45" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" t="s">
         <v>148</v>
@@ -5350,77 +5321,77 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="89"/>
+        <v>222</v>
+      </c>
+      <c r="C46" s="86"/>
       <c r="D46" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="89"/>
+        <v>223</v>
+      </c>
+      <c r="C47" s="86"/>
       <c r="D47" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E47" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="107" t="s">
-        <v>473</v>
+      <c r="F47" s="104" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="89"/>
+        <v>224</v>
+      </c>
+      <c r="C48" s="86"/>
       <c r="D48" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="89"/>
+        <v>225</v>
+      </c>
+      <c r="C49" s="86"/>
       <c r="D49" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="89"/>
+        <v>226</v>
+      </c>
+      <c r="C50" s="86"/>
       <c r="D50" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
-        <v>388</v>
-      </c>
-      <c r="F50" s="127" t="s">
-        <v>430</v>
+        <v>379</v>
+      </c>
+      <c r="F50" s="122" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5428,15 +5399,15 @@
         <v>128</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="91"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="31"/>
       <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="89"/>
+        <v>227</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="31"/>
       <c r="E52" t="s">
         <v>148</v>
@@ -5447,81 +5418,81 @@
     </row>
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" s="89"/>
+        <v>228</v>
+      </c>
+      <c r="C53" s="86"/>
       <c r="D53" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="96" t="s">
-        <v>376</v>
+        <v>358</v>
+      </c>
+      <c r="F53" s="93" t="s">
+        <v>370</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="89"/>
+        <v>229</v>
+      </c>
+      <c r="C54" s="86"/>
       <c r="D54" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="F54" s="107" t="s">
-        <v>473</v>
+        <v>338</v>
+      </c>
+      <c r="F54" s="104" t="s">
+        <v>449</v>
       </c>
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="89"/>
+        <v>230</v>
+      </c>
+      <c r="C55" s="86"/>
       <c r="D55" s="34">
         <v>7.23</v>
       </c>
-      <c r="E55" s="106" t="s">
+      <c r="E55" s="103" t="s">
         <v>166</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="89"/>
+        <v>231</v>
+      </c>
+      <c r="C56" s="86"/>
       <c r="D56" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>145</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="89"/>
+        <v>232</v>
+      </c>
+      <c r="C57" s="86"/>
       <c r="D57" s="31"/>
       <c r="E57" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F57" s="132" t="s">
-        <v>430</v>
+        <v>379</v>
+      </c>
+      <c r="F57" s="127" t="s">
+        <v>418</v>
       </c>
       <c r="G57" s="40"/>
     </row>
@@ -5530,7 +5501,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="24"/>
-      <c r="C58" s="91"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="31"/>
       <c r="E58" s="40"/>
       <c r="F58" s="44"/>
@@ -5538,65 +5509,59 @@
     </row>
     <row r="59" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C59" s="40"/>
-      <c r="D59" s="134" t="s">
-        <v>288</v>
+      <c r="D59" s="129" t="s">
+        <v>287</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="133" t="s">
-        <v>488</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="128" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" s="40"/>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="89"/>
+        <v>234</v>
+      </c>
+      <c r="C60" s="86"/>
       <c r="D60" s="32">
         <v>7.11</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="F60" s="143" t="s">
+        <v>476</v>
+      </c>
+      <c r="G60" s="40"/>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="89"/>
+        <v>235</v>
+      </c>
+      <c r="C61" s="86"/>
       <c r="D61" s="32">
         <v>7.26</v>
       </c>
       <c r="E61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="133" t="s">
-        <v>489</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="F61" s="128" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="89"/>
+        <v>236</v>
+      </c>
+      <c r="C62" s="86"/>
       <c r="D62" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>148</v>
@@ -5605,30 +5570,30 @@
         <v>148</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="89"/>
+        <v>237</v>
+      </c>
+      <c r="C63" s="86"/>
       <c r="D63" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
-      </c>
-      <c r="F63" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F63" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="89"/>
+        <v>238</v>
+      </c>
+      <c r="C64" s="86"/>
       <c r="D64" s="32">
         <v>7.27</v>
       </c>
@@ -5636,41 +5601,41 @@
         <v>139</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B65" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C65" s="89"/>
+        <v>239</v>
+      </c>
+      <c r="C65" s="86"/>
       <c r="D65" s="48">
         <v>7.61</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="E66" s="40" t="s">
+      <c r="B66" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="145" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="135" t="s">
-        <v>428</v>
+      <c r="F66" s="98" t="s">
+        <v>416</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5679,79 +5644,75 @@
         <v>130</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="92"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="31"/>
       <c r="E67" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="F67" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>418</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F67" s="71"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="89"/>
+        <v>241</v>
+      </c>
+      <c r="C68" s="86"/>
       <c r="D68" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G68" s="40"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="89"/>
+        <v>242</v>
+      </c>
+      <c r="C69" s="86"/>
       <c r="D69" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G69" s="40"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" s="89"/>
+        <v>243</v>
+      </c>
+      <c r="C70" s="86"/>
       <c r="D70" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G70" s="40"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="89"/>
+        <v>244</v>
+      </c>
+      <c r="C71" s="86"/>
       <c r="D71" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G71" s="40"/>
     </row>
@@ -5760,19 +5721,19 @@
         <v>133</v>
       </c>
       <c r="B72" s="24"/>
-      <c r="C72" s="91"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="31"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="71"/>
+      <c r="F72" s="69"/>
       <c r="G72" s="40"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>246</v>
-      </c>
-      <c r="C73" s="89"/>
+        <v>245</v>
+      </c>
+      <c r="C73" s="86"/>
       <c r="D73" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>148</v>
@@ -5784,27 +5745,27 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" s="89"/>
+        <v>246</v>
+      </c>
+      <c r="C74" s="86"/>
       <c r="D74" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="F74" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="G74" s="40"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="89"/>
+        <v>248</v>
+      </c>
+      <c r="C75" s="86"/>
       <c r="D75" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E75" s="40" t="s">
         <v>141</v>
@@ -5816,27 +5777,27 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="89"/>
+        <v>249</v>
+      </c>
+      <c r="C76" s="86"/>
       <c r="D76" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="73" t="s">
+      <c r="F76" s="70" t="s">
         <v>142</v>
       </c>
       <c r="G76" s="40"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="89"/>
+        <v>247</v>
+      </c>
+      <c r="C77" s="86"/>
       <c r="D77" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>143</v>
@@ -5848,17 +5809,17 @@
     </row>
     <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="89"/>
+        <v>250</v>
+      </c>
+      <c r="C78" s="86"/>
       <c r="D78" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="F78" s="118" t="s">
-        <v>430</v>
+        <v>379</v>
+      </c>
+      <c r="F78" s="115" t="s">
+        <v>418</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -5867,29 +5828,29 @@
         <v>134</v>
       </c>
       <c r="B79" s="24"/>
-      <c r="C79" s="90" t="s">
-        <v>399</v>
+      <c r="C79" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="89"/>
+        <v>251</v>
+      </c>
+      <c r="C80" s="86"/>
       <c r="D80" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G80" s="40"/>
     </row>
@@ -5898,37 +5859,35 @@
         <v>135</v>
       </c>
       <c r="B81" s="24"/>
-      <c r="C81" s="91"/>
+      <c r="C81" s="88"/>
       <c r="D81" s="31"/>
       <c r="E81" s="40"/>
       <c r="F81" s="43"/>
       <c r="G81" s="40"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>328</v>
-      </c>
-      <c r="C82" s="89"/>
+        <v>327</v>
+      </c>
+      <c r="C82" s="86"/>
       <c r="D82" s="32">
         <v>7.26</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="F82" s="128" t="s">
+        <v>459</v>
+      </c>
+      <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="89"/>
+        <v>252</v>
+      </c>
+      <c r="C83" s="86"/>
       <c r="D83" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E83" s="44" t="s">
         <v>148</v>
@@ -5937,154 +5896,147 @@
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" s="89"/>
+        <v>253</v>
+      </c>
+      <c r="C84" s="86"/>
       <c r="D84" s="30">
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="F84" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F84" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="G84" s="40"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="89"/>
+        <v>254</v>
+      </c>
+      <c r="C85" s="86"/>
       <c r="D85" s="30">
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="F85" s="73" t="s">
-        <v>376</v>
+        <v>426</v>
+      </c>
+      <c r="F85" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="G85" s="40"/>
     </row>
-    <row r="86" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>256</v>
-      </c>
-      <c r="C86" s="89"/>
-      <c r="D86" s="29" t="s">
+    <row r="86" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="144" t="s">
+        <v>328</v>
+      </c>
+      <c r="E86" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="G86" s="140" t="s">
         <v>329</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F86" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="G86" s="45" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" s="89"/>
+        <v>256</v>
+      </c>
+      <c r="C87" s="86"/>
       <c r="D87" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="G87" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="F87" s="146" t="s">
+        <v>477</v>
+      </c>
+      <c r="G87" s="40"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B88" s="24"/>
-      <c r="C88" s="91"/>
+      <c r="C88" s="88"/>
       <c r="D88" s="31"/>
-      <c r="E88" s="42" t="s">
-        <v>271</v>
-      </c>
+      <c r="E88" s="42"/>
       <c r="G88" s="40" t="s">
-        <v>273</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="89"/>
+        <v>258</v>
+      </c>
+      <c r="C89" s="86"/>
       <c r="D89" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" s="89"/>
+        <v>259</v>
+      </c>
+      <c r="C90" s="86"/>
       <c r="D90" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G90" s="40"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="89"/>
+        <v>260</v>
+      </c>
+      <c r="C91" s="86"/>
       <c r="D91" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G91" s="40"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="89"/>
+        <v>261</v>
+      </c>
+      <c r="C92" s="86"/>
       <c r="D92" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G92" s="40"/>
     </row>
@@ -6093,12 +6045,12 @@
         <v>132</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="C93" s="90" t="s">
-        <v>399</v>
+      <c r="C93" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="40"/>
@@ -6107,64 +6059,64 @@
       <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="97" t="s">
-        <v>354</v>
+      <c r="C94" s="86"/>
+      <c r="D94" s="94" t="s">
+        <v>352</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="C95" s="90" t="s">
-        <v>399</v>
+      <c r="C95" s="87" t="s">
+        <v>390</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="32">
         <v>8.1999999999999993</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G96" s="40"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="32">
         <v>8.3000000000000007</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G97" s="40"/>
     </row>
@@ -6185,8 +6137,8 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6195,7 +6147,7 @@
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6209,22 +6161,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6235,8 +6187,8 @@
       <c r="C4" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>490</v>
+      <c r="D4" s="141" t="s">
+        <v>459</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -6246,10 +6198,10 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6258,10 +6210,10 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6270,10 +6222,10 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6282,13 +6234,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E8" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6297,10 +6246,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -6312,22 +6261,22 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>372</v>
+      <c r="C11" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>369</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6335,14 +6284,14 @@
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>154</v>
+      <c r="C12" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6354,7 +6303,7 @@
         <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6366,7 +6315,7 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6375,10 +6324,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -6387,10 +6336,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6412,10 +6361,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -6424,10 +6373,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6436,10 +6385,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6448,10 +6397,10 @@
         <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6460,10 +6409,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -6472,10 +6421,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -6484,10 +6433,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -6496,10 +6445,10 @@
         <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -6508,10 +6457,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -6520,10 +6469,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D27" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6532,10 +6481,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -6544,10 +6493,10 @@
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="59" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E29" s="60"/>
     </row>
@@ -6557,10 +6506,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -6569,10 +6518,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -6581,10 +6530,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D32" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -6593,10 +6542,10 @@
         <v>92</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6605,10 +6554,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -6617,10 +6566,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -6629,10 +6578,10 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -6641,10 +6590,10 @@
         <v>93</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -6653,10 +6602,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6665,10 +6614,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -6677,10 +6626,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -6689,10 +6638,10 @@
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="59" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E41" s="60"/>
     </row>
@@ -6702,10 +6651,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -6714,10 +6663,10 @@
         <v>91</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -6726,10 +6675,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -6738,10 +6687,10 @@
         <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -6750,10 +6699,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -6762,10 +6711,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -6774,10 +6723,10 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -6786,10 +6735,10 @@
         <v>93</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -6798,10 +6747,10 @@
         <v>94</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6810,10 +6759,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -6822,26 +6771,24 @@
         <v>8</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="53"/>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="120" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="D53" s="142" t="s">
+        <v>480</v>
+      </c>
+      <c r="E53" s="27"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -6849,10 +6796,10 @@
         <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -6861,13 +6808,10 @@
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="D55" t="s">
-        <v>372</v>
-      </c>
-      <c r="E55" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6879,7 +6823,7 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6887,14 +6831,11 @@
       <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="69" t="s">
-        <v>366</v>
+      <c r="C57" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
-      </c>
-      <c r="E57" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -6902,11 +6843,11 @@
       <c r="B58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="68" t="s">
         <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -6914,14 +6855,11 @@
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="69" t="s">
-        <v>366</v>
+      <c r="C59" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
-      </c>
-      <c r="E59" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -6929,14 +6867,11 @@
       <c r="B60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="69" t="s">
-        <v>366</v>
+      <c r="C60" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>372</v>
-      </c>
-      <c r="E60" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -6945,13 +6880,13 @@
         <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -6963,7 +6898,7 @@
         <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -6975,7 +6910,7 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -6984,10 +6919,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D64" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -6996,22 +6931,22 @@
         <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="58" t="s">
         <v>119</v>
       </c>
       <c r="B66" s="53"/>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="131" t="s">
-        <v>491</v>
+      <c r="D66" s="126" t="s">
+        <v>477</v>
       </c>
       <c r="E66" s="27"/>
     </row>
@@ -7021,10 +6956,10 @@
         <v>90</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -7033,13 +6968,10 @@
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="D68" t="s">
-        <v>372</v>
-      </c>
-      <c r="E68" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7051,7 +6983,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7063,7 +6995,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -7075,7 +7007,7 @@
         <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -7087,7 +7019,7 @@
         <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -7099,7 +7031,7 @@
         <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -7108,10 +7040,10 @@
         <v>31</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7123,7 +7055,7 @@
         <v>167</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -7135,7 +7067,7 @@
         <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -7144,10 +7076,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D77" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7156,10 +7088,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7184,8 +7116,8 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7212,34 +7144,34 @@
         <v>149</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="72" t="s">
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="117" t="s">
-        <v>492</v>
+        <v>257</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7248,13 +7180,13 @@
         <v>121</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7263,10 +7195,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7275,13 +7207,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7290,13 +7222,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7305,13 +7237,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7320,7 +7252,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>174</v>
@@ -7332,7 +7264,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>176</v>
@@ -7343,10 +7275,10 @@
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="98" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7359,7 +7291,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7367,27 +7299,27 @@
         <v>122</v>
       </c>
       <c r="B13" s="53"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="81" t="s">
         <v>180</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -7396,13 +7328,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7411,13 +7343,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7426,13 +7358,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7441,7 +7373,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>174</v>
@@ -7453,10 +7385,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7464,10 +7396,10 @@
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="99" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7480,35 +7412,35 @@
         <v>152</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="83" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="81" t="s">
         <v>180</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7517,13 +7449,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7532,13 +7464,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F25" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7547,13 +7479,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7562,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>174</v>
@@ -7573,7 +7505,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>177</v>
@@ -7584,10 +7516,10 @@
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="99" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7600,7 +7532,7 @@
         <v>152</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7608,27 +7540,27 @@
         <v>124</v>
       </c>
       <c r="B31" s="53"/>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="81" t="s">
         <v>180</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7637,13 +7569,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7652,13 +7584,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F34" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7667,13 +7599,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7682,7 +7614,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>174</v>
@@ -7694,7 +7626,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>178</v>
@@ -7705,10 +7637,10 @@
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="99" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7721,7 +7653,7 @@
         <v>152</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7768,28 +7700,28 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="114" t="s">
-        <v>442</v>
+      <c r="A3" s="135"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="111" t="s">
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>404</v>
+        <v>368</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7800,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7809,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -7819,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -7829,7 +7761,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -7839,7 +7771,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -7851,7 +7783,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -7861,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -7871,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -7881,7 +7813,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -7891,20 +7823,23 @@
         <v>8</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="115"/>
+        <v>368</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="135" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
+      <c r="A15" s="135"/>
       <c r="C15" s="49" t="s">
-        <v>405</v>
+        <v>395</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7915,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -7924,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -7933,31 +7868,25 @@
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="110" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="110" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="E20" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -7968,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -7976,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -7984,7 +7913,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -7992,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8000,7 +7929,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -8011,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -8019,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -8027,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -8035,7 +7964,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -8043,27 +7972,27 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="116"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="141"/>
+      <c r="A32" s="135"/>
       <c r="C32" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E32" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8112,7 +8041,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8209,7 +8138,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -8334,17 +8263,17 @@
         <v>8</v>
       </c>
       <c r="C68" s="61"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="135" t="s">
         <v>38</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="141"/>
+      <c r="A70" s="135"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8415,7 +8344,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -8740,19 +8669,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="61"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="100"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="97"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="141" t="s">
+      <c r="A125" s="135" t="s">
         <v>69</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="141"/>
+      <c r="A126" s="135"/>
       <c r="C126" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -8763,7 +8692,7 @@
         <v>42</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -8772,7 +8701,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8781,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8790,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8799,7 +8728,7 @@
         <v>31</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -8808,7 +8737,7 @@
         <v>6</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -8817,7 +8746,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8828,7 +8757,7 @@
         <v>42</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8837,7 +8766,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8846,7 +8775,7 @@
         <v>3</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -8855,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -8864,7 +8793,7 @@
         <v>31</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8873,7 +8802,7 @@
         <v>6</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8882,7 +8811,7 @@
         <v>8</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8893,7 +8822,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8902,7 +8831,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,7 +8840,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8920,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -8929,7 +8858,7 @@
         <v>31</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -8938,7 +8867,7 @@
         <v>6</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -8947,7 +8876,7 @@
         <v>8</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -8958,7 +8887,7 @@
         <v>42</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -8967,7 +8896,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -8976,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -8985,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -8994,7 +8923,7 @@
         <v>31</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -9003,7 +8932,7 @@
         <v>47</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -9012,7 +8941,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -9021,21 +8950,21 @@
         <v>8</v>
       </c>
       <c r="C155" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D155" s="100"/>
-      <c r="E155" s="100"/>
+        <v>368</v>
+      </c>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="141" t="s">
+      <c r="A156" s="135" t="s">
         <v>70</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="141"/>
+      <c r="A157" s="135"/>
       <c r="C157" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -9046,7 +8975,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -9055,7 +8984,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -9066,7 +8995,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -9075,7 +9004,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -9086,7 +9015,7 @@
         <v>66</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,7 +9024,7 @@
         <v>67</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -9104,7 +9033,7 @@
         <v>31</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9114,8 +9043,8 @@
       <c r="B165" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="98" t="s">
-        <v>372</v>
+      <c r="C165" s="95" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -9124,7 +9053,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -9133,7 +9062,7 @@
         <v>31</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -9144,7 +9073,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -9153,7 +9082,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -9164,7 +9093,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -9173,7 +9102,7 @@
         <v>8</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -9182,7 +9111,7 @@
         <v>31</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9193,7 +9122,7 @@
         <v>137</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9204,7 +9133,7 @@
         <v>137</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -9215,7 +9144,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -9224,7 +9153,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -9233,23 +9162,23 @@
         <v>8</v>
       </c>
       <c r="C177" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D177" s="100"/>
-      <c r="E177" s="100"/>
+        <v>368</v>
+      </c>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="141" t="s">
+      <c r="A178" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B178" s="141"/>
+      <c r="B178" s="135"/>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="141"/>
-      <c r="B179" s="141"/>
+      <c r="A179" s="135"/>
+      <c r="B179" s="135"/>
       <c r="C179" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -9260,7 +9189,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -9269,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -9278,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -9287,7 +9216,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -9296,7 +9225,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -9305,23 +9234,23 @@
         <v>47</v>
       </c>
       <c r="C185" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D185" s="100"/>
-      <c r="E185" s="100"/>
+        <v>368</v>
+      </c>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="141" t="s">
+      <c r="A186" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="B186" s="141"/>
+      <c r="B186" s="135"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="141"/>
-      <c r="B187" s="141"/>
+      <c r="A187" s="135"/>
+      <c r="B187" s="135"/>
       <c r="C187" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9332,7 +9261,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -9341,7 +9270,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -9350,23 +9279,23 @@
         <v>8</v>
       </c>
       <c r="C190" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D190" s="100"/>
-      <c r="E190" s="100"/>
+        <v>368</v>
+      </c>
+      <c r="D190" s="97"/>
+      <c r="E190" s="97"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="141" t="s">
+      <c r="A191" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B191" s="141"/>
+      <c r="B191" s="135"/>
       <c r="C191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="141"/>
-      <c r="B192" s="141"/>
+      <c r="A192" s="135"/>
+      <c r="B192" s="135"/>
       <c r="C192" s="18" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -9377,7 +9306,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -9386,7 +9315,7 @@
         <v>3</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -9395,7 +9324,7 @@
         <v>4</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -9404,7 +9333,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -9413,7 +9342,7 @@
         <v>8</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -9424,7 +9353,7 @@
         <v>10</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -9433,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -9442,7 +9371,7 @@
         <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -9451,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -9460,10 +9389,10 @@
         <v>8</v>
       </c>
       <c r="C202" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D202" s="100"/>
-      <c r="E202" s="100"/>
+        <v>368</v>
+      </c>
+      <c r="D202" s="97"/>
+      <c r="E202" s="97"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
@@ -9497,7 +9426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9520,30 +9449,30 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="75" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>444</v>
+      <c r="C3" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>425</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9554,10 +9483,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -9565,13 +9494,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9579,13 +9508,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -9593,13 +9522,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9607,10 +9536,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9618,10 +9547,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -9646,7 +9575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9669,21 +9598,21 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
@@ -9692,14 +9621,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="136" t="s">
-        <v>494</v>
+      <c r="D4" s="130" t="s">
+        <v>461</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9708,37 +9637,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="83" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="D7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>502</v>
+      <c r="C7" s="83" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9747,10 +9676,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -9762,23 +9691,21 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>450</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
@@ -9788,7 +9715,7 @@
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -9800,7 +9727,7 @@
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -9808,14 +9735,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="138" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" s="139" t="s">
+      <c r="C13" s="132" t="s">
         <v>380</v>
       </c>
-      <c r="E13" s="137" t="s">
-        <v>478</v>
+      <c r="D13" s="133" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="131" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -9824,10 +9751,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9836,10 +9763,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>501</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -9848,10 +9775,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9860,10 +9787,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9875,7 +9802,7 @@
         <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9887,7 +9814,7 @@
         <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9907,20 +9834,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="119" t="s">
-        <v>494</v>
-      </c>
-      <c r="E22" s="137" t="s">
-        <v>452</v>
-      </c>
+      <c r="D22" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E22" s="131"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -9928,10 +9853,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9940,10 +9865,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9952,10 +9877,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9964,10 +9889,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D26" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9979,7 +9904,7 @@
         <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -9987,13 +9912,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>438</v>
+        <v>177</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="10" t="s">
         <v>6</v>
@@ -10002,11 +9927,9 @@
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>455</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>449</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -10017,23 +9940,21 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="119" t="s">
-        <v>494</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>452</v>
-      </c>
+      <c r="D31" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E31" s="131"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -10041,10 +9962,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10053,10 +9974,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D33" t="s">
-        <v>501</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -10065,10 +9986,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D34" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10077,10 +9998,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -10092,23 +10013,21 @@
         <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>448</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -10119,7 +10038,7 @@
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10130,7 +10049,7 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -10155,8 +10074,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10179,20 +10098,20 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
+      <c r="A3" s="135"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10213,10 +10132,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10225,10 +10144,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10237,10 +10156,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10248,14 +10167,14 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>440</v>
+      <c r="C8" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10263,11 +10182,11 @@
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>440</v>
+      <c r="C9" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10275,11 +10194,11 @@
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>440</v>
+      <c r="C10" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -10291,7 +10210,7 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10300,10 +10219,10 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -10312,10 +10231,10 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10324,22 +10243,22 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>408</v>
+      <c r="C15" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>397</v>
       </c>
       <c r="E15" s="60"/>
     </row>
@@ -10349,10 +10268,10 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10361,10 +10280,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -10372,11 +10291,11 @@
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>440</v>
+      <c r="C18" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10384,11 +10303,11 @@
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>440</v>
+      <c r="C19" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10396,11 +10315,11 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="86" t="s">
-        <v>440</v>
+      <c r="C20" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10412,7 +10331,7 @@
         <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10424,7 +10343,7 @@
         <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10446,10 +10365,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10458,10 +10377,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10470,10 +10389,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10482,10 +10401,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10497,7 +10416,7 @@
         <v>154</v>
       </c>
       <c r="D28" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10509,7 +10428,7 @@
         <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10517,11 +10436,11 @@
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>440</v>
+      <c r="C30" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D30" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10533,7 +10452,7 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10542,10 +10461,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10554,10 +10473,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10566,10 +10485,10 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10581,7 +10500,7 @@
         <v>147</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E35" s="60"/>
     </row>
@@ -10591,10 +10510,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D36" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -10603,10 +10522,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -10618,7 +10537,7 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10630,7 +10549,7 @@
         <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -10638,11 +10557,11 @@
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="86" t="s">
-        <v>440</v>
+      <c r="C40" s="83" t="s">
+        <v>421</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10651,10 +10570,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -10663,10 +10582,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -10691,8 +10610,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10715,22 +10634,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="141"/>
+      <c r="A2" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10751,13 +10670,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10766,13 +10685,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10781,13 +10700,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10796,10 +10715,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10808,10 +10727,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10820,12 +10739,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
-      </c>
-      <c r="E10" s="100"/>
+        <v>433</v>
+      </c>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -10833,10 +10752,10 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>376</v>
+        <v>337</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10845,13 +10764,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10860,13 +10779,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10875,13 +10794,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10890,10 +10809,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10902,10 +10821,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10914,12 +10833,12 @@
         <v>8</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>456</v>
-      </c>
-      <c r="E17" s="100"/>
+        <v>377</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="97"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -10927,10 +10846,10 @@
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>473</v>
+        <v>341</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10939,7 +10858,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10948,10 +10867,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10960,10 +10879,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" t="s">
         <v>366</v>
-      </c>
-      <c r="E21" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10972,10 +10891,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" t="s">
         <v>366</v>
-      </c>
-      <c r="E22" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -10984,10 +10903,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -11007,8 +10926,8 @@
       <c r="C25" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -11016,10 +10935,10 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D26" s="107" t="s">
-        <v>372</v>
+        <v>339</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -11028,7 +10947,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -11037,10 +10956,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -11049,10 +10968,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11061,10 +10980,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11073,10 +10992,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11096,22 +11015,22 @@
       <c r="C33" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="78" t="s">
-        <v>342</v>
+      <c r="C34" s="75" t="s">
+        <v>340</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11120,7 +11039,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -11156,7 +11075,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11165,7 +11084,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11174,21 +11093,21 @@
         <v>8</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+        <v>374</v>
+      </c>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
     </row>
     <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="126" t="s">
-        <v>430</v>
+      <c r="C42" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="121" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11200,7 +11119,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -11208,14 +11127,14 @@
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="77" t="s">
-        <v>269</v>
+      <c r="C44" s="74" t="s">
+        <v>268</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>385</v>
+        <v>445</v>
+      </c>
+      <c r="E44" s="73" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11223,14 +11142,14 @@
       <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="70" t="s">
-        <v>269</v>
+      <c r="C45" s="68" t="s">
+        <v>268</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11238,14 +11157,14 @@
       <c r="B46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>269</v>
+      <c r="C46" s="68" t="s">
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11253,14 +11172,14 @@
       <c r="B47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="70" t="s">
-        <v>269</v>
+      <c r="C47" s="68" t="s">
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11272,7 +11191,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11284,7 +11203,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11296,7 +11215,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11304,14 +11223,14 @@
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="70" t="s">
-        <v>269</v>
+      <c r="C51" s="68" t="s">
+        <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="E51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -11335,8 +11254,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11345,7 +11264,7 @@
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -11359,22 +11278,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11395,10 +11314,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -11410,7 +11329,7 @@
         <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -11422,7 +11341,7 @@
         <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -11434,7 +11353,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -11446,7 +11365,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -11457,10 +11376,10 @@
       <c r="C10" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="100" t="s">
-        <v>456</v>
-      </c>
-      <c r="E10" s="100"/>
+      <c r="D10" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -11468,10 +11387,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -11480,10 +11399,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -11495,7 +11414,7 @@
         <v>154</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11507,7 +11426,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11516,7 +11435,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11528,7 +11447,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -11539,24 +11458,24 @@
       <c r="C17" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="100" t="s">
-        <v>458</v>
-      </c>
-      <c r="E17" s="100"/>
-    </row>
-    <row r="18" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="97" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="97"/>
+    </row>
+    <row r="18" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="108" t="s">
-        <v>473</v>
+        <v>338</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>449</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>337</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -11574,7 +11493,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -11621,8 +11540,8 @@
       <c r="C25" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -11632,11 +11551,11 @@
       <c r="C26" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="123" t="s">
-        <v>419</v>
+      <c r="D26" s="137" t="s">
+        <v>407</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -11654,7 +11573,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -11680,11 +11599,11 @@
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="128" t="s">
-        <v>187</v>
+      <c r="E31" s="123" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -11704,8 +11623,8 @@
       <c r="C33" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -11716,10 +11635,10 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11737,7 +11656,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11772,11 +11691,11 @@
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="124" t="s">
-        <v>188</v>
+      <c r="E40" s="119" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11787,19 +11706,19 @@
       <c r="C41" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="19"/>
-      <c r="C42" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="119" t="s">
-        <v>430</v>
+      <c r="C42" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="116" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11817,10 +11736,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D44" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11885,8 +11804,8 @@
       <c r="C51" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11909,8 +11828,8 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11918,7 +11837,7 @@
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -11932,23 +11851,23 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -11960,11 +11879,11 @@
       <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="129" t="s">
-        <v>488</v>
+      <c r="D4" s="124" t="s">
+        <v>476</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -11973,9 +11892,9 @@
         <v>89</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="63"/>
+        <v>362</v>
+      </c>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -11983,7 +11902,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D6" s="26"/>
     </row>
@@ -11993,12 +11912,9 @@
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -12006,7 +11922,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D8" s="26"/>
     </row>
@@ -12026,12 +11942,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>366</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
-      <c r="E10" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -12039,12 +11952,9 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>366</v>
+        <v>164</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -12072,7 +11982,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D14" s="26"/>
     </row>
@@ -12082,24 +11992,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D15" s="26"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="53"/>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="D16" s="124" t="s">
+        <v>476</v>
+      </c>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -12196,15 +12104,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="130" t="s">
-        <v>489</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="D26" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -12212,21 +12118,21 @@
         <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D27" s="26"/>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="68" t="s">
-        <v>377</v>
+      <c r="C28" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="39" t="s">
-        <v>378</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -12235,12 +12141,9 @@
         <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="D29" s="26"/>
-      <c r="E29" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -12248,10 +12151,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -12270,11 +12173,11 @@
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12283,11 +12186,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -12306,7 +12209,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D35" s="26"/>
     </row>
@@ -12316,7 +12219,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D36" s="26"/>
     </row>
@@ -12326,9 +12229,11 @@
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="26"/>
+        <v>351</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -12336,9 +12241,11 @@
         <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>351</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
@@ -12359,10 +12266,10 @@
         <v>90</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -12371,10 +12278,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -12383,10 +12290,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D42" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12395,10 +12302,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -12407,10 +12314,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12419,10 +12326,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -12431,10 +12338,10 @@
         <v>26</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D46" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12443,10 +12350,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -12455,10 +12362,10 @@
         <v>94</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -12467,10 +12374,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D49" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12479,10 +12386,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12490,11 +12397,11 @@
         <v>98</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="103" t="s">
-        <v>445</v>
-      </c>
-      <c r="D51" s="103" t="s">
-        <v>376</v>
+      <c r="C51" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="100" t="s">
+        <v>370</v>
       </c>
       <c r="E51" s="60"/>
     </row>
@@ -12504,10 +12411,10 @@
         <v>90</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -12516,10 +12423,10 @@
         <v>91</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -12528,10 +12435,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -12540,10 +12447,10 @@
         <v>92</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -12552,10 +12459,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -12564,10 +12471,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -12576,10 +12483,10 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -12588,10 +12495,10 @@
         <v>93</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -12600,10 +12507,10 @@
         <v>94</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12612,10 +12519,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -12624,10 +12531,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D62" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12639,7 +12546,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E63" s="60"/>
     </row>
@@ -12649,10 +12556,10 @@
         <v>89</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -12661,9 +12568,9 @@
         <v>90</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D65" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D65" s="104" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12673,10 +12580,10 @@
         <v>91</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="D66" s="121" t="s">
-        <v>463</v>
+        <v>357</v>
+      </c>
+      <c r="D66" s="117" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -12685,10 +12592,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -12697,10 +12604,10 @@
         <v>92</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12709,13 +12616,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -12724,13 +12631,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E70" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -12739,10 +12646,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -12763,10 +12670,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -12775,10 +12682,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -12787,10 +12694,10 @@
       </c>
       <c r="B75" s="54"/>
       <c r="C75" s="59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D75" s="64" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E75" s="60"/>
     </row>
@@ -12800,10 +12707,10 @@
         <v>90</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -12812,10 +12719,10 @@
         <v>91</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -12824,10 +12731,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -12836,10 +12743,10 @@
         <v>92</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -12848,10 +12755,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -12860,10 +12767,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -12872,10 +12779,10 @@
         <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -12884,10 +12791,10 @@
         <v>93</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -12896,10 +12803,10 @@
         <v>94</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12908,10 +12815,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="D85" s="40" t="s">
-        <v>458</v>
+        <v>355</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -12920,10 +12827,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12931,15 +12838,13 @@
         <v>101</v>
       </c>
       <c r="B87" s="54"/>
-      <c r="C87" s="110" t="s">
+      <c r="C87" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="109" t="s">
-        <v>428</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>418</v>
-      </c>
+      <c r="D87" s="106" t="s">
+        <v>480</v>
+      </c>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
@@ -12947,10 +12852,10 @@
         <v>89</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D88" s="73" t="s">
-        <v>372</v>
+        <v>362</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12959,10 +12864,10 @@
         <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D89" s="73" t="s">
-        <v>372</v>
+        <v>347</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -12971,13 +12876,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D90" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="E90" t="s">
-        <v>481</v>
+        <v>472</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -12988,8 +12890,8 @@
       <c r="C91" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="73" t="s">
-        <v>372</v>
+      <c r="D91" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -12998,13 +12900,10 @@
         <v>10</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="E92" t="s">
-        <v>472</v>
+        <v>164</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -13015,8 +12914,8 @@
       <c r="C93" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="73" t="s">
-        <v>372</v>
+      <c r="D93" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -13025,13 +12924,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="E94" t="s">
-        <v>472</v>
+        <v>164</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -13040,13 +12936,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D95" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="E95" t="s">
-        <v>472</v>
+        <v>164</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -13055,13 +12948,13 @@
         <v>31</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D96" s="73" t="s">
-        <v>372</v>
+        <v>388</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>368</v>
       </c>
       <c r="E96" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13072,8 +12965,8 @@
       <c r="C97" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="73" t="s">
-        <v>372</v>
+      <c r="D97" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13084,8 +12977,8 @@
       <c r="C98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="73" t="s">
-        <v>372</v>
+      <c r="D98" s="70" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -13093,20 +12986,20 @@
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="122" t="s">
-        <v>368</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="E99" s="100"/>
+      <c r="C99" s="118" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="97" t="s">
+        <v>481</v>
+      </c>
+      <c r="E99" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -13122,9 +13015,9 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13147,47 +13040,45 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="112" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="C4" s="109" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13254,20 +13145,18 @@
       <c r="C13" s="5"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="112" t="s">
-        <v>402</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="C14" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="131"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -13275,7 +13164,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="99"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -13334,20 +13223,18 @@
       <c r="C22" s="5"/>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="112" t="s">
-        <v>402</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="C23" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23" s="131"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -13355,7 +13242,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="99"/>
+      <c r="D24" s="96"/>
       <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -13414,20 +13301,18 @@
       <c r="C31" s="5"/>
       <c r="D31" s="26"/>
     </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="54"/>
-      <c r="C32" s="112" t="s">
-        <v>402</v>
-      </c>
-      <c r="D32" s="99" t="s">
-        <v>381</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="C32" s="138" t="s">
+        <v>392</v>
+      </c>
+      <c r="D32" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="131"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -13435,7 +13320,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="99"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -13515,8 +13400,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13539,22 +13424,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13574,11 +13459,11 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="70" t="s">
-        <v>453</v>
+      <c r="C5" s="68" t="s">
+        <v>430</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13587,13 +13472,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13602,13 +13487,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13617,10 +13502,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -13629,10 +13514,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -13641,10 +13526,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -13653,10 +13538,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E11" s="60"/>
     </row>
@@ -13666,13 +13551,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13681,13 +13566,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -13696,13 +13581,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13711,10 +13596,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13723,10 +13608,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13735,10 +13620,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13759,11 +13644,11 @@
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>372</v>
+      <c r="C19" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -13772,25 +13657,22 @@
         <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>434</v>
+      <c r="C21" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13798,39 +13680,38 @@
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="107" t="s">
-        <v>372</v>
-      </c>
+      <c r="C22" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="107" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="86" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>433</v>
-      </c>
+      <c r="C24" s="148" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -13840,8 +13721,8 @@
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="107" t="s">
-        <v>414</v>
+      <c r="D25" s="104" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -13852,8 +13733,8 @@
       <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="107" t="s">
-        <v>414</v>
+      <c r="D26" s="104" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13875,10 +13756,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -13886,38 +13767,38 @@
       <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="70" t="s">
-        <v>422</v>
+      <c r="C29" s="68" t="s">
+        <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="86" t="s">
-        <v>269</v>
+      <c r="C30" s="83" t="s">
+        <v>368</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" t="s">
-        <v>372</v>
+      <c r="C31" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13926,10 +13807,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13938,10 +13819,10 @@
         <v>47</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13950,10 +13831,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -13965,7 +13846,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13974,10 +13855,10 @@
         <v>110</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13989,7 +13870,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -14014,7 +13895,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -14023,10 +13904,10 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -14035,10 +13916,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D41" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14050,7 +13931,7 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14062,7 +13943,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -14071,10 +13952,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14083,10 +13964,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D45" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14095,10 +13976,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -14106,11 +13987,11 @@
         <v>112</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="111" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="125" t="s">
-        <v>430</v>
+      <c r="C47" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" s="120" t="s">
+        <v>418</v>
       </c>
       <c r="E47" s="60"/>
     </row>
@@ -14120,7 +14001,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -14129,10 +14010,10 @@
         <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14141,7 +14022,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -14150,7 +14031,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -14159,10 +14040,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14171,7 +14052,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -14180,7 +14061,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -14189,10 +14070,10 @@
         <v>31</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E55" s="66" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -14201,10 +14082,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -14213,7 +14094,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -14242,7 +14123,7 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>

--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="509">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -1237,9 +1237,6 @@
     <t>MedicationDispensation</t>
   </si>
   <si>
-    <t>QIDAM (interface created, no class yet)</t>
-  </si>
-  <si>
     <t>LaboratoryTestProcedure</t>
   </si>
   <si>
@@ -1354,12 +1351,6 @@
     <t>ObservationProposal removed in updated vMR (MAY-2013)</t>
   </si>
   <si>
-    <t>prnReason field added in vMR (may-2013)</t>
-  </si>
-  <si>
-    <t>comment field added in vMR (may-2013)</t>
-  </si>
-  <si>
     <t>TBD (extend Order interface)</t>
   </si>
   <si>
@@ -1373,9 +1364,6 @@
   </si>
   <si>
     <t>DeniedProblem</t>
-  </si>
-  <si>
-    <t>FamilyHistoryObservation placeholder added to QIDAM</t>
   </si>
   <si>
     <t>QRDA 7.40.1.  GoalDescriptor/CarePlanDescriptor interface are TBD placeholders in QIDAM.</t>
@@ -1405,9 +1393,6 @@
     <t>MedicationStatement or MedicationDoseAdministration</t>
   </si>
   <si>
-    <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR. Symptom class is placeholder in QIDAM and needs further refinement.</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -1423,9 +1408,6 @@
     <t>status = inactive</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>(*) vMR needs "comment" field and/or extension (ClinicalStatement/attribute extension?)</t>
   </si>
   <si>
@@ -1468,13 +1450,7 @@
     <t>MedicationAdministrationProposal, MedicationPrescription</t>
   </si>
   <si>
-    <t>proposedAtTime / orderedAtTime</t>
-  </si>
-  <si>
     <t>See QRDA for Symptom description</t>
-  </si>
-  <si>
-    <t>QIDAM category set to condition, diagnosis, etc.</t>
   </si>
   <si>
     <t>(*) vMR: AppointmentProposal or AppointmentRequest</t>
@@ -1565,12 +1541,63 @@
   <si>
     <t>Device is placeholder in QIDAM</t>
   </si>
+  <si>
+    <t>QIDAM category set to condition,  diagnosis, problem, etc.</t>
+  </si>
+  <si>
+    <t>onsetAge</t>
+  </si>
+  <si>
+    <t>comment field added in vMR (MAY-2013)</t>
+  </si>
+  <si>
+    <t>prnReason field added in vMR (MAY-2013)</t>
+  </si>
+  <si>
+    <t>comment?</t>
+  </si>
+  <si>
+    <t>performanceTime</t>
+  </si>
+  <si>
+    <t>orderedAtTime?</t>
+  </si>
+  <si>
+    <t>QIDAM (interface  created, no class yet)</t>
+  </si>
+  <si>
+    <t>QIDAM: ProcedureProposal element with details of type LabatoryTestProcedure</t>
+  </si>
+  <si>
+    <t>doseQuantity + maxDosePerPeriod + dosageInstructionText</t>
+  </si>
+  <si>
+    <t>dosageInstructionText ??</t>
+  </si>
+  <si>
+    <t>orderedAtTime / enactedAtTime</t>
+  </si>
+  <si>
+    <t>proposedAtTime / enactedAtTime</t>
+  </si>
+  <si>
+    <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR.</t>
+  </si>
+  <si>
+    <t>ObservationPresence</t>
+  </si>
+  <si>
+    <t>comment ??</t>
+  </si>
+  <si>
+    <t>Condition?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1669,6 +1696,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1817,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1949,9 +1982,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2161,18 +2191,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2188,6 +2209,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2669,10 +2709,10 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2278380</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1493520</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2681,8 +2721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="9867900"/>
-          <a:ext cx="6522720" cy="3223260"/>
+          <a:off x="7620" y="11780520"/>
+          <a:ext cx="7261860" cy="2994660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,9 +3247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3218,8 +3258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18364200"/>
-          <a:ext cx="6682740" cy="4442460"/>
+          <a:off x="0" y="22212300"/>
+          <a:ext cx="8221980" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3303,6 +3343,65 @@
             </a:rPr>
             <a:t>Proposal for a substance administration.  Used, for example, when a CDS system proposes that a medication or vaccination be given.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dose (QDM)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	The amount of therapeutic agent that was indicated to be given during a procedure, diagnostic test, or medication or substance administration. 	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
@@ -3510,11 +3609,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>AdverseEvent</a:t>
+            <a:t>AdverseEvent - </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
@@ -3535,27 +3631,8 @@
           <a:pPr rtl="0"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>AllergyOrIntolerance</a:t>
+            <a:t>AllergyOrIntolerance - </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
@@ -4009,15 +4086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2270760</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1539240</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4026,8 +4103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="144780" y="14378940"/>
-          <a:ext cx="6377940" cy="3710940"/>
+          <a:off x="45720" y="16863060"/>
+          <a:ext cx="6766560" cy="2834640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4178,27 +4255,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SubstanceAdministrationOrder </a:t>
+            <a:t>SubstanceAdministrationOrder - </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
@@ -4265,27 +4323,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>SubstanceDispensationEvent</a:t>
+            <a:t>SubstanceDispensationEvent - </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
@@ -4338,10 +4377,8 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>SubstanceAdministrationEvent</a:t>
+            <a:t>SubstanceAdministrationEvent - </a:t>
           </a:r>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
@@ -4722,14 +4759,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="76" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="75" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
@@ -4740,7 +4777,7 @@
       <c r="A1" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>382</v>
       </c>
       <c r="D1" s="22" t="s">
@@ -4761,7 +4798,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D2" s="28"/>
@@ -4774,7 +4811,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="85"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="30">
         <v>7.31</v>
       </c>
@@ -4789,7 +4826,7 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="30">
         <v>7.51</v>
       </c>
@@ -4805,22 +4842,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="87"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="70" t="s">
-        <v>453</v>
+      <c r="F6" s="69" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4828,7 +4865,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="88"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="31"/>
       <c r="E7" s="22"/>
       <c r="G7" t="s">
@@ -4840,27 +4877,27 @@
         <v>191</v>
       </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="89">
+      <c r="D8" s="88">
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="F8" s="90" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="90"/>
+        <v>457</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="32">
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4870,12 +4907,12 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="32">
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4886,70 +4923,68 @@
         <v>24</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="87"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="29" t="s">
         <v>292</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="129" t="s">
-        <v>456</v>
+      <c r="F12" s="128" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="33" t="s">
         <v>281</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="G13" s="91" t="s">
-        <v>483</v>
-      </c>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="29" t="s">
         <v>293</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="129" t="s">
-        <v>456</v>
+      <c r="F14" s="128" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="129" t="s">
-        <v>456</v>
+      <c r="F15" s="128" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4957,12 +4992,12 @@
         <v>201</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
@@ -4973,7 +5008,7 @@
       <c r="B17" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="29" t="s">
         <v>291</v>
       </c>
@@ -4988,14 +5023,14 @@
       <c r="B18" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="29" t="s">
         <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
-      </c>
-      <c r="F18" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="F18" s="69" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5003,32 +5038,32 @@
       <c r="B19" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="29" t="s">
         <v>334</v>
       </c>
       <c r="E19" t="s">
         <v>367</v>
       </c>
-      <c r="F19" s="91" t="s">
-        <v>482</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>483</v>
+      <c r="F19" s="90" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="29" t="s">
         <v>290</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="69" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5036,29 +5071,29 @@
       <c r="B21" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E21" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="91" t="s">
-        <v>451</v>
+      <c r="F21" s="90" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="33" t="s">
         <v>273</v>
       </c>
       <c r="E22" t="s">
         <v>367</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="90" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5067,7 +5102,7 @@
         <v>202</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="87"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22" t="s">
         <v>269</v>
@@ -5078,7 +5113,7 @@
       <c r="B24" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="3" t="s">
         <v>276</v>
       </c>
@@ -5093,12 +5128,12 @@
       <c r="B25" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="85"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="3" t="s">
         <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F25" t="s">
         <v>369</v>
@@ -5108,14 +5143,14 @@
       <c r="B26" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E26" t="s">
         <v>367</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="90" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5123,7 +5158,7 @@
       <c r="B27" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="85"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="3" t="s">
         <v>274</v>
       </c>
@@ -5138,7 +5173,7 @@
       <c r="B28" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="85"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="3" t="s">
         <v>279</v>
       </c>
@@ -5153,7 +5188,7 @@
       <c r="B29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="85"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="3" t="s">
         <v>280</v>
       </c>
@@ -5161,10 +5196,10 @@
         <v>367</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G29" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -5172,14 +5207,14 @@
         <v>58</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="87"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="85"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="29" t="s">
         <v>295</v>
       </c>
@@ -5194,7 +5229,7 @@
       <c r="B32" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="85"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="38" t="s">
         <v>297</v>
       </c>
@@ -5205,14 +5240,14 @@
         <v>395</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="29" t="s">
         <v>296</v>
       </c>
@@ -5227,7 +5262,7 @@
       <c r="B34" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="85"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="29" t="s">
         <v>298</v>
       </c>
@@ -5246,7 +5281,7 @@
         <v>69</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D35" s="31"/>
@@ -5255,11 +5290,11 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="85"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="29" t="s">
         <v>299</v>
       </c>
@@ -5270,11 +5305,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="85"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="29" t="s">
         <v>301</v>
       </c>
@@ -5285,11 +5320,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="85"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="29" t="s">
         <v>300</v>
       </c>
@@ -5300,11 +5335,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="85"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="29" t="s">
         <v>302</v>
       </c>
@@ -5320,7 +5355,7 @@
         <v>70</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D40" s="31"/>
@@ -5333,7 +5368,7 @@
       <c r="B41" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="85"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="33"/>
       <c r="E41" t="s">
         <v>367</v>
@@ -5342,14 +5377,14 @@
         <v>367</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="85"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="32">
         <v>7.32</v>
       </c>
@@ -5364,7 +5399,7 @@
       <c r="B43" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="85"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="22" t="s">
         <v>351</v>
       </c>
@@ -5380,7 +5415,7 @@
         <v>220</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="87"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="31"/>
       <c r="F44" s="26"/>
     </row>
@@ -5388,7 +5423,7 @@
       <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="85"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="31" t="s">
         <v>315</v>
       </c>
@@ -5403,12 +5438,12 @@
       <c r="B46" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="85"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="31" t="s">
         <v>316</v>
       </c>
       <c r="E46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F46" t="s">
         <v>369</v>
@@ -5419,24 +5454,24 @@
         <v>223</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="141" t="s">
+      <c r="D47" s="140" t="s">
         <v>317</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="133" t="s">
-        <v>444</v>
-      </c>
-      <c r="G47" s="113" t="s">
-        <v>487</v>
+      <c r="F47" s="132" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="112" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="85"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="31" t="s">
         <v>318</v>
       </c>
@@ -5447,14 +5482,14 @@
         <v>367</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="85"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="31" t="s">
         <v>320</v>
       </c>
@@ -5465,14 +5500,14 @@
         <v>367</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="85"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="31" t="s">
         <v>319</v>
       </c>
@@ -5488,7 +5523,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="87"/>
+      <c r="C51" s="86"/>
       <c r="D51" s="31"/>
       <c r="F51" s="26"/>
     </row>
@@ -5496,7 +5531,7 @@
       <c r="B52" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="85"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="31"/>
       <c r="E52" t="s">
         <v>148</v>
@@ -5509,14 +5544,14 @@
       <c r="B53" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="85"/>
+      <c r="C53" s="84"/>
       <c r="D53" s="47" t="s">
         <v>321</v>
       </c>
       <c r="E53" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="F53" s="92" t="s">
+      <c r="F53" s="91" t="s">
         <v>369</v>
       </c>
       <c r="G53" s="40"/>
@@ -5525,14 +5560,14 @@
       <c r="B54" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="85"/>
+      <c r="C54" s="84"/>
       <c r="D54" s="31" t="s">
         <v>322</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F54" s="91" t="s">
+      <c r="F54" s="90" t="s">
         <v>141</v>
       </c>
       <c r="G54" s="40"/>
@@ -5541,32 +5576,32 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="85"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="34">
         <v>7.23</v>
       </c>
-      <c r="E55" s="102" t="s">
+      <c r="E55" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F55" s="142" t="s">
-        <v>142</v>
+      <c r="F55" s="156" t="s">
+        <v>403</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="85"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="31" t="s">
         <v>323</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="91" t="s">
+      <c r="F56" s="90" t="s">
         <v>143</v>
       </c>
       <c r="G56" s="40"/>
@@ -5575,12 +5610,12 @@
       <c r="B57" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="85"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="31"/>
       <c r="E57" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F57" s="143" t="s">
+      <c r="F57" s="142" t="s">
         <v>378</v>
       </c>
       <c r="G57" s="40"/>
@@ -5590,7 +5625,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="24"/>
-      <c r="C58" s="87"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="31"/>
       <c r="E58" s="40"/>
       <c r="F58" s="44"/>
@@ -5601,14 +5636,14 @@
         <v>233</v>
       </c>
       <c r="C59" s="40"/>
-      <c r="D59" s="124" t="s">
+      <c r="D59" s="123" t="s">
         <v>286</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="123" t="s">
-        <v>471</v>
+      <c r="F59" s="122" t="s">
+        <v>465</v>
       </c>
       <c r="G59" s="40"/>
     </row>
@@ -5616,15 +5651,15 @@
       <c r="B60" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="85"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="32">
         <v>7.11</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="136" t="s">
-        <v>471</v>
+      <c r="F60" s="135" t="s">
+        <v>465</v>
       </c>
       <c r="G60" s="40"/>
     </row>
@@ -5632,15 +5667,15 @@
       <c r="B61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="85"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="32">
         <v>7.26</v>
       </c>
       <c r="E61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="123" t="s">
-        <v>454</v>
+      <c r="F61" s="122" t="s">
+        <v>450</v>
       </c>
       <c r="G61" s="40"/>
     </row>
@@ -5648,7 +5683,7 @@
       <c r="B62" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="85"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="32" t="s">
         <v>331</v>
       </c>
@@ -5666,14 +5701,14 @@
       <c r="B63" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="85"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="35" t="s">
         <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>422</v>
-      </c>
-      <c r="F63" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>369</v>
       </c>
       <c r="G63" s="40"/>
@@ -5682,7 +5717,7 @@
       <c r="B64" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="85"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="32">
         <v>7.27</v>
       </c>
@@ -5698,7 +5733,7 @@
       <c r="B65" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="85"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="48">
         <v>7.61</v>
       </c>
@@ -5717,14 +5752,14 @@
         <v>240</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="138" t="s">
+      <c r="D66" s="137" t="s">
         <v>287</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="142" t="s">
-        <v>489</v>
+      <c r="F66" s="141" t="s">
+        <v>481</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5733,26 +5768,26 @@
         <v>130</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="88"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="31"/>
       <c r="E67" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="144"/>
+      <c r="F67" s="143"/>
       <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="85"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="145" t="s">
+      <c r="E68" s="144" t="s">
         <v>378</v>
       </c>
-      <c r="F68" s="145" t="s">
+      <c r="F68" s="144" t="s">
         <v>378</v>
       </c>
       <c r="G68" s="40"/>
@@ -5761,14 +5796,14 @@
       <c r="B69" t="s">
         <v>242</v>
       </c>
-      <c r="C69" s="85"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="145" t="s">
+      <c r="E69" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="145" t="s">
+      <c r="F69" s="144" t="s">
         <v>141</v>
       </c>
       <c r="G69" s="40"/>
@@ -5777,14 +5812,14 @@
       <c r="B70" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="85"/>
+      <c r="C70" s="84"/>
       <c r="D70" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E70" s="145" t="s">
+      <c r="E70" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="145" t="s">
+      <c r="F70" s="144" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="40"/>
@@ -5793,14 +5828,14 @@
       <c r="B71" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="85"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E71" s="145" t="s">
+      <c r="E71" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="145" t="s">
+      <c r="F71" s="144" t="s">
         <v>143</v>
       </c>
       <c r="G71" s="40"/>
@@ -5810,17 +5845,17 @@
         <v>133</v>
       </c>
       <c r="B72" s="24"/>
-      <c r="C72" s="87"/>
+      <c r="C72" s="86"/>
       <c r="D72" s="31"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="69"/>
+      <c r="F72" s="68"/>
       <c r="G72" s="40"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="85"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="29" t="s">
         <v>313</v>
       </c>
@@ -5836,14 +5871,14 @@
       <c r="B74" t="s">
         <v>246</v>
       </c>
-      <c r="C74" s="85"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="29" t="s">
         <v>310</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="F74" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="F74" s="69" t="s">
         <v>369</v>
       </c>
       <c r="G74" s="40"/>
@@ -5852,7 +5887,7 @@
       <c r="B75" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="85"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="33" t="s">
         <v>309</v>
       </c>
@@ -5868,14 +5903,14 @@
       <c r="B76" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="85"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="33" t="s">
         <v>308</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="70" t="s">
+      <c r="F76" s="69" t="s">
         <v>142</v>
       </c>
       <c r="G76" s="40"/>
@@ -5884,7 +5919,7 @@
       <c r="B77" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="85"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="33" t="s">
         <v>311</v>
       </c>
@@ -5900,14 +5935,14 @@
       <c r="B78" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="85"/>
+      <c r="C78" s="84"/>
       <c r="D78" s="33" t="s">
         <v>312</v>
       </c>
       <c r="E78" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="F78" s="146" t="s">
+      <c r="F78" s="145" t="s">
         <v>378</v>
       </c>
       <c r="G78" s="42"/>
@@ -5917,28 +5952,28 @@
         <v>134</v>
       </c>
       <c r="B79" s="24"/>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F79" s="142"/>
+      <c r="F79" s="141"/>
       <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="85"/>
+      <c r="C80" s="84"/>
       <c r="D80" s="31" t="s">
         <v>314</v>
       </c>
       <c r="E80" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="F80" s="145" t="s">
+      <c r="F80" s="144" t="s">
         <v>367</v>
       </c>
       <c r="G80" s="40"/>
@@ -5948,27 +5983,27 @@
         <v>135</v>
       </c>
       <c r="B81" s="24"/>
-      <c r="C81" s="87"/>
+      <c r="C81" s="86"/>
       <c r="D81" s="31"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="142"/>
-      <c r="G81" s="150" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+      <c r="F81" s="141"/>
+      <c r="G81" s="147" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="32">
+      <c r="C82" s="4"/>
+      <c r="D82" s="137">
         <v>7.26</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="147" t="s">
-        <v>367</v>
+      <c r="F82" s="122" t="s">
+        <v>450</v>
       </c>
       <c r="G82" s="40"/>
     </row>
@@ -5976,14 +6011,14 @@
       <c r="B83" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="85"/>
+      <c r="C83" s="84"/>
       <c r="D83" s="32" t="s">
         <v>332</v>
       </c>
       <c r="E83" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="142" t="s">
+      <c r="F83" s="141" t="s">
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
@@ -5994,14 +6029,14 @@
       <c r="B84" t="s">
         <v>253</v>
       </c>
-      <c r="C84" s="85"/>
+      <c r="C84" s="84"/>
       <c r="D84" s="30">
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="F84" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="F84" s="90" t="s">
         <v>369</v>
       </c>
       <c r="G84" s="40"/>
@@ -6010,14 +6045,14 @@
       <c r="B85" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="85"/>
+      <c r="C85" s="84"/>
       <c r="D85" s="30">
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="F85" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85" s="90" t="s">
         <v>369</v>
       </c>
       <c r="G85" s="40"/>
@@ -6027,16 +6062,16 @@
         <v>255</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="137" t="s">
+      <c r="D86" s="136" t="s">
         <v>327</v>
       </c>
-      <c r="E86" s="118" t="s">
+      <c r="E86" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="148" t="s">
-        <v>367</v>
-      </c>
-      <c r="G86" s="133" t="s">
+      <c r="F86" s="159" t="s">
+        <v>469</v>
+      </c>
+      <c r="G86" s="132" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6044,15 +6079,15 @@
       <c r="B87" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="85"/>
+      <c r="C87" s="84"/>
       <c r="D87" s="31" t="s">
         <v>324</v>
       </c>
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="149" t="s">
-        <v>367</v>
+      <c r="F87" s="146" t="s">
+        <v>466</v>
       </c>
       <c r="G87" s="40"/>
     </row>
@@ -6061,41 +6096,41 @@
         <v>257</v>
       </c>
       <c r="B88" s="24"/>
-      <c r="C88" s="87"/>
+      <c r="C88" s="86"/>
       <c r="D88" s="31"/>
       <c r="E88" s="42"/>
       <c r="F88" s="28"/>
       <c r="G88" s="40" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="85"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="29" t="s">
         <v>282</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="142" t="s">
-        <v>456</v>
+      <c r="F89" s="141" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="85"/>
+      <c r="C90" s="84"/>
       <c r="D90" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F90" s="142" t="s">
+      <c r="F90" s="141" t="s">
         <v>367</v>
       </c>
       <c r="G90" s="40"/>
@@ -6104,15 +6139,15 @@
       <c r="B91" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="85"/>
+      <c r="C91" s="84"/>
       <c r="D91" s="29" t="s">
         <v>284</v>
       </c>
       <c r="E91" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="142" t="s">
-        <v>456</v>
+      <c r="F91" s="141" t="s">
+        <v>508</v>
       </c>
       <c r="G91" s="40"/>
     </row>
@@ -6120,15 +6155,15 @@
       <c r="B92" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="85"/>
+      <c r="C92" s="84"/>
       <c r="D92" s="29" t="s">
         <v>285</v>
       </c>
       <c r="E92" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="142" t="s">
-        <v>456</v>
+      <c r="F92" s="141" t="s">
+        <v>508</v>
       </c>
       <c r="G92" s="40"/>
     </row>
@@ -6137,7 +6172,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D93" s="31"/>
@@ -6151,8 +6186,8 @@
       <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="93" t="s">
+      <c r="C94" s="84"/>
+      <c r="D94" s="92" t="s">
         <v>351</v>
       </c>
       <c r="E94" s="40" t="s">
@@ -6170,7 +6205,7 @@
         <v>262</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D95" s="31"/>
@@ -6226,17 +6261,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="5" max="5" width="40.33203125" customWidth="1"/>
@@ -6260,31 +6295,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="134" t="s">
-        <v>454</v>
+      <c r="D4" s="133" t="s">
+        <v>450</v>
       </c>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>90</v>
@@ -6293,10 +6328,10 @@
         <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>66</v>
@@ -6320,19 +6355,19 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
@@ -6341,34 +6376,34 @@
         <v>367</v>
       </c>
       <c r="D9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="81" t="s">
         <v>267</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6376,7 +6411,7 @@
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>267</v>
       </c>
       <c r="D12" t="s">
@@ -6394,8 +6429,8 @@
       <c r="C13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D13" t="s">
-        <v>367</v>
+      <c r="D13" s="158" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6406,8 +6441,8 @@
       <c r="C14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D14" t="s">
-        <v>367</v>
+      <c r="D14" s="158" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6419,7 +6454,7 @@
         <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6431,7 +6466,7 @@
         <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6480,7 +6515,7 @@
         <v>351</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6528,7 +6563,7 @@
         <v>351</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6564,7 +6599,7 @@
         <v>352</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6576,7 +6611,7 @@
         <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6585,7 +6620,7 @@
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D29" s="64" t="s">
         <v>369</v>
@@ -6625,7 +6660,7 @@
         <v>351</v>
       </c>
       <c r="D32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6673,7 +6708,7 @@
         <v>353</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6709,7 +6744,7 @@
         <v>354</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6721,7 +6756,7 @@
         <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6730,7 +6765,7 @@
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D41" s="64" t="s">
         <v>369</v>
@@ -6770,7 +6805,7 @@
         <v>351</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6818,7 +6853,7 @@
         <v>353</v>
       </c>
       <c r="D48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6854,7 +6889,7 @@
         <v>354</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6866,23 +6901,23 @@
         <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="53"/>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="135" t="s">
-        <v>475</v>
+      <c r="D53" s="134" t="s">
+        <v>469</v>
       </c>
       <c r="E53" s="27"/>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="7" t="s">
         <v>90</v>
@@ -6890,23 +6925,23 @@
       <c r="C54" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D54" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D54" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D55" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>42</v>
@@ -6915,39 +6950,39 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="66" t="s">
         <v>164</v>
       </c>
       <c r="D57" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D58" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="66" t="s">
         <v>164</v>
       </c>
       <c r="D59" t="s">
@@ -6959,14 +6994,14 @@
       <c r="B60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="66" t="s">
         <v>164</v>
       </c>
       <c r="D60" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
         <v>31</v>
@@ -6978,10 +7013,10 @@
         <v>367</v>
       </c>
       <c r="E61" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
         <v>93</v>
@@ -6989,11 +7024,11 @@
       <c r="C62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D62" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D62" s="158" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
         <v>94</v>
@@ -7001,11 +7036,11 @@
       <c r="C63" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D63" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D63" s="69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
         <v>6</v>
@@ -7014,10 +7049,10 @@
         <v>349</v>
       </c>
       <c r="D64" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="57" t="s">
         <v>8</v>
@@ -7026,7 +7061,7 @@
         <v>349</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -7034,11 +7069,11 @@
         <v>119</v>
       </c>
       <c r="B66" s="53"/>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="122" t="s">
-        <v>472</v>
+      <c r="D66" s="121" t="s">
+        <v>466</v>
       </c>
       <c r="E66" s="27"/>
     </row>
@@ -7050,20 +7085,20 @@
       <c r="C67" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D67" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D67" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D68" t="s">
-        <v>367</v>
+        <v>461</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -7075,7 +7110,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -7090,7 +7125,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="7" t="s">
         <v>92</v>
@@ -7098,8 +7133,8 @@
       <c r="C71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D71" t="s">
-        <v>367</v>
+      <c r="D71" s="65" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -7135,10 +7170,10 @@
         <v>347</v>
       </c>
       <c r="D74" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
         <v>93</v>
@@ -7146,11 +7181,12 @@
       <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D75" s="158" t="s">
+        <v>502</v>
+      </c>
+      <c r="E75" s="158"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
         <v>94</v>
@@ -7158,11 +7194,11 @@
       <c r="C76" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D76" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D76" s="69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
         <v>6</v>
@@ -7171,10 +7207,10 @@
         <v>348</v>
       </c>
       <c r="D77" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
         <v>8</v>
@@ -7183,15 +7219,27 @@
         <v>348</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="69"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="69"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="69"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -7209,7 +7257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7243,30 +7291,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="151"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="153"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="70" t="s">
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
         <v>121</v>
@@ -7277,11 +7325,14 @@
       <c r="D4" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
       <c r="F4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -7292,8 +7343,11 @@
       <c r="D5" s="18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -7303,6 +7357,9 @@
       </c>
       <c r="D6" s="18" t="s">
         <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>367</v>
       </c>
       <c r="F6" t="s">
         <v>385</v>
@@ -7319,6 +7376,9 @@
       <c r="D7" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
       <c r="F7" t="s">
         <v>376</v>
       </c>
@@ -7334,6 +7394,9 @@
       <c r="D8" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
       <c r="F8" t="s">
         <v>376</v>
       </c>
@@ -7349,6 +7412,9 @@
       <c r="D9" s="26" t="s">
         <v>174</v>
       </c>
+      <c r="E9" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -7361,17 +7427,23 @@
       <c r="D10" s="26" t="s">
         <v>176</v>
       </c>
+      <c r="E10" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="96" t="s">
         <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7385,25 +7457,28 @@
       <c r="D12" s="26" t="s">
         <v>383</v>
       </c>
+      <c r="E12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="53"/>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="152" t="s">
         <v>367</v>
       </c>
       <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -7488,10 +7563,10 @@
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7511,20 +7586,20 @@
       <c r="A22" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="79" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="155" t="s">
-        <v>456</v>
+      <c r="E22" s="151" t="s">
+        <v>508</v>
       </c>
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
@@ -7608,10 +7683,10 @@
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="97" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7632,19 +7707,19 @@
         <v>124</v>
       </c>
       <c r="B31" s="53"/>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="155" t="s">
-        <v>456</v>
+      <c r="E31" s="151" t="s">
+        <v>508</v>
       </c>
       <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7730,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>2</v>
@@ -7667,10 +7742,10 @@
         <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>3</v>
@@ -7685,7 +7760,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>4</v>
@@ -7700,7 +7775,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>5</v>
@@ -7712,7 +7787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>7</v>
@@ -7724,19 +7799,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="97" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
         <v>8</v>
@@ -7768,7 +7843,7 @@
   <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
@@ -7799,20 +7874,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="108" t="s">
-        <v>419</v>
+      <c r="A3" s="153"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="107" t="s">
+        <v>418</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E3" s="84" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7917,24 +7992,24 @@
       <c r="C13" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="109"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="153" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
+      <c r="A15" s="153"/>
       <c r="C15" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>496</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>464</v>
+      <c r="D15" s="128" t="s">
+        <v>488</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7968,20 +8043,20 @@
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="106" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8016,7 +8091,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8024,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8059,7 +8134,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8067,27 +8142,27 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="110"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="151"/>
+      <c r="A32" s="153"/>
       <c r="C32" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E32" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -8358,17 +8433,17 @@
         <v>8</v>
       </c>
       <c r="C68" s="61"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="153" t="s">
         <v>38</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="151"/>
+      <c r="A70" s="153"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8445,10 +8520,10 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D80" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -8721,11 +8796,11 @@
         <v>46</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="137" t="s">
-        <v>484</v>
+      <c r="D118" s="136" t="s">
+        <v>476</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -8805,19 +8880,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="61"/>
-      <c r="D129" s="96"/>
-      <c r="E129" s="96"/>
+      <c r="D129" s="95"/>
+      <c r="E129" s="95"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="151" t="s">
+      <c r="A130" s="153" t="s">
         <v>69</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="151"/>
+      <c r="A131" s="153"/>
       <c r="C131" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
         <v>141</v>
@@ -9109,19 +9184,19 @@
       <c r="C163" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D163" s="96"/>
-      <c r="E163" s="96"/>
+      <c r="D163" s="95"/>
+      <c r="E163" s="95"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="151" t="s">
+      <c r="A164" s="153" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="151"/>
+      <c r="A165" s="153"/>
       <c r="C165" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D165" t="s">
         <v>367</v>
@@ -9203,7 +9278,7 @@
       <c r="B173" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="94" t="s">
+      <c r="C173" s="93" t="s">
         <v>367</v>
       </c>
     </row>
@@ -9324,27 +9399,27 @@
       <c r="C185" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D185" s="96"/>
-      <c r="E185" s="96"/>
+      <c r="D185" s="95"/>
+      <c r="E185" s="95"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="151" t="s">
+      <c r="A186" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="B186" s="151"/>
+      <c r="B186" s="153"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="151"/>
-      <c r="B187" s="151"/>
-      <c r="C187" s="82" t="s">
-        <v>419</v>
+      <c r="A187" s="153"/>
+      <c r="B187" s="153"/>
+      <c r="C187" s="81" t="s">
+        <v>418</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9402,21 +9477,21 @@
       <c r="C193" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D193" s="96"/>
-      <c r="E193" s="96"/>
+      <c r="D193" s="95"/>
+      <c r="E193" s="95"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="151" t="s">
+      <c r="A194" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="151"/>
+      <c r="B194" s="153"/>
       <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="151"/>
-      <c r="B195" s="151"/>
+      <c r="A195" s="153"/>
+      <c r="B195" s="153"/>
       <c r="C195" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D195" t="s">
         <v>367</v>
@@ -9450,21 +9525,21 @@
       <c r="C198" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
+      <c r="D198" s="95"/>
+      <c r="E198" s="95"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="151" t="s">
+      <c r="A199" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="B199" s="151"/>
+      <c r="B199" s="153"/>
       <c r="C199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="151"/>
-      <c r="B200" s="151"/>
+      <c r="A200" s="153"/>
+      <c r="B200" s="153"/>
       <c r="C200" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D200" t="s">
         <v>367</v>
@@ -9563,8 +9638,8 @@
       <c r="C210" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="D210" s="96"/>
-      <c r="E210" s="96"/>
+      <c r="D210" s="95"/>
+      <c r="E210" s="95"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
@@ -9628,23 +9703,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="83" t="s">
-        <v>421</v>
+      <c r="D3" s="82" t="s">
+        <v>420</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9666,13 +9741,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>367</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9680,7 +9755,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>367</v>
@@ -9694,7 +9769,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>367</v>
@@ -9747,19 +9822,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>155</v>
       </c>
@@ -9777,30 +9852,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="125" t="s">
-        <v>456</v>
+      <c r="D4" s="124" t="s">
+        <v>451</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9809,49 +9884,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>417</v>
+      <c r="C7" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9863,7 +9938,7 @@
         <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9875,67 +9950,65 @@
         <v>176</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="126" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="126" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" s="125"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="81" t="s">
         <v>367</v>
       </c>
       <c r="D14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>417</v>
+      <c r="C15" s="81" t="s">
+        <v>367</v>
       </c>
       <c r="D15" t="s">
         <v>367</v>
@@ -9947,10 +10020,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9959,13 +10032,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
         <v>5</v>
@@ -9977,7 +10050,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
         <v>7</v>
@@ -9989,35 +10062,41 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="154" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="154" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="E22" s="126"/>
+      <c r="D22" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -10025,19 +10104,19 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>417</v>
+      <c r="C24" s="81" t="s">
+        <v>367</v>
       </c>
       <c r="D24" t="s">
         <v>367</v>
@@ -10049,10 +10128,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D25" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10061,10 +10140,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10076,7 +10155,7 @@
         <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10087,7 +10166,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10095,11 +10174,11 @@
       <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29" s="39"/>
     </row>
@@ -10108,11 +10187,11 @@
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10120,13 +10199,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="112" t="s">
-        <v>456</v>
-      </c>
-      <c r="E31" s="126"/>
+      <c r="D31" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="125"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -10137,7 +10216,7 @@
         <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10145,8 +10224,8 @@
       <c r="B33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>417</v>
+      <c r="C33" s="81" t="s">
+        <v>367</v>
       </c>
       <c r="D33" t="s">
         <v>367</v>
@@ -10158,10 +10237,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10170,10 +10249,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -10185,7 +10264,7 @@
         <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -10197,7 +10276,7 @@
         <v>178</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E37" s="27"/>
     </row>
@@ -10206,22 +10285,22 @@
       <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="154" t="s">
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -10229,7 +10308,7 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -10246,13 +10325,13 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
@@ -10277,13 +10356,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
+      <c r="A3" s="153"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10339,14 +10418,14 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>417</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10354,8 +10433,8 @@
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>417</v>
+      <c r="C9" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D9" t="s">
         <v>367</v>
@@ -10366,8 +10445,8 @@
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>417</v>
+      <c r="C10" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D10" t="s">
         <v>367</v>
@@ -10426,10 +10505,10 @@
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="D15" s="101" t="s">
+      <c r="C15" s="99" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>395</v>
       </c>
       <c r="E15" s="60"/>
@@ -10463,8 +10542,8 @@
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="82" t="s">
-        <v>417</v>
+      <c r="C18" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D18" t="s">
         <v>367</v>
@@ -10475,8 +10554,8 @@
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="82" t="s">
-        <v>417</v>
+      <c r="C19" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D19" t="s">
         <v>367</v>
@@ -10487,8 +10566,8 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="82" t="s">
-        <v>417</v>
+      <c r="C20" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>367</v>
@@ -10584,8 +10663,8 @@
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>154</v>
+      <c r="C28" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D28" t="s">
         <v>367</v>
@@ -10596,8 +10675,8 @@
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>154</v>
+      <c r="C29" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D29" t="s">
         <v>367</v>
@@ -10608,8 +10687,8 @@
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>417</v>
+      <c r="C30" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D30" t="s">
         <v>367</v>
@@ -10729,8 +10808,8 @@
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="82" t="s">
-        <v>417</v>
+      <c r="C40" s="81" t="s">
+        <v>416</v>
       </c>
       <c r="D40" t="s">
         <v>367</v>
@@ -10782,8 +10861,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10813,18 +10892,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -10845,10 +10924,7 @@
         <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10902,7 +10978,7 @@
         <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10914,9 +10990,9 @@
         <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="96"/>
+        <v>427</v>
+      </c>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -10939,10 +11015,7 @@
         <v>351</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="E12" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10984,7 +11057,7 @@
         <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10996,7 +11069,7 @@
         <v>354</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11007,10 +11080,10 @@
       <c r="C17" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="D17" s="96" t="s">
-        <v>428</v>
-      </c>
-      <c r="E17" s="96"/>
+      <c r="D17" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -11020,8 +11093,8 @@
       <c r="C18" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="D18" s="103" t="s">
-        <v>444</v>
+      <c r="D18" s="102" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11042,7 +11115,7 @@
         <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11078,7 +11151,7 @@
         <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11098,8 +11171,8 @@
       <c r="C25" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -11109,7 +11182,7 @@
       <c r="C26" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="102" t="s">
         <v>367</v>
       </c>
     </row>
@@ -11187,22 +11260,22 @@
       <c r="C33" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>339</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11220,7 +11293,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11267,19 +11340,19 @@
       <c r="C41" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
     </row>
     <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="D42" s="117" t="s">
-        <v>414</v>
+      <c r="D42" s="116" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11291,7 +11364,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -11299,13 +11372,13 @@
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>267</v>
+      <c r="C44" s="72" t="s">
+        <v>367</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E44" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" s="71" t="s">
         <v>375</v>
       </c>
     </row>
@@ -11314,11 +11387,11 @@
       <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="67" t="s">
         <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E45" t="s">
         <v>365</v>
@@ -11329,11 +11402,11 @@
       <c r="B46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="67" t="s">
         <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E46" t="s">
         <v>365</v>
@@ -11344,11 +11417,11 @@
       <c r="B47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="67" t="s">
         <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E47" t="s">
         <v>365</v>
@@ -11363,7 +11436,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11375,7 +11448,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11387,7 +11460,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11395,11 +11468,11 @@
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="67" t="s">
         <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E51" t="s">
         <v>365</v>
@@ -11426,17 +11499,17 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11457,15 +11530,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11489,7 +11562,7 @@
         <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11525,7 +11598,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11537,7 +11610,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11548,10 +11621,10 @@
       <c r="C10" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="D10" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11559,7 +11632,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>369</v>
@@ -11574,7 +11647,7 @@
         <v>367</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11589,7 +11662,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7" t="s">
         <v>4</v>
@@ -11601,7 +11674,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -11609,8 +11682,11 @@
       <c r="C15" s="14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="157" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>6</v>
@@ -11619,7 +11695,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11630,24 +11706,24 @@
       <c r="C17" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="96" t="s">
-        <v>430</v>
-      </c>
-      <c r="E17" s="96"/>
+      <c r="D17" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="130" t="s">
-        <v>444</v>
+      <c r="D18" s="129" t="s">
+        <v>141</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11658,6 +11734,9 @@
       <c r="C19" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -11667,6 +11746,9 @@
       <c r="C20" s="5" t="s">
         <v>367</v>
       </c>
+      <c r="D20" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -11676,6 +11758,9 @@
       <c r="C21" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="D21" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -11685,8 +11770,11 @@
       <c r="C22" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
@@ -11694,8 +11782,11 @@
       <c r="C23" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -11703,8 +11794,11 @@
       <c r="C24" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>8</v>
@@ -11712,25 +11806,27 @@
       <c r="C25" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="95"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="131" t="s">
-        <v>404</v>
+      <c r="D26" s="130" t="s">
+        <v>403</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
@@ -11738,13 +11834,19 @@
       <c r="C27" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D28" t="s">
         <v>367</v>
       </c>
     </row>
@@ -11756,8 +11858,11 @@
       <c r="C29" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>4</v>
@@ -11765,20 +11870,26 @@
       <c r="C30" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="D31" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="118" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>6</v>
@@ -11786,8 +11897,11 @@
       <c r="C32" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -11795,31 +11909,36 @@
       <c r="C33" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="E33" s="95"/>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D34" t="s">
-        <v>367</v>
-      </c>
-      <c r="E34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11830,6 +11949,9 @@
       <c r="C36" s="5" t="s">
         <v>367</v>
       </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -11839,6 +11961,9 @@
       <c r="C37" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -11848,8 +11973,11 @@
       <c r="C38" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7" t="s">
         <v>31</v>
@@ -11857,20 +11985,26 @@
       <c r="C39" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="115" t="s">
+      <c r="D40" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E40" s="114" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
         <v>8</v>
@@ -11878,19 +12012,21 @@
       <c r="C41" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" s="155" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="95"/>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="19"/>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="D42" s="112" t="s">
-        <v>414</v>
+      <c r="D42" s="111" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11911,7 +12047,7 @@
         <v>367</v>
       </c>
       <c r="D44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11976,8 +12112,8 @@
       <c r="C51" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12000,13 +12136,13 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D88:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
@@ -12030,16 +12166,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -12051,11 +12187,11 @@
       <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>471</v>
+      <c r="D4" s="119" t="s">
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -12066,7 +12202,9 @@
       <c r="C5" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="158" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -12076,17 +12214,21 @@
       <c r="C6" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>461</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -12096,9 +12238,11 @@
       <c r="C8" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" s="102" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>92</v>
@@ -12106,7 +12250,9 @@
       <c r="C9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="65" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -12116,7 +12262,9 @@
       <c r="C10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="102" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -12126,7 +12274,9 @@
       <c r="C11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="102" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -12136,7 +12286,9 @@
       <c r="C12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="158" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -12146,7 +12298,9 @@
       <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="158" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -12156,7 +12310,9 @@
       <c r="C14" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -12166,18 +12322,20 @@
       <c r="C15" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="53"/>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>471</v>
+      <c r="D16" s="119" t="s">
+        <v>465</v>
       </c>
       <c r="E16" s="40"/>
     </row>
@@ -12189,9 +12347,11 @@
       <c r="C17" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="65"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
         <v>91</v>
@@ -12199,9 +12359,11 @@
       <c r="C18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="65"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>92</v>
@@ -12209,9 +12371,11 @@
       <c r="C19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="65"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>3</v>
@@ -12219,9 +12383,11 @@
       <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20" s="158" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>4</v>
@@ -12229,9 +12395,11 @@
       <c r="C21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="158" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>93</v>
@@ -12239,9 +12407,11 @@
       <c r="C22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" s="158" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>94</v>
@@ -12249,9 +12419,11 @@
       <c r="C23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="65"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" s="158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -12259,7 +12431,9 @@
       <c r="C24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="26" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -12269,22 +12443,24 @@
       <c r="C25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="65"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="121" t="s">
-        <v>454</v>
+      <c r="D26" s="120" t="s">
+        <v>450</v>
       </c>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>90</v>
@@ -12292,30 +12468,36 @@
       <c r="C27" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="157" t="s">
+        <v>367</v>
+      </c>
       <c r="E28" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D29" s="26"/>
+      <c r="C29" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -12326,18 +12508,20 @@
         <v>367</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="65" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -12347,7 +12531,9 @@
       <c r="C32" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="102" t="s">
+        <v>367</v>
+      </c>
       <c r="E32" t="s">
         <v>366</v>
       </c>
@@ -12360,7 +12546,9 @@
       <c r="C33" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="102" t="s">
+        <v>367</v>
+      </c>
       <c r="E33" t="s">
         <v>366</v>
       </c>
@@ -12373,7 +12561,9 @@
       <c r="C34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -12383,7 +12573,9 @@
       <c r="C35" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="102" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -12393,7 +12585,9 @@
       <c r="C36" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="102" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -12404,7 +12598,7 @@
         <v>350</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -12416,7 +12610,7 @@
         <v>350</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -12465,7 +12659,7 @@
         <v>351</v>
       </c>
       <c r="D42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12513,7 +12707,7 @@
         <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12549,7 +12743,7 @@
         <v>352</v>
       </c>
       <c r="D49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12561,7 +12755,7 @@
         <v>352</v>
       </c>
       <c r="D50" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12569,10 +12763,10 @@
         <v>98</v>
       </c>
       <c r="B51" s="55"/>
-      <c r="C51" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="D51" s="99" t="s">
+      <c r="C51" s="98" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" s="98" t="s">
         <v>369</v>
       </c>
       <c r="E51" s="60"/>
@@ -12610,7 +12804,7 @@
         <v>351</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -12658,7 +12852,7 @@
         <v>353</v>
       </c>
       <c r="D58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -12694,7 +12888,7 @@
         <v>354</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -12706,7 +12900,7 @@
         <v>355</v>
       </c>
       <c r="D62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12742,7 +12936,7 @@
       <c r="C65" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D65" s="103" t="s">
+      <c r="D65" s="102" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12754,8 +12948,8 @@
       <c r="C66" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="D66" s="113" t="s">
-        <v>435</v>
+      <c r="D66" s="112" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -12767,7 +12961,7 @@
         <v>351</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -12779,7 +12973,7 @@
         <v>360</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12791,10 +12985,10 @@
         <v>351</v>
       </c>
       <c r="D69" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E69" s="39" t="s">
         <v>436</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -12806,7 +13000,7 @@
         <v>351</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E70" t="s">
         <v>366</v>
@@ -12821,7 +13015,7 @@
         <v>359</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -12906,7 +13100,7 @@
         <v>351</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -12954,7 +13148,7 @@
         <v>353</v>
       </c>
       <c r="D82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -12990,7 +13184,7 @@
         <v>354</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -13002,7 +13196,7 @@
         <v>355</v>
       </c>
       <c r="D86" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13010,11 +13204,11 @@
         <v>101</v>
       </c>
       <c r="B87" s="54"/>
-      <c r="C87" s="105" t="s">
+      <c r="C87" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="154" t="s">
-        <v>489</v>
+      <c r="D87" s="150" t="s">
+        <v>481</v>
       </c>
       <c r="E87" s="40"/>
     </row>
@@ -13026,8 +13220,8 @@
       <c r="C88" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D88" s="70" t="s">
-        <v>367</v>
+      <c r="D88" s="158" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13038,20 +13232,20 @@
       <c r="C89" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D89" s="70" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D90" s="70" t="s">
-        <v>367</v>
+        <v>461</v>
+      </c>
+      <c r="D90" s="65" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -13062,8 +13256,8 @@
       <c r="C91" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="70" t="s">
-        <v>367</v>
+      <c r="D91" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -13074,11 +13268,11 @@
       <c r="C92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="70" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="69" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
         <v>92</v>
@@ -13086,8 +13280,8 @@
       <c r="C93" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="70" t="s">
-        <v>367</v>
+      <c r="D93" s="65" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -13098,7 +13292,7 @@
       <c r="C94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="70" t="s">
+      <c r="D94" s="69" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13110,7 +13304,7 @@
       <c r="C95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="70" t="s">
+      <c r="D95" s="69" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13122,11 +13316,11 @@
       <c r="C96" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D96" s="70" t="s">
+      <c r="D96" s="69" t="s">
         <v>367</v>
       </c>
       <c r="E96" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13137,8 +13331,8 @@
       <c r="C97" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="70" t="s">
-        <v>367</v>
+      <c r="D97" s="158" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13149,8 +13343,8 @@
       <c r="C98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="70" t="s">
-        <v>367</v>
+      <c r="D98" s="69" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -13158,20 +13352,20 @@
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="114" t="s">
+      <c r="C99" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="D99" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="E99" s="96"/>
+      <c r="D99" s="95" t="s">
+        <v>503</v>
+      </c>
+      <c r="E99" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -13219,16 +13413,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -13236,11 +13430,11 @@
         <v>102</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="149" t="s">
         <v>391</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>414</v>
+      <c r="D4" s="116" t="s">
+        <v>413</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -13249,9 +13443,9 @@
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95" t="s">
-        <v>491</v>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94" t="s">
+        <v>483</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -13262,7 +13456,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13272,7 +13466,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13321,8 +13515,8 @@
         <v>6</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="103" t="s">
-        <v>430</v>
+      <c r="D12" s="102" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13331,8 +13525,8 @@
         <v>8</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="103" t="s">
-        <v>430</v>
+      <c r="D13" s="102" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13340,13 +13534,13 @@
         <v>103</v>
       </c>
       <c r="B14" s="54"/>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="131" t="s">
         <v>391</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="126"/>
+      <c r="E14" s="125"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -13354,7 +13548,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="132" t="s">
         <v>367</v>
       </c>
       <c r="E15" s="27"/>
@@ -13375,8 +13569,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="104" t="s">
-        <v>407</v>
+      <c r="D17" s="103" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13385,7 +13579,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="132" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13395,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="102" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13405,7 +13599,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="102" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13415,7 +13609,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="102" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13425,7 +13619,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="102" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13434,13 +13628,13 @@
         <v>104</v>
       </c>
       <c r="B23" s="54"/>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="131" t="s">
         <v>391</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="126"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -13448,8 +13642,8 @@
         <v>29</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="92" t="s">
-        <v>491</v>
+      <c r="D24" s="91" t="s">
+        <v>483</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -13470,7 +13664,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13510,7 +13704,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13520,7 +13714,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13528,13 +13722,13 @@
         <v>105</v>
       </c>
       <c r="B32" s="54"/>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="131" t="s">
         <v>391</v>
       </c>
       <c r="D32" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="125"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -13542,8 +13736,8 @@
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="92" t="s">
-        <v>491</v>
+      <c r="D33" s="91" t="s">
+        <v>483</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -13564,7 +13758,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13669,15 +13863,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="151"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13697,11 +13891,11 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>425</v>
+      <c r="C5" s="67" t="s">
+        <v>424</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13740,7 +13934,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
         <v>367</v>
@@ -13755,7 +13949,7 @@
         <v>352</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13767,7 +13961,7 @@
         <v>352</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13792,7 +13986,7 @@
         <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
         <v>374</v>
@@ -13837,7 +14031,7 @@
         <v>353</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13882,10 +14076,10 @@
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="102" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13906,11 +14100,11 @@
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="82" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>407</v>
+      <c r="C21" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13918,10 +14112,10 @@
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="132" t="s">
         <v>367</v>
       </c>
       <c r="E22" s="27"/>
@@ -13931,10 +14125,10 @@
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="102" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13943,10 +14137,10 @@
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="102" t="s">
         <v>367</v>
       </c>
       <c r="E24" s="27"/>
@@ -13959,7 +14153,7 @@
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13971,7 +14165,7 @@
       <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="102" t="s">
         <v>401</v>
       </c>
     </row>
@@ -14005,11 +14199,11 @@
       <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>407</v>
+      <c r="C29" s="67" t="s">
+        <v>406</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14017,7 +14211,7 @@
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="81" t="s">
         <v>367</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -14029,14 +14223,14 @@
       <c r="B31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="81" t="s">
         <v>267</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14084,7 +14278,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -14108,7 +14302,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -14157,7 +14351,7 @@
         <v>367</v>
       </c>
       <c r="D41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14225,11 +14419,11 @@
         <v>112</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="105" t="s">
         <v>378</v>
       </c>
-      <c r="D47" s="116" t="s">
-        <v>414</v>
+      <c r="D47" s="115" t="s">
+        <v>413</v>
       </c>
       <c r="E47" s="60"/>
     </row>
@@ -14251,7 +14445,7 @@
         <v>341</v>
       </c>
       <c r="D49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14281,7 +14475,7 @@
         <v>367</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14310,7 +14504,7 @@
       <c r="C55" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="65" t="s">
         <v>388</v>
       </c>
     </row>
@@ -14320,7 +14514,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E56" t="s">
         <v>343</v>

--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="505">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -1045,12 +1045,6 @@
     <t>EncounterEvent?</t>
   </si>
   <si>
-    <t>ProcedureProposal?</t>
-  </si>
-  <si>
-    <t>ProcedureOrder?</t>
-  </si>
-  <si>
     <t>observationMethod</t>
   </si>
   <si>
@@ -1349,9 +1343,6 @@
   </si>
   <si>
     <t>ObservationProposal removed in updated vMR (MAY-2013)</t>
-  </si>
-  <si>
-    <t>TBD (extend Order interface)</t>
   </si>
   <si>
     <t>status</t>
@@ -1548,24 +1539,15 @@
     <t>onsetAge</t>
   </si>
   <si>
-    <t>comment field added in vMR (MAY-2013)</t>
-  </si>
-  <si>
     <t>prnReason field added in vMR (MAY-2013)</t>
   </si>
   <si>
-    <t>comment?</t>
-  </si>
-  <si>
     <t>performanceTime</t>
   </si>
   <si>
     <t>orderedAtTime?</t>
   </si>
   <si>
-    <t>QIDAM (interface  created, no class yet)</t>
-  </si>
-  <si>
     <t>QIDAM: ProcedureProposal element with details of type LabatoryTestProcedure</t>
   </si>
   <si>
@@ -1581,16 +1563,22 @@
     <t>proposedAtTime / enactedAtTime</t>
   </si>
   <si>
-    <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR.</t>
-  </si>
-  <si>
-    <t>ObservationPresence</t>
-  </si>
-  <si>
-    <t>comment ??</t>
-  </si>
-  <si>
-    <t>Condition?</t>
+    <t>Symptoms can be viewed as Observations but Problem (ConditionBase) is better fit in vMR and likewise Condition in QIDAM</t>
+  </si>
+  <si>
+    <t>status = assessed</t>
+  </si>
+  <si>
+    <t>QIDAM Negation = ConditionAbsent</t>
+  </si>
+  <si>
+    <t>(*) Needs "comment" field</t>
+  </si>
+  <si>
+    <t>QIDAM: ProcedureProposal does not extend Statement so comment properpty is not present</t>
+  </si>
+  <si>
+    <t>(1) VMR: comment field added in vMR (MAY-2013). (2) QIDAM: ProcedureOrder class does not extent Statement so commet property is not present</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1957,7 +1945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1998,9 +1985,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2207,18 +2191,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2226,8 +2201,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3394,14 +3384,6 @@
             </a:rPr>
             <a:t>	The amount of therapeutic agent that was indicated to be given during a procedure, diagnostic test, or medication or substance administration. 	</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
@@ -4759,14 +4741,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="75" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="73" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="30.109375" customWidth="1"/>
@@ -4777,17 +4759,17 @@
       <c r="A1" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>382</v>
+      <c r="C1" s="72" t="s">
+        <v>380</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>370</v>
+      <c r="F1" s="50" t="s">
+        <v>368</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>265</v>
@@ -4798,8 +4780,8 @@
         <v>189</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="85" t="s">
-        <v>389</v>
+      <c r="C2" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="22" t="s">
@@ -4811,30 +4793,30 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="30">
         <v>7.31</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="30">
         <v>7.51</v>
       </c>
       <c r="E4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4842,22 +4824,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="86"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>449</v>
+      <c r="F6" s="68" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4865,7 +4847,7 @@
         <v>190</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="31"/>
       <c r="E7" s="22"/>
       <c r="G7" t="s">
@@ -4877,27 +4859,27 @@
         <v>191</v>
       </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="88">
+      <c r="D8" s="86">
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="G8" s="89"/>
+        <v>454</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="32">
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4907,12 +4889,12 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="32">
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4923,68 +4905,71 @@
         <v>24</v>
       </c>
       <c r="B11" s="24"/>
-      <c r="C11" s="86"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="29" t="s">
         <v>292</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="128" t="s">
-        <v>451</v>
+      <c r="F12" s="126" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="33" t="s">
         <v>281</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="90"/>
+        <v>369</v>
+      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="29" t="s">
         <v>293</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="128" t="s">
-        <v>451</v>
+      <c r="F14" s="126" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="33" t="s">
         <v>294</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="128" t="s">
-        <v>451</v>
+      <c r="F15" s="126" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4992,23 +4977,23 @@
         <v>201</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="85" t="s">
-        <v>389</v>
+      <c r="C16" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="29" t="s">
         <v>291</v>
       </c>
@@ -5023,78 +5008,78 @@
       <c r="B18" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="29" t="s">
         <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>421</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="29" t="s">
         <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>474</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>475</v>
+        <v>365</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="29" t="s">
         <v>290</v>
       </c>
       <c r="E20" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="33" t="s">
         <v>272</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>447</v>
+        <v>365</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="33" t="s">
         <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>367</v>
-      </c>
-      <c r="F22" s="90" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -5102,7 +5087,7 @@
         <v>202</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="86"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22" t="s">
         <v>269</v>
@@ -5113,7 +5098,7 @@
       <c r="B24" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="3" t="s">
         <v>276</v>
       </c>
@@ -5128,29 +5113,29 @@
       <c r="B25" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="3" t="s">
         <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>367</v>
-      </c>
-      <c r="F26" s="90" t="s">
+        <v>365</v>
+      </c>
+      <c r="F26" s="88" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5158,12 +5143,12 @@
       <c r="B27" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="3" t="s">
         <v>274</v>
       </c>
       <c r="E27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>142</v>
@@ -5173,12 +5158,12 @@
       <c r="B28" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="84"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="3" t="s">
         <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>143</v>
@@ -5188,18 +5173,18 @@
       <c r="B29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="3" t="s">
         <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="G29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -5207,14 +5192,14 @@
         <v>58</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="86"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="29" t="s">
         <v>295</v>
       </c>
@@ -5229,7 +5214,7 @@
       <c r="B32" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="84"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="38" t="s">
         <v>297</v>
       </c>
@@ -5237,17 +5222,17 @@
         <v>267</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="84"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="29" t="s">
         <v>296</v>
       </c>
@@ -5262,7 +5247,7 @@
       <c r="B34" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="84"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="29" t="s">
         <v>298</v>
       </c>
@@ -5270,7 +5255,7 @@
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G34" t="s">
         <v>268</v>
@@ -5281,8 +5266,8 @@
         <v>69</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="85" t="s">
-        <v>389</v>
+      <c r="C35" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="42" t="s">
@@ -5294,12 +5279,12 @@
       <c r="B36" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="84"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="29" t="s">
         <v>299</v>
       </c>
       <c r="E36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>141</v>
@@ -5309,12 +5294,12 @@
       <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="29" t="s">
         <v>301</v>
       </c>
       <c r="E37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>142</v>
@@ -5324,12 +5309,12 @@
       <c r="B38" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="29" t="s">
         <v>300</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>143</v>
@@ -5339,15 +5324,15 @@
       <c r="B39" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="84"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="29" t="s">
         <v>302</v>
       </c>
       <c r="E39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5355,59 +5340,59 @@
         <v>70</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="85" t="s">
-        <v>389</v>
+      <c r="C40" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="84"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="33"/>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="84"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="32">
         <v>7.32</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="84"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5415,7 +5400,7 @@
         <v>220</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="86"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="31"/>
       <c r="F44" s="26"/>
     </row>
@@ -5423,7 +5408,7 @@
       <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="84"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="31" t="s">
         <v>315</v>
       </c>
@@ -5438,15 +5423,15 @@
       <c r="B46" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="84"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="31" t="s">
         <v>316</v>
       </c>
       <c r="E46" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -5454,68 +5439,68 @@
         <v>223</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="138" t="s">
         <v>317</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="132" t="s">
-        <v>441</v>
-      </c>
-      <c r="G47" s="112" t="s">
-        <v>479</v>
+      <c r="F47" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="110" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="31" t="s">
         <v>318</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
       </c>
-      <c r="F48" t="s">
-        <v>367</v>
+      <c r="F48" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>225</v>
       </c>
-      <c r="C49" s="84"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="31" t="s">
         <v>320</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
       </c>
-      <c r="F49" t="s">
-        <v>367</v>
+      <c r="F49" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="84"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="31" t="s">
         <v>319</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5523,7 +5508,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="24"/>
-      <c r="C51" s="86"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="31"/>
       <c r="F51" s="26"/>
     </row>
@@ -5531,7 +5516,7 @@
       <c r="B52" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="84"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="31"/>
       <c r="E52" t="s">
         <v>148</v>
@@ -5544,15 +5529,15 @@
       <c r="B53" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="47" t="s">
         <v>321</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="F53" s="91" t="s">
-        <v>369</v>
+        <v>355</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>367</v>
       </c>
       <c r="G53" s="40"/>
     </row>
@@ -5560,14 +5545,14 @@
       <c r="B54" t="s">
         <v>229</v>
       </c>
-      <c r="C54" s="84"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="31" t="s">
         <v>322</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F54" s="90" t="s">
+      <c r="F54" s="88" t="s">
         <v>141</v>
       </c>
       <c r="G54" s="40"/>
@@ -5576,32 +5561,30 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="84"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="34">
         <v>7.23</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="F55" s="156" t="s">
-        <v>403</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>499</v>
-      </c>
+      <c r="F55" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="157"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="84"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="31" t="s">
         <v>323</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="88" t="s">
         <v>143</v>
       </c>
       <c r="G56" s="40"/>
@@ -5610,13 +5593,13 @@
       <c r="B57" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="84"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="31"/>
       <c r="E57" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="F57" s="142" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="F57" s="140" t="s">
+        <v>376</v>
       </c>
       <c r="G57" s="40"/>
     </row>
@@ -5625,7 +5608,7 @@
         <v>129</v>
       </c>
       <c r="B58" s="24"/>
-      <c r="C58" s="86"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="31"/>
       <c r="E58" s="40"/>
       <c r="F58" s="44"/>
@@ -5636,14 +5619,14 @@
         <v>233</v>
       </c>
       <c r="C59" s="40"/>
-      <c r="D59" s="123" t="s">
+      <c r="D59" s="121" t="s">
         <v>286</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="122" t="s">
-        <v>465</v>
+      <c r="F59" s="120" t="s">
+        <v>462</v>
       </c>
       <c r="G59" s="40"/>
     </row>
@@ -5651,15 +5634,15 @@
       <c r="B60" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="32">
         <v>7.11</v>
       </c>
       <c r="E60" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="135" t="s">
-        <v>465</v>
+      <c r="F60" s="133" t="s">
+        <v>462</v>
       </c>
       <c r="G60" s="40"/>
     </row>
@@ -5667,15 +5650,15 @@
       <c r="B61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="84"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="32">
         <v>7.26</v>
       </c>
       <c r="E61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="122" t="s">
-        <v>450</v>
+      <c r="F61" s="120" t="s">
+        <v>447</v>
       </c>
       <c r="G61" s="40"/>
     </row>
@@ -5683,7 +5666,7 @@
       <c r="B62" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="84"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="32" t="s">
         <v>331</v>
       </c>
@@ -5701,15 +5684,15 @@
       <c r="B63" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="84"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="35" t="s">
         <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G63" s="40"/>
     </row>
@@ -5717,7 +5700,7 @@
       <c r="B64" t="s">
         <v>238</v>
       </c>
-      <c r="C64" s="84"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="32">
         <v>7.27</v>
       </c>
@@ -5725,7 +5708,7 @@
         <v>139</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G64" s="40"/>
     </row>
@@ -5733,15 +5716,15 @@
       <c r="B65" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="84"/>
+      <c r="C65" s="82"/>
       <c r="D65" s="48">
         <v>7.61</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>330</v>
@@ -5752,14 +5735,14 @@
         <v>240</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="137" t="s">
+      <c r="D66" s="135" t="s">
         <v>287</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="141" t="s">
-        <v>481</v>
+      <c r="F66" s="139" t="s">
+        <v>478</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5768,27 +5751,27 @@
         <v>130</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="87"/>
+      <c r="C67" s="85"/>
       <c r="D67" s="31"/>
       <c r="E67" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="143"/>
+      <c r="F67" s="141"/>
       <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="84"/>
+      <c r="C68" s="82"/>
       <c r="D68" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="144" t="s">
-        <v>378</v>
-      </c>
-      <c r="F68" s="144" t="s">
-        <v>378</v>
+      <c r="E68" s="142" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68" s="142" t="s">
+        <v>376</v>
       </c>
       <c r="G68" s="40"/>
     </row>
@@ -5796,14 +5779,14 @@
       <c r="B69" t="s">
         <v>242</v>
       </c>
-      <c r="C69" s="84"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="144" t="s">
+      <c r="E69" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="144" t="s">
+      <c r="F69" s="142" t="s">
         <v>141</v>
       </c>
       <c r="G69" s="40"/>
@@ -5812,14 +5795,14 @@
       <c r="B70" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="84"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E70" s="144" t="s">
+      <c r="E70" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="144" t="s">
+      <c r="F70" s="142" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="40"/>
@@ -5828,14 +5811,14 @@
       <c r="B71" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="84"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E71" s="144" t="s">
+      <c r="E71" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="144" t="s">
+      <c r="F71" s="142" t="s">
         <v>143</v>
       </c>
       <c r="G71" s="40"/>
@@ -5845,17 +5828,17 @@
         <v>133</v>
       </c>
       <c r="B72" s="24"/>
-      <c r="C72" s="86"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="31"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="68"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="40"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" s="84"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="29" t="s">
         <v>313</v>
       </c>
@@ -5871,15 +5854,15 @@
       <c r="B74" t="s">
         <v>246</v>
       </c>
-      <c r="C74" s="84"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="29" t="s">
         <v>310</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F74" s="69" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>367</v>
       </c>
       <c r="G74" s="40"/>
     </row>
@@ -5887,7 +5870,7 @@
       <c r="B75" t="s">
         <v>248</v>
       </c>
-      <c r="C75" s="84"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="33" t="s">
         <v>309</v>
       </c>
@@ -5903,14 +5886,14 @@
       <c r="B76" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="84"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="33" t="s">
         <v>308</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="69" t="s">
+      <c r="F76" s="68" t="s">
         <v>142</v>
       </c>
       <c r="G76" s="40"/>
@@ -5919,7 +5902,7 @@
       <c r="B77" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="33" t="s">
         <v>311</v>
       </c>
@@ -5935,15 +5918,15 @@
       <c r="B78" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="84"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="33" t="s">
         <v>312</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="F78" s="145" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="F78" s="143" t="s">
+        <v>376</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -5952,29 +5935,29 @@
         <v>134</v>
       </c>
       <c r="B79" s="24"/>
-      <c r="C79" s="85" t="s">
-        <v>389</v>
+      <c r="C79" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F79" s="141"/>
+      <c r="F79" s="139"/>
       <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="84"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="31" t="s">
         <v>314</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="F80" s="144" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="F80" s="142" t="s">
+        <v>365</v>
       </c>
       <c r="G80" s="40"/>
     </row>
@@ -5983,12 +5966,12 @@
         <v>135</v>
       </c>
       <c r="B81" s="24"/>
-      <c r="C81" s="86"/>
+      <c r="C81" s="84"/>
       <c r="D81" s="31"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="141"/>
-      <c r="G81" s="147" t="s">
-        <v>482</v>
+      <c r="F81" s="139"/>
+      <c r="G81" s="145" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5996,14 +5979,14 @@
         <v>326</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="137">
+      <c r="D82" s="135">
         <v>7.26</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="122" t="s">
-        <v>450</v>
+      <c r="F82" s="120" t="s">
+        <v>447</v>
       </c>
       <c r="G82" s="40"/>
     </row>
@@ -6011,14 +5994,14 @@
       <c r="B83" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="84"/>
+      <c r="C83" s="82"/>
       <c r="D83" s="32" t="s">
         <v>332</v>
       </c>
       <c r="E83" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="141" t="s">
+      <c r="F83" s="139" t="s">
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
@@ -6029,15 +6012,15 @@
       <c r="B84" t="s">
         <v>253</v>
       </c>
-      <c r="C84" s="84"/>
+      <c r="C84" s="82"/>
       <c r="D84" s="30">
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F84" s="90" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="F84" s="88" t="s">
+        <v>367</v>
       </c>
       <c r="G84" s="40"/>
     </row>
@@ -6045,15 +6028,15 @@
       <c r="B85" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="84"/>
+      <c r="C85" s="82"/>
       <c r="D85" s="30">
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="F85" s="90" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="F85" s="88" t="s">
+        <v>367</v>
       </c>
       <c r="G85" s="40"/>
     </row>
@@ -6062,16 +6045,16 @@
         <v>255</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="136" t="s">
+      <c r="D86" s="134" t="s">
         <v>327</v>
       </c>
-      <c r="E86" s="117" t="s">
+      <c r="E86" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="159" t="s">
-        <v>469</v>
-      </c>
-      <c r="G86" s="132" t="s">
+      <c r="F86" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="G86" s="130" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6079,15 +6062,15 @@
       <c r="B87" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="84"/>
+      <c r="C87" s="82"/>
       <c r="D87" s="31" t="s">
         <v>324</v>
       </c>
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="146" t="s">
-        <v>466</v>
+      <c r="F87" s="144" t="s">
+        <v>463</v>
       </c>
       <c r="G87" s="40"/>
     </row>
@@ -6096,42 +6079,45 @@
         <v>257</v>
       </c>
       <c r="B88" s="24"/>
-      <c r="C88" s="86"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="31"/>
       <c r="E88" s="42"/>
       <c r="F88" s="28"/>
       <c r="G88" s="40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="84"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="29" t="s">
         <v>282</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="141" t="s">
-        <v>506</v>
+      <c r="F89" s="139" t="s">
+        <v>448</v>
+      </c>
+      <c r="G89" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>259</v>
       </c>
-      <c r="C90" s="84"/>
+      <c r="C90" s="82"/>
       <c r="D90" s="29" t="s">
         <v>283</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F90" s="141" t="s">
-        <v>367</v>
+      <c r="F90" s="139" t="s">
+        <v>448</v>
       </c>
       <c r="G90" s="40"/>
     </row>
@@ -6139,15 +6125,15 @@
       <c r="B91" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="84"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="29" t="s">
         <v>284</v>
       </c>
       <c r="E91" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="141" t="s">
-        <v>508</v>
+      <c r="F91" s="139" t="s">
+        <v>448</v>
       </c>
       <c r="G91" s="40"/>
     </row>
@@ -6155,15 +6141,15 @@
       <c r="B92" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="84"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="29" t="s">
         <v>285</v>
       </c>
       <c r="E92" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="141" t="s">
-        <v>508</v>
+      <c r="F92" s="139" t="s">
+        <v>448</v>
       </c>
       <c r="G92" s="40"/>
     </row>
@@ -6172,8 +6158,8 @@
         <v>132</v>
       </c>
       <c r="B93" s="24"/>
-      <c r="C93" s="85" t="s">
-        <v>389</v>
+      <c r="C93" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="42" t="s">
@@ -6186,15 +6172,15 @@
       <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="84"/>
-      <c r="D94" s="92" t="s">
-        <v>351</v>
+      <c r="C94" s="82"/>
+      <c r="D94" s="90" t="s">
+        <v>349</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G94" s="39" t="s">
         <v>325</v>
@@ -6205,8 +6191,8 @@
         <v>262</v>
       </c>
       <c r="B95" s="24"/>
-      <c r="C95" s="85" t="s">
-        <v>389</v>
+      <c r="C95" s="83" t="s">
+        <v>387</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="42" t="s">
@@ -6225,10 +6211,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G96" s="40"/>
     </row>
@@ -6240,10 +6226,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G97" s="40"/>
     </row>
@@ -6288,34 +6274,34 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="73" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="133" t="s">
-        <v>450</v>
+      <c r="D4" s="131" t="s">
+        <v>447</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -6325,7 +6311,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -6337,10 +6323,10 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6349,10 +6335,10 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6361,10 +6347,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>434</v>
+        <v>458</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6372,11 +6358,11 @@
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>367</v>
+      <c r="C9" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6384,11 +6370,11 @@
       <c r="B10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>434</v>
+      <c r="D10" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6396,14 +6382,14 @@
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>267</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6411,14 +6397,14 @@
       <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="79" t="s">
         <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6429,8 +6415,8 @@
       <c r="C13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="158" t="s">
-        <v>502</v>
+      <c r="D13" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6441,7 +6427,7 @@
       <c r="C14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="153" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6451,36 +6437,36 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -6488,10 +6474,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6500,10 +6486,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6512,10 +6498,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6524,10 +6510,10 @@
         <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6536,10 +6522,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6548,10 +6534,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6560,10 +6546,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6572,10 +6558,10 @@
         <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6584,10 +6570,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6596,36 +6582,36 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="E29" s="60"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -6633,10 +6619,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6645,10 +6631,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6657,10 +6643,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6669,10 +6655,10 @@
         <v>92</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6681,10 +6667,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6693,10 +6679,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6705,10 +6691,10 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6717,10 +6703,10 @@
         <v>93</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6729,10 +6715,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6741,36 +6727,36 @@
         <v>6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>355</v>
+      <c r="C40" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="E41" s="60"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -6778,10 +6764,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6790,10 +6776,10 @@
         <v>91</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6802,10 +6788,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6814,10 +6800,10 @@
         <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6826,10 +6812,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6838,10 +6824,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6850,10 +6836,10 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D48" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6862,10 +6848,10 @@
         <v>93</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6874,10 +6860,10 @@
         <v>94</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6886,34 +6872,34 @@
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="52" t="s">
-        <v>355</v>
+      <c r="C52" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="53"/>
-      <c r="C53" s="79" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="134" t="s">
-        <v>469</v>
+      <c r="D53" s="132" t="s">
+        <v>466</v>
       </c>
       <c r="E53" s="27"/>
     </row>
@@ -6923,7 +6909,7 @@
         <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>170</v>
@@ -6935,10 +6921,10 @@
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>434</v>
+        <v>458</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6950,7 +6936,7 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6958,11 +6944,11 @@
       <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6970,11 +6956,11 @@
       <c r="B58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="65" t="s">
-        <v>501</v>
+      <c r="D58" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -6982,11 +6968,11 @@
       <c r="B59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6994,11 +6980,11 @@
       <c r="B60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -7007,13 +6993,13 @@
         <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -7024,8 +7010,8 @@
       <c r="C62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="158" t="s">
-        <v>502</v>
+      <c r="D62" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7036,7 +7022,7 @@
       <c r="C63" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="69" t="s">
+      <c r="D63" s="68" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7046,34 +7032,34 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D65" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="53"/>
-      <c r="C66" s="79" t="s">
+      <c r="B66" s="52"/>
+      <c r="C66" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="121" t="s">
-        <v>466</v>
+      <c r="D66" s="119" t="s">
+        <v>463</v>
       </c>
       <c r="E66" s="27"/>
     </row>
@@ -7083,7 +7069,7 @@
         <v>90</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>170</v>
@@ -7095,13 +7081,13 @@
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="7" t="s">
         <v>42</v>
@@ -7110,10 +7096,10 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="7" t="s">
         <v>10</v>
@@ -7122,7 +7108,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -7133,11 +7119,11 @@
       <c r="C71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="65" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D71" s="64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="7" t="s">
         <v>3</v>
@@ -7146,10 +7132,10 @@
         <v>164</v>
       </c>
       <c r="D72" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="7" t="s">
         <v>4</v>
@@ -7158,19 +7144,19 @@
         <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7181,10 +7167,10 @@
       <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="158" t="s">
-        <v>502</v>
-      </c>
-      <c r="E75" s="158"/>
+      <c r="D75" s="153" t="s">
+        <v>496</v>
+      </c>
+      <c r="E75" s="153"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
@@ -7194,7 +7180,7 @@
       <c r="C76" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="68" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7204,10 +7190,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D77" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7216,23 +7202,23 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="69"/>
+      <c r="E79" s="68"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" s="69"/>
+      <c r="E81" s="68"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" s="69"/>
+      <c r="E82" s="68"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" s="69"/>
+      <c r="E83" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7256,16 +7242,16 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
@@ -7280,38 +7266,38 @@
       <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>149</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="69" t="s">
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" s="110" t="s">
-        <v>505</v>
+        <v>448</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7329,7 +7315,7 @@
         <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7341,10 +7327,10 @@
         <v>267</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7359,10 +7345,10 @@
         <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7380,7 +7366,7 @@
         <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7398,87 +7384,87 @@
         <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="154" t="s">
         <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="E11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="152" t="s">
-        <v>367</v>
-      </c>
-      <c r="F13" s="60"/>
+      <c r="E13" s="149" t="s">
+        <v>448</v>
+      </c>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7472,10 @@
         <v>267</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7500,8 +7489,11 @@
       <c r="D15" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7515,8 +7507,11 @@
       <c r="D16" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7530,76 +7525,91 @@
       <c r="D17" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
       <c r="F17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="95" t="s">
         <v>175</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="E21" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="78" t="s">
+      <c r="B22" s="78"/>
+      <c r="C22" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="151" t="s">
-        <v>508</v>
-      </c>
-      <c r="F22" s="60"/>
+      <c r="E22" s="149" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
@@ -7607,7 +7617,10 @@
         <v>267</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="E23" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7621,8 +7634,11 @@
       <c r="D24" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7636,8 +7652,11 @@
       <c r="D25" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7651,75 +7670,90 @@
       <c r="D26" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
       <c r="F26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D28" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="155" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="95" t="s">
         <v>175</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="E30" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="78" t="s">
+      <c r="B31" s="52"/>
+      <c r="C31" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="151" t="s">
-        <v>508</v>
-      </c>
-      <c r="F31" s="60"/>
+      <c r="E31" s="149" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="59"/>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="7" t="s">
         <v>10</v>
       </c>
@@ -7727,7 +7761,10 @@
         <v>267</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="E32" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7741,8 +7778,11 @@
       <c r="D33" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7756,8 +7796,11 @@
       <c r="D34" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7771,8 +7814,11 @@
       <c r="D35" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
       <c r="F35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7781,10 +7827,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7793,10 +7842,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D37" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="156" t="s">
         <v>178</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7804,11 +7856,14 @@
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="95" t="s">
         <v>175</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7820,7 +7875,10 @@
         <v>152</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="E39" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -7828,7 +7886,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="10" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -7867,28 +7925,28 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="107" t="s">
-        <v>418</v>
+      <c r="A3" s="160"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="105" t="s">
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>392</v>
+        <v>486</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7908,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -7918,7 +7976,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -7928,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -7938,7 +7996,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -7950,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -7960,7 +8018,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -7970,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -7980,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -7989,27 +8047,27 @@
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="108"/>
+      <c r="C13" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="106"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="160" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="153"/>
+      <c r="A15" s="160"/>
       <c r="C15" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>488</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>458</v>
+        <v>391</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8020,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8029,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8038,25 +8096,25 @@
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="104" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8067,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8075,7 +8133,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8083,7 +8141,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8091,7 +8149,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8099,7 +8157,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8110,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8118,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8126,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8134,7 +8192,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8142,27 +8200,27 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="153" t="s">
+      <c r="A31" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="153"/>
+      <c r="A32" s="160"/>
       <c r="C32" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -8432,18 +8490,18 @@
       <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="153" t="s">
+      <c r="A69" s="160" t="s">
         <v>38</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="153"/>
+      <c r="A70" s="160"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -8520,10 +8578,10 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -8796,11 +8854,11 @@
         <v>46</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="136" t="s">
-        <v>476</v>
+      <c r="D118" s="134" t="s">
+        <v>473</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -8879,20 +8937,20 @@
       <c r="B129" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="61"/>
-      <c r="D129" s="95"/>
-      <c r="E129" s="95"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="93"/>
+      <c r="E129" s="93"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="153" t="s">
+      <c r="A130" s="160" t="s">
         <v>69</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="153"/>
+      <c r="A131" s="160"/>
       <c r="C131" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D131" t="s">
         <v>141</v>
@@ -8906,7 +8964,7 @@
         <v>42</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -8915,7 +8973,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -8924,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -8933,7 +8991,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -8942,7 +9000,7 @@
         <v>31</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -8951,7 +9009,7 @@
         <v>6</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -8960,7 +9018,7 @@
         <v>8</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -8977,7 +9035,7 @@
         <v>42</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -8986,7 +9044,7 @@
         <v>10</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -8995,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -9004,7 +9062,7 @@
         <v>4</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -9013,7 +9071,7 @@
         <v>31</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -9022,7 +9080,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -9031,7 +9089,7 @@
         <v>8</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -9048,7 +9106,7 @@
         <v>42</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -9057,7 +9115,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -9066,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -9075,7 +9133,7 @@
         <v>4</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -9084,7 +9142,7 @@
         <v>31</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -9093,7 +9151,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -9102,7 +9160,7 @@
         <v>8</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -9110,7 +9168,7 @@
         <v>62</v>
       </c>
       <c r="D155" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -9119,7 +9177,7 @@
         <v>42</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -9128,7 +9186,7 @@
         <v>10</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -9137,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -9146,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -9155,7 +9213,7 @@
         <v>31</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -9164,7 +9222,7 @@
         <v>47</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -9173,7 +9231,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -9181,25 +9239,25 @@
       <c r="B163" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D163" s="95"/>
-      <c r="E163" s="95"/>
+      <c r="C163" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D163" s="93"/>
+      <c r="E163" s="93"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="153" t="s">
+      <c r="A164" s="160" t="s">
         <v>70</v>
       </c>
       <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="153"/>
+      <c r="A165" s="160"/>
       <c r="C165" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D165" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -9210,7 +9268,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -9219,7 +9277,7 @@
         <v>8</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -9230,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -9239,7 +9297,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -9250,7 +9308,7 @@
         <v>66</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -9259,7 +9317,7 @@
         <v>67</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -9268,7 +9326,7 @@
         <v>31</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -9278,8 +9336,8 @@
       <c r="B173" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="93" t="s">
-        <v>367</v>
+      <c r="C173" s="91" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -9288,7 +9346,7 @@
         <v>8</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -9297,7 +9355,7 @@
         <v>31</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -9308,7 +9366,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -9317,7 +9375,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -9328,7 +9386,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -9337,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -9346,7 +9404,7 @@
         <v>31</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9357,7 +9415,7 @@
         <v>137</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9368,7 +9426,7 @@
         <v>137</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -9379,7 +9437,7 @@
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -9388,7 +9446,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -9396,30 +9454,30 @@
       <c r="B185" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D185" s="95"/>
-      <c r="E185" s="95"/>
+      <c r="C185" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D185" s="93"/>
+      <c r="E185" s="93"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="153" t="s">
+      <c r="A186" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="B186" s="153"/>
+      <c r="B186" s="160"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="153"/>
-      <c r="B187" s="153"/>
-      <c r="C187" s="81" t="s">
-        <v>418</v>
+      <c r="A187" s="160"/>
+      <c r="B187" s="160"/>
+      <c r="C187" s="79" t="s">
+        <v>416</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9430,7 +9488,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -9439,7 +9497,7 @@
         <v>3</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -9448,7 +9506,7 @@
         <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -9457,7 +9515,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -9466,7 +9524,7 @@
         <v>8</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -9474,27 +9532,27 @@
       <c r="B193" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C193" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D193" s="95"/>
-      <c r="E193" s="95"/>
+      <c r="C193" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D193" s="93"/>
+      <c r="E193" s="93"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="153" t="s">
+      <c r="A194" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="153"/>
+      <c r="B194" s="160"/>
       <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="153"/>
-      <c r="B195" s="153"/>
+      <c r="A195" s="160"/>
+      <c r="B195" s="160"/>
       <c r="C195" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -9505,7 +9563,7 @@
         <v>10</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -9514,7 +9572,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -9522,27 +9580,27 @@
       <c r="B198" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D198" s="95"/>
-      <c r="E198" s="95"/>
+      <c r="C198" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D198" s="93"/>
+      <c r="E198" s="93"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="153" t="s">
+      <c r="A199" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="B199" s="153"/>
+      <c r="B199" s="160"/>
       <c r="C199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="153"/>
-      <c r="B200" s="153"/>
+      <c r="A200" s="160"/>
+      <c r="B200" s="160"/>
       <c r="C200" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -9553,7 +9611,7 @@
         <v>10</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -9562,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -9571,7 +9629,7 @@
         <v>4</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -9580,7 +9638,7 @@
         <v>6</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -9589,7 +9647,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -9600,7 +9658,7 @@
         <v>10</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -9609,7 +9667,7 @@
         <v>3</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -9618,7 +9676,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -9627,7 +9685,7 @@
         <v>6</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -9635,11 +9693,11 @@
       <c r="B210" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="D210" s="95"/>
-      <c r="E210" s="95"/>
+      <c r="C210" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D210" s="93"/>
+      <c r="E210" s="93"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
@@ -9695,31 +9753,31 @@
       <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>370</v>
+      <c r="D1" s="61" t="s">
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>420</v>
+      <c r="C3" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>418</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9729,53 +9787,53 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>367</v>
+      <c r="C4" s="51" t="s">
+        <v>365</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>422</v>
+      <c r="C5" s="51" t="s">
+        <v>420</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>422</v>
+      <c r="C6" s="51" t="s">
+        <v>420</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>422</v>
+      <c r="C7" s="51" t="s">
+        <v>420</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9783,10 +9841,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9794,10 +9852,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -9845,21 +9903,21 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
@@ -9868,14 +9926,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="124" t="s">
-        <v>451</v>
+      <c r="D4" s="122" t="s">
+        <v>448</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9884,22 +9942,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="81" t="s">
-        <v>367</v>
+      <c r="C6" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -9907,14 +9965,14 @@
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="81" t="s">
-        <v>416</v>
+      <c r="C7" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9923,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
         <v>164</v>
@@ -9946,11 +10004,11 @@
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>176</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E10" s="39"/>
     </row>
@@ -9958,11 +10016,11 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -9970,11 +10028,11 @@
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -9982,24 +10040,24 @@
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="126" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="125"/>
+      <c r="C13" s="124" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="81" t="s">
-        <v>367</v>
+      <c r="C14" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10007,11 +10065,11 @@
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>367</v>
+      <c r="C15" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10020,7 +10078,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
         <v>164</v>
@@ -10032,7 +10090,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D17" t="s">
         <v>164</v>
@@ -10047,7 +10105,7 @@
         <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10059,18 +10117,18 @@
         <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10078,11 +10136,11 @@
       <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10090,13 +10148,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="E22" s="125"/>
+      <c r="D22" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="123"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -10104,10 +10162,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10115,11 +10173,11 @@
       <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>367</v>
+      <c r="C24" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10128,7 +10186,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
         <v>164</v>
@@ -10140,7 +10198,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D26" t="s">
         <v>164</v>
@@ -10162,11 +10220,11 @@
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10174,11 +10232,11 @@
       <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E29" s="39"/>
     </row>
@@ -10187,11 +10245,11 @@
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10199,13 +10257,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="111" t="s">
-        <v>451</v>
-      </c>
-      <c r="E31" s="125"/>
+      <c r="D31" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="E31" s="123"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -10213,10 +10271,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10224,11 +10282,11 @@
       <c r="B33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="81" t="s">
-        <v>367</v>
+      <c r="C33" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -10237,7 +10295,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D34" t="s">
         <v>164</v>
@@ -10249,7 +10307,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D35" t="s">
         <v>164</v>
@@ -10270,13 +10328,13 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C37" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>178</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E37" s="27"/>
     </row>
@@ -10285,22 +10343,22 @@
       <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="C38" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="C39" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -10349,20 +10407,20 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
+      <c r="A3" s="160"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10383,10 +10441,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10395,10 +10453,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10407,10 +10465,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -10418,14 +10476,14 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>416</v>
+      <c r="C8" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10433,11 +10491,11 @@
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>416</v>
+      <c r="C9" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10445,11 +10503,11 @@
       <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>416</v>
+      <c r="C10" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10461,7 +10519,7 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10470,10 +10528,10 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -10482,10 +10540,10 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10494,10 +10552,10 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10505,13 +10563,13 @@
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="99" t="s">
-        <v>472</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>395</v>
-      </c>
-      <c r="E15" s="60"/>
+      <c r="C15" s="97" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -10519,10 +10577,10 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10531,10 +10589,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10542,11 +10600,11 @@
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="81" t="s">
-        <v>416</v>
+      <c r="C18" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10554,11 +10612,11 @@
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>416</v>
+      <c r="C19" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10566,11 +10624,11 @@
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>416</v>
+      <c r="C20" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10582,7 +10640,7 @@
         <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10594,7 +10652,7 @@
         <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10602,13 +10660,13 @@
         <v>55</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -10616,10 +10674,10 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10628,10 +10686,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10640,10 +10698,10 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -10652,10 +10710,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10663,11 +10721,11 @@
       <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="81" t="s">
-        <v>416</v>
+      <c r="C28" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10675,11 +10733,11 @@
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>416</v>
+      <c r="C29" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10687,11 +10745,11 @@
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="81" t="s">
-        <v>416</v>
+      <c r="C30" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10703,7 +10761,7 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10712,10 +10770,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10724,10 +10782,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10736,10 +10794,10 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10747,13 +10805,13 @@
         <v>57</v>
       </c>
       <c r="B35" s="17"/>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="E35" s="60"/>
+      <c r="D35" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="59"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -10761,10 +10819,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -10773,10 +10831,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -10788,7 +10846,7 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10800,7 +10858,7 @@
         <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -10808,11 +10866,11 @@
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="81" t="s">
-        <v>416</v>
+      <c r="C40" s="79" t="s">
+        <v>414</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10824,7 +10882,7 @@
         <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -10836,7 +10894,7 @@
         <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -10862,16 +10920,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="A1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10885,22 +10943,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10911,7 +10969,7 @@
       <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -10921,10 +10979,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10933,13 +10991,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10948,13 +11006,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10963,10 +11021,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10975,10 +11033,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10986,13 +11044,13 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>352</v>
+      <c r="C10" s="60" t="s">
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" s="95"/>
+        <v>425</v>
+      </c>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11000,10 +11058,10 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>369</v>
+        <v>419</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11012,10 +11070,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11024,13 +11082,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11039,65 +11097,65 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="95"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" s="93"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>42</v>
@@ -11105,41 +11163,50 @@
       <c r="C19" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="161" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+      <c r="D22" t="s">
+        <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11148,13 +11215,16 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7" t="s">
         <v>6</v>
@@ -11162,19 +11232,24 @@
       <c r="C24" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D25" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="93"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -11182,41 +11257,50 @@
       <c r="C26" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="102" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D26" s="158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
+      </c>
+      <c r="D28" t="s">
+        <v>404</v>
       </c>
       <c r="E28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
+      </c>
+      <c r="D29" t="s">
+        <v>365</v>
       </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11225,31 +11309,40 @@
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
+      </c>
+      <c r="D30" t="s">
+        <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>351</v>
+        <v>267</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
       </c>
       <c r="E31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -11257,25 +11350,27 @@
       <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
+      <c r="D33" s="93" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="93"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>367</v>
+      <c r="C34" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="159" t="s">
+        <v>143</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11286,14 +11381,23 @@
       <c r="C35" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>496</v>
+      <c r="C36" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11304,6 +11408,9 @@
       <c r="C37" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="D37" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -11313,6 +11420,9 @@
       <c r="C38" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="D38" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -11320,7 +11430,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="D39" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11329,7 +11442,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
+      </c>
+      <c r="D40" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11337,22 +11453,24 @@
       <c r="B41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
+      <c r="C41" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D42" s="116" t="s">
-        <v>413</v>
+      <c r="C42" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="114" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11364,7 +11482,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -11372,14 +11490,14 @@
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="72" t="s">
-        <v>367</v>
+      <c r="C44" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>375</v>
+        <v>437</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11387,14 +11505,14 @@
       <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="66" t="s">
         <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E45" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11402,14 +11520,14 @@
       <c r="B46" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="66" t="s">
         <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11417,14 +11535,14 @@
       <c r="B47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="66" t="s">
         <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11436,7 +11554,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11448,7 +11566,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11460,7 +11578,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11468,14 +11586,14 @@
       <c r="B51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="66" t="s">
         <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E51" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -11483,7 +11601,7 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -11499,7 +11617,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -11523,22 +11641,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11549,7 +11667,7 @@
       <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -11559,10 +11677,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11574,7 +11692,7 @@
         <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11586,7 +11704,7 @@
         <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11598,7 +11716,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11610,7 +11728,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11618,13 +11736,13 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="95" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" s="95"/>
+      <c r="D10" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11632,10 +11750,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11644,10 +11762,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11659,7 +11777,7 @@
         <v>154</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11671,7 +11789,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11682,8 +11800,8 @@
       <c r="C15" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="157" t="s">
-        <v>367</v>
+      <c r="D15" s="152" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11695,7 +11813,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11703,27 +11821,27 @@
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="E17" s="95"/>
+      <c r="D17" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="127" t="s">
         <v>141</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11744,10 +11862,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11759,7 +11877,7 @@
         <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11771,7 +11889,7 @@
         <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -11783,7 +11901,7 @@
         <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11795,7 +11913,7 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -11803,27 +11921,27 @@
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="95" t="s">
-        <v>498</v>
-      </c>
-      <c r="E25" s="95"/>
+      <c r="D25" s="93" t="s">
+        <v>493</v>
+      </c>
+      <c r="E25" s="93"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="130" t="s">
-        <v>403</v>
+      <c r="D26" s="128" t="s">
+        <v>401</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11844,10 +11962,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11859,7 +11977,7 @@
         <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11871,7 +11989,7 @@
         <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11879,13 +11997,13 @@
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="91" t="s">
         <v>154</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E31" s="118" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="116" t="s">
         <v>186</v>
       </c>
     </row>
@@ -11898,7 +12016,7 @@
         <v>162</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -11906,27 +12024,27 @@
       <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="95" t="s">
-        <v>497</v>
-      </c>
-      <c r="E33" s="95"/>
+      <c r="D33" s="93" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" s="93"/>
     </row>
     <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="19"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11947,10 +12065,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11962,7 +12080,7 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11974,7 +12092,7 @@
         <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -11986,7 +12104,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11994,13 +12112,13 @@
       <c r="B40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="91" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E40" s="114" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="112" t="s">
         <v>187</v>
       </c>
     </row>
@@ -12009,27 +12127,27 @@
       <c r="B41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="155" t="s">
-        <v>400</v>
-      </c>
-      <c r="E41" s="95"/>
+      <c r="D41" s="151" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="19"/>
-      <c r="C42" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C42" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
         <v>42</v>
@@ -12038,19 +12156,19 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>3</v>
@@ -12059,7 +12177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7" t="s">
         <v>4</v>
@@ -12068,7 +12186,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
         <v>31</v>
@@ -12077,7 +12195,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
         <v>47</v>
@@ -12086,7 +12204,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>7</v>
@@ -12095,7 +12213,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="s">
         <v>6</v>
@@ -12104,16 +12222,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12158,24 +12276,24 @@
       <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>368</v>
+      <c r="D1" s="61" t="s">
+        <v>366</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -12183,15 +12301,15 @@
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="119" t="s">
-        <v>465</v>
+      <c r="D4" s="117" t="s">
+        <v>462</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,10 +12318,10 @@
         <v>89</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="158" t="s">
-        <v>502</v>
+        <v>359</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12212,7 +12330,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>170</v>
@@ -12224,10 +12342,10 @@
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>434</v>
+        <v>458</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12236,10 +12354,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>367</v>
+        <v>365</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12250,8 +12368,8 @@
       <c r="C9" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>501</v>
+      <c r="D9" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12262,8 +12380,8 @@
       <c r="C10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="102" t="s">
-        <v>367</v>
+      <c r="D10" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12274,8 +12392,8 @@
       <c r="C11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="102" t="s">
-        <v>367</v>
+      <c r="D11" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12286,8 +12404,8 @@
       <c r="C12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="158" t="s">
-        <v>502</v>
+      <c r="D12" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12298,7 +12416,7 @@
       <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="153" t="s">
         <v>169</v>
       </c>
     </row>
@@ -12308,34 +12426,34 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="104" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="119" t="s">
-        <v>465</v>
+      <c r="D16" s="117" t="s">
+        <v>462</v>
       </c>
       <c r="E16" s="40"/>
     </row>
@@ -12359,8 +12477,8 @@
       <c r="C18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>434</v>
+      <c r="D18" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12371,8 +12489,8 @@
       <c r="C19" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="65" t="s">
-        <v>501</v>
+      <c r="D19" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -12383,8 +12501,8 @@
       <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>367</v>
+      <c r="D20" s="153" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -12395,8 +12513,8 @@
       <c r="C21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="158" t="s">
-        <v>367</v>
+      <c r="D21" s="153" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -12407,8 +12525,8 @@
       <c r="C22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="158" t="s">
-        <v>502</v>
+      <c r="D22" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -12419,7 +12537,7 @@
       <c r="C23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="153" t="s">
         <v>169</v>
       </c>
     </row>
@@ -12432,31 +12550,31 @@
         <v>172</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>172</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="79" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="120" t="s">
-        <v>450</v>
+      <c r="D26" s="118" t="s">
+        <v>447</v>
       </c>
       <c r="E26" s="27"/>
     </row>
@@ -12466,7 +12584,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>170</v>
@@ -12477,14 +12595,14 @@
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="157" t="s">
-        <v>367</v>
+      <c r="D28" s="152" t="s">
+        <v>365</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12492,11 +12610,11 @@
       <c r="B29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="93" t="s">
-        <v>461</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>434</v>
+      <c r="C29" s="91" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -12505,10 +12623,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12516,11 +12634,11 @@
       <c r="B31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>434</v>
+      <c r="D31" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -12531,11 +12649,11 @@
       <c r="C32" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="102" t="s">
-        <v>367</v>
+      <c r="D32" s="100" t="s">
+        <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12546,11 +12664,11 @@
       <c r="C33" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="102" t="s">
-        <v>367</v>
+      <c r="D33" s="100" t="s">
+        <v>365</v>
       </c>
       <c r="E33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -12571,10 +12689,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -12583,10 +12701,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="102" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -12595,36 +12713,36 @@
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="56" t="s">
         <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="59" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="60"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -12632,10 +12750,10 @@
         <v>90</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -12644,10 +12762,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -12656,10 +12774,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12668,10 +12786,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -12680,10 +12798,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12692,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -12704,10 +12822,10 @@
         <v>26</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12716,10 +12834,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -12728,10 +12846,10 @@
         <v>94</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -12740,10 +12858,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12752,24 +12870,24 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="98" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="98" t="s">
-        <v>369</v>
-      </c>
-      <c r="E51" s="60"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="D51" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -12777,10 +12895,10 @@
         <v>90</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -12789,10 +12907,10 @@
         <v>91</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -12801,10 +12919,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -12813,10 +12931,10 @@
         <v>92</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -12825,10 +12943,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -12837,10 +12955,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -12849,10 +12967,10 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D58" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -12861,10 +12979,10 @@
         <v>93</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -12873,10 +12991,10 @@
         <v>94</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12885,36 +13003,36 @@
         <v>6</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="52" t="s">
-        <v>355</v>
+      <c r="C62" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="D62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="59" t="s">
+      <c r="B63" s="53"/>
+      <c r="C63" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="E63" s="60"/>
+      <c r="D63" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -12922,10 +13040,10 @@
         <v>89</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -12934,9 +13052,9 @@
         <v>90</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D65" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" s="100" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12945,11 +13063,11 @@
       <c r="B66" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="D66" s="112" t="s">
-        <v>434</v>
+      <c r="C66" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="110" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -12957,11 +13075,11 @@
       <c r="B67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="56" t="s">
-        <v>351</v>
+      <c r="C67" s="55" t="s">
+        <v>349</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -12970,10 +13088,10 @@
         <v>92</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12981,14 +13099,14 @@
       <c r="B69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="56" t="s">
-        <v>351</v>
+      <c r="C69" s="55" t="s">
+        <v>349</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -12997,13 +13115,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -13012,10 +13130,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -13036,36 +13154,36 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" s="60"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="59"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
@@ -13073,10 +13191,10 @@
         <v>90</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -13085,10 +13203,10 @@
         <v>91</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -13097,10 +13215,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -13109,10 +13227,10 @@
         <v>92</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -13121,10 +13239,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -13133,10 +13251,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -13145,10 +13263,10 @@
         <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -13157,10 +13275,10 @@
         <v>93</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -13169,10 +13287,10 @@
         <v>94</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13181,34 +13299,34 @@
         <v>6</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="52" t="s">
-        <v>355</v>
+      <c r="C86" s="51" t="s">
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+      <c r="A87" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="54"/>
-      <c r="C87" s="104" t="s">
+      <c r="B87" s="53"/>
+      <c r="C87" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="150" t="s">
-        <v>481</v>
+      <c r="D87" s="148" t="s">
+        <v>478</v>
       </c>
       <c r="E87" s="40"/>
     </row>
@@ -13218,10 +13336,10 @@
         <v>89</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="158" t="s">
-        <v>502</v>
+        <v>359</v>
+      </c>
+      <c r="D88" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13230,7 +13348,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>170</v>
@@ -13242,10 +13360,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D90" s="65" t="s">
-        <v>434</v>
+        <v>458</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -13257,7 +13375,7 @@
         <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -13268,8 +13386,8 @@
       <c r="C92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="69" t="s">
-        <v>367</v>
+      <c r="D92" s="68" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13280,8 +13398,8 @@
       <c r="C93" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D93" s="65" t="s">
-        <v>501</v>
+      <c r="D93" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -13292,8 +13410,8 @@
       <c r="C94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="69" t="s">
-        <v>367</v>
+      <c r="D94" s="68" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -13304,8 +13422,8 @@
       <c r="C95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="69" t="s">
-        <v>367</v>
+      <c r="D95" s="68" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -13314,13 +13432,13 @@
         <v>31</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D96" s="69" t="s">
-        <v>367</v>
+        <v>385</v>
+      </c>
+      <c r="D96" s="68" t="s">
+        <v>365</v>
       </c>
       <c r="E96" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13331,8 +13449,8 @@
       <c r="C97" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="158" t="s">
-        <v>502</v>
+      <c r="D97" s="153" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13343,7 +13461,7 @@
       <c r="C98" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="69" t="s">
+      <c r="D98" s="68" t="s">
         <v>169</v>
       </c>
     </row>
@@ -13352,13 +13470,13 @@
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="D99" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="E99" s="95"/>
+      <c r="C99" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="E99" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13405,36 +13523,36 @@
       <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>370</v>
+      <c r="D1" s="61" t="s">
+        <v>368</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="149" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>413</v>
+      <c r="B4" s="53"/>
+      <c r="C4" s="147" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>411</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -13443,9 +13561,9 @@
       <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94" t="s">
-        <v>483</v>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92" t="s">
+        <v>480</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -13456,7 +13574,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13466,7 +13584,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13515,8 +13633,8 @@
         <v>6</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="102" t="s">
-        <v>429</v>
+      <c r="D12" s="100" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13525,22 +13643,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="102" t="s">
-        <v>429</v>
+      <c r="D13" s="100" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="D14" s="148" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="125"/>
+      <c r="E14" s="123"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -13548,8 +13666,8 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="132" t="s">
-        <v>367</v>
+      <c r="D15" s="130" t="s">
+        <v>365</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -13569,8 +13687,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="103" t="s">
-        <v>406</v>
+      <c r="D17" s="101" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13579,8 +13697,8 @@
         <v>3</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="132" t="s">
-        <v>367</v>
+      <c r="D18" s="130" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13589,8 +13707,8 @@
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="102" t="s">
-        <v>367</v>
+      <c r="D19" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13599,8 +13717,8 @@
         <v>31</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="102" t="s">
-        <v>367</v>
+      <c r="D20" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13609,8 +13727,8 @@
         <v>6</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="102" t="s">
-        <v>401</v>
+      <c r="D21" s="100" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13619,22 +13737,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="102" t="s">
-        <v>401</v>
+      <c r="D22" s="100" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="D23" s="64" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="125"/>
+      <c r="E23" s="123"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -13642,8 +13760,8 @@
         <v>29</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="91" t="s">
-        <v>483</v>
+      <c r="D24" s="89" t="s">
+        <v>480</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -13664,7 +13782,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13674,7 +13792,7 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13684,7 +13802,7 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13694,7 +13812,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13704,7 +13822,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13714,21 +13832,21 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="131" t="s">
-        <v>391</v>
-      </c>
-      <c r="D32" s="64" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="125"/>
+      <c r="E32" s="123"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -13736,8 +13854,8 @@
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="91" t="s">
-        <v>483</v>
+      <c r="D33" s="89" t="s">
+        <v>480</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -13758,7 +13876,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13768,7 +13886,7 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13778,7 +13896,7 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -13788,7 +13906,7 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -13798,7 +13916,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -13808,7 +13926,7 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -13855,23 +13973,23 @@
       <c r="C1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>368</v>
+      <c r="D1" s="61" t="s">
+        <v>366</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="153"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13882,7 +14000,7 @@
       <c r="C4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13891,11 +14009,11 @@
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="67" t="s">
-        <v>424</v>
+      <c r="C5" s="66" t="s">
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13904,13 +14022,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13919,13 +14037,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13934,10 +14052,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13946,10 +14064,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13958,10 +14076,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13969,13 +14087,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="60"/>
+      <c r="C11" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -13983,13 +14101,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13998,13 +14116,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14013,13 +14131,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14028,10 +14146,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14040,10 +14158,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14052,10 +14170,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14063,24 +14181,24 @@
         <v>108</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>367</v>
+      <c r="D19" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14100,11 +14218,11 @@
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>406</v>
+      <c r="C21" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14112,11 +14230,11 @@
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="139" t="s">
+      <c r="C22" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="132" t="s">
-        <v>367</v>
+      <c r="D22" s="130" t="s">
+        <v>365</v>
       </c>
       <c r="E22" s="27"/>
     </row>
@@ -14125,11 +14243,11 @@
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="102" t="s">
-        <v>367</v>
+      <c r="D23" s="100" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14137,11 +14255,11 @@
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="139" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>367</v>
+      <c r="C24" s="137" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>365</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -14153,8 +14271,8 @@
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="102" t="s">
-        <v>401</v>
+      <c r="D25" s="100" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14165,8 +14283,8 @@
       <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="102" t="s">
-        <v>401</v>
+      <c r="D26" s="100" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14174,13 +14292,13 @@
         <v>109</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -14199,11 +14317,11 @@
       <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>406</v>
+      <c r="C29" s="66" t="s">
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14211,11 +14329,11 @@
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="81" t="s">
-        <v>367</v>
+      <c r="C30" s="79" t="s">
+        <v>365</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -14223,14 +14341,14 @@
       <c r="B31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="79" t="s">
         <v>267</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14242,7 +14360,7 @@
         <v>267</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -14254,7 +14372,7 @@
         <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14266,7 +14384,7 @@
         <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14278,7 +14396,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -14287,10 +14405,10 @@
         <v>110</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -14302,7 +14420,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -14310,13 +14428,13 @@
         <v>111</v>
       </c>
       <c r="B38" s="19"/>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -14327,7 +14445,7 @@
         <v>164</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -14348,10 +14466,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14363,7 +14481,7 @@
         <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14375,7 +14493,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -14384,10 +14502,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14396,10 +14514,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14408,10 +14526,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -14419,13 +14537,13 @@
         <v>112</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="105" t="s">
-        <v>378</v>
-      </c>
-      <c r="D47" s="115" t="s">
-        <v>413</v>
-      </c>
-      <c r="E47" s="60"/>
+      <c r="C47" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="D47" s="113" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -14433,7 +14551,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -14442,10 +14560,10 @@
         <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14454,7 +14572,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -14463,7 +14581,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -14472,10 +14590,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D52" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14484,7 +14602,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -14493,7 +14611,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -14502,10 +14620,10 @@
         <v>31</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>388</v>
+        <v>365</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -14514,10 +14632,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -14526,7 +14644,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">

--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -20,12 +20,12 @@
     <sheet name="Symptom" sheetId="14" r:id="rId11"/>
     <sheet name="Others" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="507">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -1231,9 +1231,6 @@
     <t>MedicationDispensation</t>
   </si>
   <si>
-    <t>LaboratoryTestProcedure</t>
-  </si>
-  <si>
     <t>TBD/No equivalent in VMR</t>
   </si>
   <si>
@@ -1249,9 +1246,6 @@
     <t>NoAdverseEvent</t>
   </si>
   <si>
-    <t>whenObserved</t>
-  </si>
-  <si>
     <t>NoAllergyIntolerance</t>
   </si>
   <si>
@@ -1289,9 +1283,6 @@
   </si>
   <si>
     <t>(*) comment</t>
-  </si>
-  <si>
-    <t>QIDAM interface is placeholder and needs concrete class defined</t>
   </si>
   <si>
     <t>DeniedAdverseEvent</t>
@@ -1417,9 +1408,6 @@
     <t>deliveryRate  + frequency</t>
   </si>
   <si>
-    <t>(*) vMR: ProcedureProposal has comment field. Suggest to move to ProcedureBase class or add to ProcedureEvent class</t>
-  </si>
-  <si>
     <t>(*) vMR: Move "comment" from SubstanceAdministrationProposal to SubstanceAdministrationBase class and/or copy</t>
   </si>
   <si>
@@ -1481,9 +1469,6 @@
   </si>
   <si>
     <t>targetBodySite</t>
-  </si>
-  <si>
-    <t>AllergyIntolerane</t>
   </si>
   <si>
     <t>Will be one of its concrete subtypes in QIDAM</t>
@@ -1545,9 +1530,6 @@
     <t>performanceTime</t>
   </si>
   <si>
-    <t>orderedAtTime?</t>
-  </si>
-  <si>
     <t>QIDAM: ProcedureProposal element with details of type LabatoryTestProcedure</t>
   </si>
   <si>
@@ -1579,13 +1561,37 @@
   </si>
   <si>
     <t>(1) VMR: comment field added in vMR (MAY-2013). (2) QIDAM: ProcedureOrder class does not extent Statement so commet property is not present</t>
+  </si>
+  <si>
+    <t>value + interpretation</t>
+  </si>
+  <si>
+    <t>value + interpretation + comment (if needed)</t>
+  </si>
+  <si>
+    <t>Note: observedAtTime is time point at which the observation was made. This may be different than the time at which the finding occurred and when the statement was created. This is the time at which history is elicited or an examination is conducted.</t>
+  </si>
+  <si>
+    <t>There isn't an explicit ObservationAbsence class for FamilyHistory in QIDAM</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>vMR: ProcedureProposal has comment field. Suggest to move to ProcedureBase class or add to ProcedureEvent class.</t>
+  </si>
+  <si>
+    <t>category + status + comment</t>
+  </si>
+  <si>
+    <t>comment + resultsIn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,6 +1696,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1838,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2033,9 +2045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2126,12 +2135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2213,11 +2216,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3646,8 +3673,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3656,8 +3683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10424160"/>
-          <a:ext cx="7703820" cy="2682240"/>
+          <a:off x="0" y="13586460"/>
+          <a:ext cx="5113020" cy="3482340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4839,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4863,10 +4890,10 @@
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G8" s="87"/>
     </row>
@@ -4879,7 +4906,7 @@
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4894,7 +4921,7 @@
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4919,11 +4946,11 @@
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="126" t="s">
-        <v>448</v>
+      <c r="F12" s="125" t="s">
+        <v>445</v>
       </c>
       <c r="G12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4935,7 +4962,7 @@
         <v>281</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>369</v>
@@ -4953,8 +4980,8 @@
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="126" t="s">
-        <v>448</v>
+      <c r="F14" s="125" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4968,8 +4995,8 @@
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="126" t="s">
-        <v>448</v>
+      <c r="F15" s="125" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4982,7 +5009,7 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
@@ -5013,7 +5040,7 @@
         <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>367</v>
@@ -5031,10 +5058,10 @@
         <v>365</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -5046,7 +5073,7 @@
         <v>290</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F20" s="68" t="s">
         <v>367</v>
@@ -5064,7 +5091,7 @@
         <v>365</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -5118,7 +5145,7 @@
         <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F25" t="s">
         <v>367</v>
@@ -5154,7 +5181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>207</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>208</v>
       </c>
@@ -5184,10 +5211,10 @@
         <v>376</v>
       </c>
       <c r="G29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>58</v>
       </c>
@@ -5195,7 +5222,7 @@
       <c r="C30" s="84"/>
       <c r="D30" s="31"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>209</v>
       </c>
@@ -5210,7 +5237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
         <v>210</v>
       </c>
@@ -5225,10 +5252,10 @@
         <v>393</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>211</v>
       </c>
@@ -5243,7 +5270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>212</v>
       </c>
@@ -5261,7 +5288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>69</v>
       </c>
@@ -5362,7 +5389,7 @@
         <v>365</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5428,7 +5455,7 @@
         <v>316</v>
       </c>
       <c r="E46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F46" t="s">
         <v>367</v>
@@ -5439,17 +5466,17 @@
         <v>223</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="138" t="s">
+      <c r="D47" s="135" t="s">
         <v>317</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="130" t="s">
+      <c r="F47" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="110" t="s">
-        <v>476</v>
+      <c r="G47" s="109" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5467,7 +5494,7 @@
         <v>142</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -5485,7 +5512,7 @@
         <v>143</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -5565,13 +5592,13 @@
       <c r="D55" s="34">
         <v>7.23</v>
       </c>
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="F55" s="139" t="s">
+      <c r="F55" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="157"/>
+      <c r="G55" s="154"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
@@ -5598,7 +5625,7 @@
       <c r="E57" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="F57" s="140" t="s">
+      <c r="F57" s="137" t="s">
         <v>376</v>
       </c>
       <c r="G57" s="40"/>
@@ -5619,14 +5646,14 @@
         <v>233</v>
       </c>
       <c r="C59" s="40"/>
-      <c r="D59" s="121" t="s">
+      <c r="D59" s="120" t="s">
         <v>286</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F59" s="120" t="s">
-        <v>462</v>
+      <c r="F59" s="119" t="s">
+        <v>458</v>
       </c>
       <c r="G59" s="40"/>
     </row>
@@ -5641,8 +5668,8 @@
       <c r="E60" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="133" t="s">
-        <v>462</v>
+      <c r="F60" s="130" t="s">
+        <v>458</v>
       </c>
       <c r="G60" s="40"/>
     </row>
@@ -5657,8 +5684,8 @@
       <c r="E61" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="120" t="s">
-        <v>447</v>
+      <c r="F61" s="119" t="s">
+        <v>444</v>
       </c>
       <c r="G61" s="40"/>
     </row>
@@ -5689,7 +5716,7 @@
         <v>288</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>367</v>
@@ -5735,14 +5762,14 @@
         <v>240</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="135" t="s">
+      <c r="D66" s="132" t="s">
         <v>287</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="139" t="s">
-        <v>478</v>
+      <c r="F66" s="136" t="s">
+        <v>474</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5756,7 +5783,7 @@
       <c r="E67" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="141"/>
+      <c r="F67" s="138"/>
       <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -5767,10 +5794,10 @@
       <c r="D68" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="142" t="s">
+      <c r="E68" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="F68" s="142" t="s">
+      <c r="F68" s="139" t="s">
         <v>376</v>
       </c>
       <c r="G68" s="40"/>
@@ -5783,10 +5810,10 @@
       <c r="D69" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="142" t="s">
+      <c r="E69" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="F69" s="142" t="s">
+      <c r="F69" s="139" t="s">
         <v>141</v>
       </c>
       <c r="G69" s="40"/>
@@ -5799,10 +5826,10 @@
       <c r="D70" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E70" s="142" t="s">
+      <c r="E70" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="142" t="s">
+      <c r="F70" s="139" t="s">
         <v>142</v>
       </c>
       <c r="G70" s="40"/>
@@ -5815,10 +5842,10 @@
       <c r="D71" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E71" s="142" t="s">
+      <c r="E71" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="142" t="s">
+      <c r="F71" s="139" t="s">
         <v>143</v>
       </c>
       <c r="G71" s="40"/>
@@ -5859,7 +5886,7 @@
         <v>310</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F74" s="68" t="s">
         <v>367</v>
@@ -5925,7 +5952,7 @@
       <c r="E78" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="F78" s="143" t="s">
+      <c r="F78" s="140" t="s">
         <v>376</v>
       </c>
       <c r="G78" s="42"/>
@@ -5942,7 +5969,7 @@
       <c r="E79" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="F79" s="139"/>
+      <c r="F79" s="136"/>
       <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -5956,7 +5983,7 @@
       <c r="E80" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="F80" s="142" t="s">
+      <c r="F80" s="139" t="s">
         <v>365</v>
       </c>
       <c r="G80" s="40"/>
@@ -5969,9 +5996,9 @@
       <c r="C81" s="84"/>
       <c r="D81" s="31"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="139"/>
-      <c r="G81" s="145" t="s">
-        <v>479</v>
+      <c r="F81" s="136"/>
+      <c r="G81" s="142" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -5979,14 +6006,14 @@
         <v>326</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="135">
+      <c r="D82" s="132">
         <v>7.26</v>
       </c>
       <c r="E82" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="120" t="s">
-        <v>447</v>
+      <c r="F82" s="119" t="s">
+        <v>444</v>
       </c>
       <c r="G82" s="40"/>
     </row>
@@ -6001,7 +6028,7 @@
       <c r="E83" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F83" s="139" t="s">
+      <c r="F83" s="136" t="s">
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
@@ -6017,7 +6044,7 @@
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F84" s="88" t="s">
         <v>367</v>
@@ -6033,7 +6060,7 @@
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F85" s="88" t="s">
         <v>367</v>
@@ -6045,16 +6072,16 @@
         <v>255</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="134" t="s">
+      <c r="D86" s="131" t="s">
         <v>327</v>
       </c>
-      <c r="E86" s="115" t="s">
+      <c r="E86" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="94" t="s">
-        <v>466</v>
-      </c>
-      <c r="G86" s="130" t="s">
+      <c r="F86" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="G86" s="127" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6069,8 +6096,8 @@
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="144" t="s">
-        <v>463</v>
+      <c r="F87" s="141" t="s">
+        <v>459</v>
       </c>
       <c r="G87" s="40"/>
     </row>
@@ -6084,7 +6111,7 @@
       <c r="E88" s="42"/>
       <c r="F88" s="28"/>
       <c r="G88" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -6098,11 +6125,11 @@
       <c r="E89" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="139" t="s">
-        <v>448</v>
+      <c r="F89" s="136" t="s">
+        <v>445</v>
       </c>
       <c r="G89" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -6116,8 +6143,8 @@
       <c r="E90" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F90" s="139" t="s">
-        <v>448</v>
+      <c r="F90" s="136" t="s">
+        <v>445</v>
       </c>
       <c r="G90" s="40"/>
     </row>
@@ -6132,8 +6159,8 @@
       <c r="E91" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F91" s="139" t="s">
-        <v>448</v>
+      <c r="F91" s="136" t="s">
+        <v>445</v>
       </c>
       <c r="G91" s="40"/>
     </row>
@@ -6148,8 +6175,8 @@
       <c r="E92" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="139" t="s">
-        <v>448</v>
+      <c r="F92" s="136" t="s">
+        <v>445</v>
       </c>
       <c r="G92" s="40"/>
     </row>
@@ -6250,8 +6277,8 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6281,15 +6308,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6300,8 +6327,8 @@
       <c r="C4" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="131" t="s">
-        <v>447</v>
+      <c r="D4" s="128" t="s">
+        <v>444</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -6325,7 +6352,7 @@
       <c r="C6" t="s">
         <v>348</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6337,7 +6364,7 @@
       <c r="C7" t="s">
         <v>348</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6347,10 +6374,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6362,7 +6389,7 @@
         <v>365</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6374,7 +6401,7 @@
         <v>170</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6386,13 +6413,13 @@
         <v>267</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>4</v>
@@ -6400,8 +6427,8 @@
       <c r="C12" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D12" t="s">
-        <v>365</v>
+      <c r="D12" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>363</v>
@@ -6415,8 +6442,8 @@
       <c r="C13" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="153" t="s">
-        <v>496</v>
+      <c r="D13" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6427,7 +6454,7 @@
       <c r="C14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="150" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6440,7 +6467,7 @@
         <v>347</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6452,7 +6479,7 @@
         <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6476,7 +6503,7 @@
       <c r="C18" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6488,7 +6515,7 @@
       <c r="C19" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6501,7 +6528,7 @@
         <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6512,11 +6539,11 @@
       <c r="C21" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="160" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>3</v>
@@ -6524,11 +6551,11 @@
       <c r="C22" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
@@ -6536,8 +6563,8 @@
       <c r="C23" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D23" t="s">
-        <v>365</v>
+      <c r="D23" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6549,7 +6576,7 @@
         <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6560,7 +6587,7 @@
       <c r="C25" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6572,7 +6599,7 @@
       <c r="C26" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6585,7 +6612,7 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6597,7 +6624,7 @@
         <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6606,7 +6633,7 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D29" s="63" t="s">
         <v>367</v>
@@ -6621,7 +6648,7 @@
       <c r="C30" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6633,7 +6660,7 @@
       <c r="C31" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6646,7 +6673,7 @@
         <v>349</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6657,11 +6684,11 @@
       <c r="C33" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D33" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D33" s="160" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>3</v>
@@ -6669,11 +6696,11 @@
       <c r="C34" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>4</v>
@@ -6681,8 +6708,8 @@
       <c r="C35" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D35" t="s">
-        <v>365</v>
+      <c r="D35" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6694,7 +6721,7 @@
         <v>351</v>
       </c>
       <c r="D36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6705,7 +6732,7 @@
       <c r="C37" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6717,7 +6744,7 @@
       <c r="C38" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6730,7 +6757,7 @@
         <v>352</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6742,7 +6769,7 @@
         <v>353</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6751,7 +6778,7 @@
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D41" s="63" t="s">
         <v>367</v>
@@ -6766,7 +6793,7 @@
       <c r="C42" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6778,7 +6805,7 @@
       <c r="C43" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6791,7 +6818,7 @@
         <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6802,7 +6829,7 @@
       <c r="C45" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6814,8 +6841,8 @@
       <c r="C46" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D46" t="s">
-        <v>365</v>
+      <c r="D46" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6826,8 +6853,8 @@
       <c r="C47" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D47" t="s">
-        <v>365</v>
+      <c r="D47" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6839,7 +6866,7 @@
         <v>351</v>
       </c>
       <c r="D48" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6850,7 +6877,7 @@
       <c r="C49" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6862,7 +6889,7 @@
       <c r="C50" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6875,7 +6902,7 @@
         <v>352</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6887,7 +6914,7 @@
         <v>353</v>
       </c>
       <c r="D52" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -6898,8 +6925,8 @@
       <c r="C53" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="132" t="s">
-        <v>466</v>
+      <c r="D53" s="129" t="s">
+        <v>462</v>
       </c>
       <c r="E53" s="27"/>
     </row>
@@ -6921,10 +6948,10 @@
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D55" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6936,7 +6963,7 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6947,7 +6974,7 @@
       <c r="C57" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6960,7 +6987,7 @@
         <v>170</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -6971,8 +6998,8 @@
       <c r="C59" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D59" t="s">
-        <v>365</v>
+      <c r="D59" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6983,8 +7010,8 @@
       <c r="C60" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D60" t="s">
-        <v>365</v>
+      <c r="D60" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -6995,11 +7022,11 @@
       <c r="C61" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D61" t="s">
-        <v>365</v>
+      <c r="D61" s="28" t="s">
+        <v>503</v>
       </c>
       <c r="E61" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -7010,8 +7037,8 @@
       <c r="C62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="153" t="s">
-        <v>496</v>
+      <c r="D62" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7035,7 +7062,7 @@
         <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7047,10 +7074,10 @@
         <v>347</v>
       </c>
       <c r="D65" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="s">
         <v>119</v>
       </c>
@@ -7058,12 +7085,12 @@
       <c r="C66" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="119" t="s">
-        <v>463</v>
+      <c r="D66" s="118" t="s">
+        <v>459</v>
       </c>
       <c r="E66" s="27"/>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
         <v>90</v>
@@ -7081,10 +7108,10 @@
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7096,7 +7123,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7107,7 +7134,7 @@
       <c r="C70" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7120,7 +7147,7 @@
         <v>170</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -7131,8 +7158,8 @@
       <c r="C72" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D72" t="s">
-        <v>365</v>
+      <c r="D72" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -7143,8 +7170,8 @@
       <c r="C73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D73" t="s">
-        <v>365</v>
+      <c r="D73" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -7156,7 +7183,7 @@
         <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7167,10 +7194,10 @@
       <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="153" t="s">
-        <v>496</v>
-      </c>
-      <c r="E75" s="153"/>
+      <c r="D75" s="150" t="s">
+        <v>490</v>
+      </c>
+      <c r="E75" s="150"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
@@ -7193,7 +7220,7 @@
         <v>346</v>
       </c>
       <c r="D77" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7205,7 +7232,7 @@
         <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -7242,7 +7269,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -7277,10 +7304,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -7294,10 +7321,10 @@
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="F3" s="108" t="s">
-        <v>499</v>
+        <v>445</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7315,7 +7342,7 @@
         <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7330,7 +7357,7 @@
         <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7410,11 +7437,11 @@
       <c r="C10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="151" t="s">
         <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7425,11 +7452,11 @@
       <c r="C11" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="93" t="s">
         <v>175</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7444,7 +7471,7 @@
         <v>381</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7458,8 +7485,8 @@
       <c r="D13" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="149" t="s">
-        <v>448</v>
+      <c r="E13" s="146" t="s">
+        <v>445</v>
       </c>
       <c r="F13" s="59"/>
     </row>
@@ -7475,7 +7502,7 @@
         <v>365</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7555,11 +7582,11 @@
       <c r="C19" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D19" s="154" t="s">
+      <c r="D19" s="151" t="s">
         <v>382</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7570,11 +7597,11 @@
       <c r="C20" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7589,7 +7616,7 @@
         <v>381</v>
       </c>
       <c r="E21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7603,8 +7630,8 @@
       <c r="D22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="149" t="s">
-        <v>448</v>
+      <c r="E22" s="146" t="s">
+        <v>445</v>
       </c>
       <c r="F22" s="59"/>
     </row>
@@ -7620,7 +7647,7 @@
         <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7699,11 +7726,11 @@
       <c r="C28" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="155" t="s">
+      <c r="D28" s="152" t="s">
         <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7714,11 +7741,11 @@
       <c r="C29" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7733,7 +7760,7 @@
         <v>381</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7747,8 +7774,8 @@
       <c r="D31" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="149" t="s">
-        <v>448</v>
+      <c r="E31" s="146" t="s">
+        <v>445</v>
       </c>
       <c r="F31" s="59"/>
     </row>
@@ -7764,7 +7791,7 @@
         <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,7 +7809,7 @@
         <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7844,11 +7871,11 @@
       <c r="C37" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="156" t="s">
+      <c r="D37" s="153" t="s">
         <v>178</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7859,11 +7886,11 @@
       <c r="C38" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="94" t="s">
         <v>175</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7878,7 +7905,7 @@
         <v>381</v>
       </c>
       <c r="E39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -7898,11 +7925,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7932,18 +7959,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="105" t="s">
-        <v>416</v>
+      <c r="A3" s="167"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="104" t="s">
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>390</v>
@@ -8050,24 +8077,24 @@
       <c r="C13" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="106"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="167" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="160"/>
+      <c r="A15" s="167"/>
       <c r="C15" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="D15" s="126" t="s">
-        <v>485</v>
+      <c r="D15" s="125" t="s">
+        <v>480</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8101,20 +8128,20 @@
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="103" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8149,7 +8176,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8157,7 +8184,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8192,7 +8219,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8200,795 +8227,787 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="107"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="160"/>
+      <c r="A32" s="167"/>
       <c r="C32" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="7" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
       <c r="B57" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B59" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
       <c r="B63" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B65" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="7" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="160" t="s">
+      <c r="C70" s="60"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="160"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="167"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D73" s="26" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="7" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="7" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="7" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D80" t="s">
-        <v>481</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="5"/>
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="7" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>41</v>
+      <c r="A88" s="1"/>
+      <c r="B88" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="7" t="s">
-        <v>3</v>
+      <c r="A91" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C91" s="5"/>
+      <c r="D91" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="7" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="7" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>43</v>
+      <c r="A98" s="1"/>
+      <c r="B98" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="7" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="7" t="s">
-        <v>10</v>
+      <c r="A101" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C101" s="5"/>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="7" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="7" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="7" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>45</v>
+      <c r="A109" s="1"/>
+      <c r="B109" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="7" t="s">
-        <v>3</v>
+      <c r="A112" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C112" s="5"/>
+      <c r="D112" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>46</v>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-      <c r="B121" s="7" t="s">
-        <v>3</v>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C121" s="5"/>
+      <c r="D121" s="131" t="s">
+        <v>469</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C122" s="5"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="7" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="B131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="B132" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="60"/>
-      <c r="D129" s="93"/>
-      <c r="E129" s="93"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="160" t="s">
+      <c r="C132" s="60"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="92"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="160"/>
-      <c r="C131" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="167"/>
+      <c r="C134" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D134" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B135" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-      <c r="B133" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="B134" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-      <c r="B135" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>365</v>
@@ -8997,7 +9016,7 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>365</v>
@@ -9006,7 +9025,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>365</v>
@@ -9015,24 +9034,25 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" t="s">
-        <v>142</v>
+      <c r="A139" s="1"/>
+      <c r="B139" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>365</v>
@@ -9041,25 +9061,24 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>365</v>
+      <c r="A142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>365</v>
@@ -9068,7 +9087,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>365</v>
@@ -9077,7 +9096,7 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>365</v>
@@ -9086,24 +9105,25 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D147" t="s">
-        <v>143</v>
+      <c r="A147" s="1"/>
+      <c r="B147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>365</v>
@@ -9112,25 +9132,24 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>365</v>
+      <c r="A150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>365</v>
@@ -9139,7 +9158,7 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>365</v>
@@ -9148,7 +9167,7 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>365</v>
@@ -9157,24 +9176,25 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D155" t="s">
-        <v>376</v>
+      <c r="A155" s="1"/>
+      <c r="B155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>365</v>
@@ -9183,25 +9203,24 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>365</v>
+      <c r="A158" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D158" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>365</v>
@@ -9210,7 +9229,7 @@
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>365</v>
@@ -9219,7 +9238,7 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="7" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>365</v>
@@ -9228,7 +9247,7 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>365</v>
@@ -9237,84 +9256,82 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+      <c r="B164" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+      <c r="B165" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+      <c r="B166" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D163" s="93"/>
-      <c r="E163" s="93"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="160" t="s">
+      <c r="C166" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="160"/>
-      <c r="C165" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D165" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="167"/>
+      <c r="C168" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="7" t="s">
+      <c r="C169" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="C170" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>365</v>
@@ -9323,27 +9340,27 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="7" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>365</v>
@@ -9358,14 +9375,14 @@
         <v>365</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="91" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9379,20 +9396,20 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>365</v>
@@ -9401,118 +9418,120 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+      <c r="B182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+      <c r="B183" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="C183" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>73</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B184" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="C184" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>74</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B185" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="C185" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-      <c r="B184" s="7" t="s">
+      <c r="C186" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+      <c r="B187" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="7" t="s">
+      <c r="C187" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C185" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D185" s="93"/>
-      <c r="E185" s="93"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="160" t="s">
+      <c r="C188" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="B186" s="160"/>
-      <c r="C186" s="5"/>
-    </row>
-    <row r="187" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A187" s="160"/>
-      <c r="B187" s="160"/>
-      <c r="C187" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E187" s="27" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="B189" s="167"/>
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A190" s="167"/>
+      <c r="B190" s="167"/>
+      <c r="C190" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-      <c r="B189" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-      <c r="B190" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-      <c r="B191" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>365</v>
@@ -9521,7 +9540,7 @@
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>365</v>
@@ -9530,112 +9549,112 @@
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+      <c r="B194" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+      <c r="B195" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C193" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D193" s="93"/>
-      <c r="E193" s="93"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="160" t="s">
+      <c r="C196" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D196" s="92"/>
+      <c r="E196" s="92"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="160"/>
-      <c r="C194" s="5"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="160"/>
-      <c r="B195" s="160"/>
-      <c r="C195" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D195" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="B197" s="167"/>
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="167"/>
+      <c r="B198" s="167"/>
+      <c r="C198" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D198" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B199" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1"/>
-      <c r="B197" s="7" t="s">
+      <c r="C199" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+      <c r="B200" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-      <c r="B198" s="7" t="s">
+      <c r="C200" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+      <c r="B201" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C198" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D198" s="93"/>
-      <c r="E198" s="93"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="160" t="s">
+      <c r="C201" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D201" s="92"/>
+      <c r="E201" s="92"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="B199" s="160"/>
-      <c r="C199" s="5"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="160"/>
-      <c r="B200" s="160"/>
-      <c r="C200" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D200" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="B202" s="167"/>
+      <c r="C202" s="5"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="167"/>
+      <c r="B203" s="167"/>
+      <c r="C203" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D203" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B204" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-      <c r="B203" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-      <c r="B204" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>365</v>
@@ -9644,18 +9663,16 @@
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>365</v>
@@ -9664,7 +9681,7 @@
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>365</v>
@@ -9673,16 +9690,18 @@
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B209" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>365</v>
@@ -9691,28 +9710,55 @@
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
+      <c r="B211" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1"/>
+      <c r="B212" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+      <c r="B213" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D210" s="93"/>
-      <c r="E210" s="93"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="4"/>
+      <c r="C213" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D213" s="92"/>
+      <c r="E213" s="92"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A199:B200"/>
-    <mergeCell ref="A186:B187"/>
-    <mergeCell ref="A194:B195"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A202:B203"/>
+    <mergeCell ref="A189:B190"/>
+    <mergeCell ref="A197:B198"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A167:A168"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="10" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -9731,7 +9777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9761,61 +9807,61 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="17"/>
       <c r="C3" s="69" t="s">
         <v>388</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="164" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="91" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="159" t="s">
         <v>365</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="164" t="s">
         <v>365</v>
       </c>
       <c r="E6" t="s">
@@ -9827,9 +9873,9 @@
         <v>16</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="164" t="s">
         <v>365</v>
       </c>
       <c r="E7" t="s">
@@ -9843,7 +9889,7 @@
       <c r="C8" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="164" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9854,7 +9900,7 @@
       <c r="C9" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="164" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9880,16 +9926,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9910,14 +9956,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
@@ -9929,11 +9975,11 @@
       <c r="C4" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>448</v>
+      <c r="D4" s="121" t="s">
+        <v>445</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9942,21 +9988,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="133" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9966,13 +10012,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -9981,7 +10027,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
         <v>164</v>
@@ -10008,7 +10054,7 @@
         <v>176</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E10" s="39"/>
     </row>
@@ -10016,11 +10062,11 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10028,11 +10074,11 @@
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10040,15 +10086,15 @@
         <v>9</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="123" t="s">
         <v>377</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="D13" s="124" t="s">
         <v>369</v>
       </c>
-      <c r="E13" s="123"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="122"/>
+    </row>
+    <row r="14" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
         <v>10</v>
@@ -10056,8 +10102,11 @@
       <c r="C14" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D14" t="s">
-        <v>365</v>
+      <c r="D14" s="161" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10069,7 +10118,7 @@
         <v>365</v>
       </c>
       <c r="D15" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10078,7 +10127,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D16" t="s">
         <v>164</v>
@@ -10090,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
         <v>164</v>
@@ -10105,7 +10154,7 @@
         <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -10117,18 +10166,18 @@
         <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10136,7 +10185,7 @@
       <c r="B21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -10148,13 +10197,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="109" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" s="123"/>
+      <c r="D22" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" s="122"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -10162,10 +10211,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10176,7 +10225,7 @@
       <c r="C24" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10186,7 +10235,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D25" t="s">
         <v>164</v>
@@ -10198,13 +10247,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
         <v>5</v>
@@ -10216,7 +10265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
@@ -10224,7 +10273,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10232,11 +10281,11 @@
       <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E29" s="39"/>
     </row>
@@ -10245,11 +10294,11 @@
       <c r="B30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10257,13 +10306,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="109" t="s">
-        <v>448</v>
-      </c>
-      <c r="E31" s="123"/>
+      <c r="D31" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" s="122"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
@@ -10274,7 +10323,7 @@
         <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10285,7 +10334,7 @@
       <c r="C33" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10295,7 +10344,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
         <v>164</v>
@@ -10307,7 +10356,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>164</v>
@@ -10334,7 +10383,7 @@
         <v>178</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E37" s="27"/>
     </row>
@@ -10343,22 +10392,22 @@
       <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="147" t="s">
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -10366,7 +10415,7 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -10383,8 +10432,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10414,13 +10463,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
+      <c r="A3" s="167"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10467,7 +10516,7 @@
       <c r="C7" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="166" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10477,25 +10526,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D8" s="163" t="s">
+        <v>164</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D9" s="163" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10504,10 +10553,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10530,7 +10579,7 @@
       <c r="C12" t="s">
         <v>365</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10542,7 +10591,7 @@
       <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10554,7 +10603,7 @@
       <c r="C14" t="s">
         <v>365</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10563,10 +10612,10 @@
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="97" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="98" t="s">
+      <c r="C15" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="97" t="s">
         <v>393</v>
       </c>
       <c r="E15" s="59"/>
@@ -10576,7 +10625,7 @@
       <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="160" t="s">
         <v>365</v>
       </c>
       <c r="D16" t="s">
@@ -10588,10 +10637,10 @@
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="160" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10601,10 +10650,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D18" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10613,10 +10662,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10625,10 +10674,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D20" s="163" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10673,7 +10722,7 @@
       <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="160" t="s">
         <v>365</v>
       </c>
       <c r="D24" t="s">
@@ -10685,7 +10734,7 @@
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="160" t="s">
         <v>365</v>
       </c>
       <c r="D25" t="s">
@@ -10697,7 +10746,7 @@
       <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="160" t="s">
         <v>365</v>
       </c>
       <c r="D26" t="s">
@@ -10709,10 +10758,10 @@
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s">
-        <v>365</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="160" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10722,10 +10771,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D28" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10734,10 +10783,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -10746,10 +10795,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D30" s="163" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10772,7 +10821,7 @@
       <c r="C32" t="s">
         <v>365</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="166" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10784,7 +10833,7 @@
       <c r="C33" t="s">
         <v>365</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="166" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10796,7 +10845,7 @@
       <c r="C34" t="s">
         <v>365</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="166" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10833,7 +10882,7 @@
       <c r="C37" t="s">
         <v>365</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10845,8 +10894,8 @@
       <c r="C38" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D38" t="s">
-        <v>365</v>
+      <c r="D38" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10857,8 +10906,8 @@
       <c r="C39" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
-        <v>365</v>
+      <c r="D39" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -10867,10 +10916,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="D40" t="s">
-        <v>365</v>
+        <v>412</v>
+      </c>
+      <c r="D40" s="163" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10920,7 +10969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="A1:D51"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10950,15 +10999,15 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10982,7 +11031,7 @@
         <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10993,11 +11042,11 @@
       <c r="C6" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D6" t="s">
-        <v>365</v>
+      <c r="D6" s="28" t="s">
+        <v>505</v>
       </c>
       <c r="E6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11008,11 +11057,11 @@
       <c r="C7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D7" t="s">
-        <v>365</v>
+      <c r="D7" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11023,7 +11072,7 @@
       <c r="C8" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11036,7 +11085,7 @@
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11048,9 +11097,9 @@
         <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="93"/>
+        <v>422</v>
+      </c>
+      <c r="E10" s="92"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11058,7 +11107,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>367</v>
@@ -11073,7 +11122,7 @@
         <v>349</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11084,11 +11133,11 @@
       <c r="C13" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D13" t="s">
-        <v>365</v>
+      <c r="D13" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11099,11 +11148,11 @@
       <c r="C14" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D14" t="s">
-        <v>365</v>
+      <c r="D14" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -11115,7 +11164,7 @@
         <v>351</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11127,7 +11176,7 @@
         <v>352</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -11138,20 +11187,20 @@
       <c r="C17" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="93"/>
+      <c r="D17" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="92"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="155" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11175,7 +11224,7 @@
       <c r="C20" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11187,11 +11236,11 @@
       <c r="C21" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E21" s="161" t="s">
-        <v>504</v>
+      <c r="D21" s="163" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="157" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -11202,8 +11251,8 @@
       <c r="C22" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D22" t="s">
-        <v>365</v>
+      <c r="D22" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E22" t="s">
         <v>363</v>
@@ -11217,11 +11266,11 @@
       <c r="C23" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D23" t="s">
-        <v>365</v>
+      <c r="D23" s="28" t="s">
+        <v>503</v>
       </c>
       <c r="E23" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -11244,10 +11293,10 @@
       <c r="C25" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="E25" s="93"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -11257,7 +11306,7 @@
       <c r="C26" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="155" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11282,7 +11331,7 @@
         <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" t="s">
         <v>372</v>
@@ -11296,11 +11345,11 @@
       <c r="C29" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D29" t="s">
-        <v>365</v>
+      <c r="D29" s="163" t="s">
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11311,11 +11360,11 @@
       <c r="C30" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D30" t="s">
-        <v>365</v>
+      <c r="D30" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11326,11 +11375,11 @@
       <c r="C31" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D31" t="s">
-        <v>365</v>
+      <c r="D31" s="28" t="s">
+        <v>503</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11342,7 +11391,7 @@
         <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -11353,10 +11402,10 @@
       <c r="C33" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="93" t="s">
-        <v>405</v>
-      </c>
-      <c r="E33" s="93"/>
+      <c r="D33" s="92" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="92"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -11366,11 +11415,11 @@
       <c r="C34" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="159" t="s">
+      <c r="D34" s="156" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11393,11 +11442,11 @@
       <c r="C36" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="161" t="s">
         <v>365</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11408,8 +11457,8 @@
       <c r="C37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D37" t="s">
-        <v>365</v>
+      <c r="D37" s="163" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -11420,8 +11469,8 @@
       <c r="C38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D38" t="s">
-        <v>365</v>
+      <c r="D38" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -11432,8 +11481,8 @@
       <c r="C39" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D39" t="s">
-        <v>365</v>
+      <c r="D39" s="28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11456,10 +11505,10 @@
       <c r="C41" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="D41" s="93" t="s">
+      <c r="D41" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="E41" s="93"/>
+      <c r="E41" s="92"/>
     </row>
     <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -11469,8 +11518,8 @@
       <c r="C42" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="D42" s="114" t="s">
-        <v>411</v>
+      <c r="D42" s="113" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11482,10 +11531,10 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7" t="s">
         <v>10</v>
@@ -11494,7 +11543,7 @@
         <v>365</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E44" s="70" t="s">
         <v>373</v>
@@ -11509,7 +11558,7 @@
         <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E45" t="s">
         <v>363</v>
@@ -11524,7 +11573,7 @@
         <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E46" t="s">
         <v>363</v>
@@ -11539,7 +11588,7 @@
         <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E47" t="s">
         <v>363</v>
@@ -11554,7 +11603,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11566,7 +11615,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11578,7 +11627,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11590,7 +11639,7 @@
         <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E51" t="s">
         <v>363</v>
@@ -11618,13 +11667,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.21875" customWidth="1"/>
@@ -11648,18 +11697,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -11680,7 +11729,7 @@
         <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11691,8 +11740,8 @@
       <c r="C6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D6" t="s">
-        <v>365</v>
+      <c r="D6" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11703,8 +11752,8 @@
       <c r="C7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D7" t="s">
-        <v>365</v>
+      <c r="D7" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11716,7 +11765,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11728,7 +11777,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11739,18 +11788,18 @@
       <c r="C10" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="93"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D10" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="92"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>367</v>
@@ -11765,7 +11814,7 @@
         <v>365</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11776,8 +11825,8 @@
       <c r="C13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>365</v>
+      <c r="D13" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -11788,8 +11837,8 @@
       <c r="C14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>365</v>
+      <c r="D14" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11800,7 +11849,7 @@
       <c r="C15" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="159" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11813,7 +11862,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11824,12 +11873,12 @@
       <c r="C17" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="93" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="93"/>
-    </row>
-    <row r="18" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="92"/>
+    </row>
+    <row r="18" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -11837,11 +11886,11 @@
       <c r="C18" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="158" t="s">
         <v>141</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11861,11 +11910,11 @@
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" t="s">
-        <v>349</v>
+      <c r="C20" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="160" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11876,8 +11925,8 @@
       <c r="C21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D21" t="s">
-        <v>365</v>
+      <c r="D21" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11888,8 +11937,8 @@
       <c r="C22" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D22" t="s">
-        <v>365</v>
+      <c r="D22" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -11900,8 +11949,8 @@
       <c r="C23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
-        <v>365</v>
+      <c r="D23" s="28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11913,7 +11962,7 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -11924,12 +11973,12 @@
       <c r="C25" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="93" t="s">
-        <v>493</v>
-      </c>
-      <c r="E25" s="93"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="92"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
@@ -11937,12 +11986,10 @@
       <c r="C26" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="128" t="s">
-        <v>401</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>421</v>
-      </c>
+      <c r="D26" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -11961,11 +12008,11 @@
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11976,8 +12023,8 @@
       <c r="C29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D29" t="s">
-        <v>365</v>
+      <c r="D29" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -11988,8 +12035,8 @@
       <c r="C30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D30" t="s">
-        <v>365</v>
+      <c r="D30" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12000,10 +12047,10 @@
       <c r="C31" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="116" t="s">
+      <c r="D31" s="163" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" s="115" t="s">
         <v>186</v>
       </c>
     </row>
@@ -12016,7 +12063,7 @@
         <v>162</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12027,12 +12074,12 @@
       <c r="C33" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="93" t="s">
-        <v>492</v>
-      </c>
-      <c r="E33" s="93"/>
-    </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D33" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="E33" s="92"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -12040,11 +12087,11 @@
       <c r="C34" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="156" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -12059,19 +12106,19 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="160" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7" t="s">
         <v>3</v>
@@ -12079,11 +12126,11 @@
       <c r="C37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D37" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D37" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7" t="s">
         <v>4</v>
@@ -12091,8 +12138,8 @@
       <c r="C38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D38" t="s">
-        <v>365</v>
+      <c r="D38" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -12103,8 +12150,8 @@
       <c r="C39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D39" t="s">
-        <v>365</v>
+      <c r="D39" s="28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12118,7 +12165,7 @@
       <c r="D40" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="111" t="s">
         <v>187</v>
       </c>
     </row>
@@ -12130,12 +12177,12 @@
       <c r="C41" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="151" t="s">
+      <c r="D41" s="148" t="s">
         <v>398</v>
       </c>
-      <c r="E41" s="93"/>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E41" s="92"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -12143,8 +12190,8 @@
       <c r="C42" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="D42" s="109" t="s">
-        <v>411</v>
+      <c r="D42" s="108" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12155,17 +12202,20 @@
       <c r="C43" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="D43" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D44" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12176,6 +12226,9 @@
       <c r="C45" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
@@ -12185,6 +12238,9 @@
       <c r="C46" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -12194,6 +12250,9 @@
       <c r="C47" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -12203,6 +12262,9 @@
       <c r="C48" s="14" t="s">
         <v>153</v>
       </c>
+      <c r="D48" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -12212,14 +12274,23 @@
       <c r="C49" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="91" t="s">
         <v>152</v>
+      </c>
+      <c r="D50" s="163" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12230,15 +12301,17 @@
       <c r="C51" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
+      <c r="D51" s="162" t="s">
+        <v>365</v>
+      </c>
+      <c r="E51" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="64" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -12254,8 +12327,8 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D88:D99"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12284,16 +12357,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -12305,11 +12378,11 @@
       <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>462</v>
+      <c r="D4" s="116" t="s">
+        <v>458</v>
       </c>
       <c r="E4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -12320,8 +12393,8 @@
       <c r="C5" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="153" t="s">
-        <v>496</v>
+      <c r="D5" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12342,10 +12415,10 @@
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12356,7 +12429,7 @@
       <c r="C8" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12369,7 +12442,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12380,8 +12453,8 @@
       <c r="C10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="100" t="s">
-        <v>365</v>
+      <c r="D10" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12392,8 +12465,8 @@
       <c r="C11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="100" t="s">
-        <v>365</v>
+      <c r="D11" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12404,8 +12477,8 @@
       <c r="C12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="153" t="s">
-        <v>496</v>
+      <c r="D12" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12416,7 +12489,7 @@
       <c r="C13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="150" t="s">
         <v>169</v>
       </c>
     </row>
@@ -12429,7 +12502,7 @@
         <v>362</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12441,7 +12514,7 @@
         <v>362</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12449,11 +12522,11 @@
         <v>95</v>
       </c>
       <c r="B16" s="52"/>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="117" t="s">
-        <v>462</v>
+      <c r="D16" s="116" t="s">
+        <v>458</v>
       </c>
       <c r="E16" s="40"/>
     </row>
@@ -12478,7 +12551,7 @@
         <v>172</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12490,7 +12563,7 @@
         <v>172</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -12501,8 +12574,8 @@
       <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="153" t="s">
-        <v>365</v>
+      <c r="D20" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -12513,8 +12586,8 @@
       <c r="C21" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="153" t="s">
-        <v>365</v>
+      <c r="D21" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -12525,8 +12598,8 @@
       <c r="C22" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="153" t="s">
-        <v>496</v>
+      <c r="D22" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -12537,7 +12610,7 @@
       <c r="C23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="150" t="s">
         <v>169</v>
       </c>
     </row>
@@ -12550,7 +12623,7 @@
         <v>172</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12562,7 +12635,7 @@
         <v>172</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12573,8 +12646,8 @@
       <c r="C26" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="118" t="s">
-        <v>447</v>
+      <c r="D26" s="117" t="s">
+        <v>444</v>
       </c>
       <c r="E26" s="27"/>
     </row>
@@ -12598,11 +12671,11 @@
       <c r="C28" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="152" t="s">
-        <v>365</v>
+      <c r="D28" s="149" t="s">
+        <v>503</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12611,10 +12684,10 @@
         <v>91</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -12626,7 +12699,7 @@
         <v>365</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12638,7 +12711,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -12649,8 +12722,8 @@
       <c r="C32" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="100" t="s">
-        <v>365</v>
+      <c r="D32" s="99" t="s">
+        <v>164</v>
       </c>
       <c r="E32" t="s">
         <v>364</v>
@@ -12664,8 +12737,8 @@
       <c r="C33" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="100" t="s">
-        <v>365</v>
+      <c r="D33" s="99" t="s">
+        <v>164</v>
       </c>
       <c r="E33" t="s">
         <v>364</v>
@@ -12691,7 +12764,7 @@
       <c r="C35" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="99" t="s">
         <v>356</v>
       </c>
     </row>
@@ -12703,7 +12776,7 @@
       <c r="C36" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="99" t="s">
         <v>356</v>
       </c>
     </row>
@@ -12716,7 +12789,7 @@
         <v>348</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -12728,7 +12801,7 @@
         <v>348</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -12752,7 +12825,7 @@
       <c r="C40" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12764,7 +12837,7 @@
       <c r="C41" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12777,7 +12850,7 @@
         <v>349</v>
       </c>
       <c r="D42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12788,7 +12861,7 @@
       <c r="C43" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12800,8 +12873,8 @@
       <c r="C44" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D44" t="s">
-        <v>365</v>
+      <c r="D44" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12812,8 +12885,8 @@
       <c r="C45" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D45" t="s">
-        <v>365</v>
+      <c r="D45" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -12825,7 +12898,7 @@
         <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12836,7 +12909,7 @@
       <c r="C47" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12848,7 +12921,7 @@
       <c r="C48" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12861,7 +12934,7 @@
         <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12873,7 +12946,7 @@
         <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12881,10 +12954,10 @@
         <v>98</v>
       </c>
       <c r="B51" s="54"/>
-      <c r="C51" s="96" t="s">
-        <v>419</v>
-      </c>
-      <c r="D51" s="96" t="s">
+      <c r="C51" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="95" t="s">
         <v>367</v>
       </c>
       <c r="E51" s="59"/>
@@ -12897,7 +12970,7 @@
       <c r="C52" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12909,7 +12982,7 @@
       <c r="C53" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12922,7 +12995,7 @@
         <v>349</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -12933,7 +13006,7 @@
       <c r="C55" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12945,8 +13018,8 @@
       <c r="C56" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>365</v>
+      <c r="D56" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -12957,8 +13030,8 @@
       <c r="C57" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>365</v>
+      <c r="D57" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -12970,7 +13043,7 @@
         <v>351</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -12981,7 +13054,7 @@
       <c r="C59" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -12993,7 +13066,7 @@
       <c r="C60" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13006,7 +13079,7 @@
         <v>352</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -13018,7 +13091,7 @@
         <v>353</v>
       </c>
       <c r="D62" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13042,7 +13115,7 @@
       <c r="C64" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13054,7 +13127,7 @@
       <c r="C65" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D65" s="100" t="s">
+      <c r="D65" s="99" t="s">
         <v>170</v>
       </c>
     </row>
@@ -13066,8 +13139,8 @@
       <c r="C66" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="D66" s="110" t="s">
-        <v>432</v>
+      <c r="D66" s="109" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -13079,7 +13152,7 @@
         <v>349</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -13091,7 +13164,7 @@
         <v>358</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13099,14 +13172,14 @@
       <c r="B69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="79" t="s">
         <v>349</v>
       </c>
-      <c r="D69" s="44" t="s">
-        <v>433</v>
+      <c r="D69" s="149" t="s">
+        <v>430</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -13118,7 +13191,7 @@
         <v>349</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E70" t="s">
         <v>364</v>
@@ -13133,7 +13206,7 @@
         <v>357</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -13193,7 +13266,7 @@
       <c r="C76" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13205,7 +13278,7 @@
       <c r="C77" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13218,7 +13291,7 @@
         <v>349</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -13229,7 +13302,7 @@
       <c r="C79" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13241,8 +13314,8 @@
       <c r="C80" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D80" s="26" t="s">
-        <v>365</v>
+      <c r="D80" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -13253,8 +13326,8 @@
       <c r="C81" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>365</v>
+      <c r="D81" s="99" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -13266,7 +13339,7 @@
         <v>351</v>
       </c>
       <c r="D82" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -13277,7 +13350,7 @@
       <c r="C83" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13289,7 +13362,7 @@
       <c r="C84" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13302,7 +13375,7 @@
         <v>352</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -13314,7 +13387,7 @@
         <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13322,11 +13395,11 @@
         <v>101</v>
       </c>
       <c r="B87" s="53"/>
-      <c r="C87" s="102" t="s">
+      <c r="C87" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="D87" s="148" t="s">
-        <v>478</v>
+      <c r="D87" s="145" t="s">
+        <v>474</v>
       </c>
       <c r="E87" s="40"/>
     </row>
@@ -13338,8 +13411,8 @@
       <c r="C88" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="153" t="s">
-        <v>496</v>
+      <c r="D88" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13360,10 +13433,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -13375,7 +13448,7 @@
         <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -13386,7 +13459,7 @@
       <c r="C92" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="68" t="s">
+      <c r="D92" s="165" t="s">
         <v>365</v>
       </c>
     </row>
@@ -13399,7 +13472,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -13410,8 +13483,8 @@
       <c r="C94" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="68" t="s">
-        <v>365</v>
+      <c r="D94" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -13422,8 +13495,8 @@
       <c r="C95" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="68" t="s">
-        <v>365</v>
+      <c r="D95" s="88" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -13434,11 +13507,11 @@
       <c r="C96" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D96" s="68" t="s">
-        <v>365</v>
+      <c r="D96" s="88" t="s">
+        <v>503</v>
       </c>
       <c r="E96" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13449,8 +13522,8 @@
       <c r="C97" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="153" t="s">
-        <v>496</v>
+      <c r="D97" s="150" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13470,13 +13543,13 @@
       <c r="B99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="111" t="s">
+      <c r="C99" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="D99" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="E99" s="93"/>
+      <c r="D99" s="92" t="s">
+        <v>491</v>
+      </c>
+      <c r="E99" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13501,14 +13574,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
@@ -13531,16 +13604,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -13548,11 +13621,11 @@
         <v>102</v>
       </c>
       <c r="B4" s="53"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="114" t="s">
-        <v>411</v>
+      <c r="D4" s="113" t="s">
+        <v>409</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -13562,8 +13635,8 @@
         <v>29</v>
       </c>
       <c r="C5" s="91"/>
-      <c r="D5" s="92" t="s">
-        <v>480</v>
+      <c r="D5" s="89" t="s">
+        <v>476</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -13574,7 +13647,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13584,7 +13657,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13633,8 +13706,8 @@
         <v>6</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="100" t="s">
-        <v>427</v>
+      <c r="D12" s="99" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13643,8 +13716,8 @@
         <v>8</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="100" t="s">
-        <v>427</v>
+      <c r="D13" s="99" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13652,13 +13725,13 @@
         <v>103</v>
       </c>
       <c r="B14" s="53"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="126" t="s">
         <v>389</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="123"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -13666,8 +13739,8 @@
         <v>29</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="130" t="s">
-        <v>365</v>
+      <c r="D15" s="89" t="s">
+        <v>476</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -13687,8 +13760,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="101" t="s">
-        <v>404</v>
+      <c r="D17" s="100" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13697,18 +13770,18 @@
         <v>3</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="130" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="100" t="s">
-        <v>365</v>
+      <c r="D19" s="127" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13717,8 +13790,8 @@
         <v>31</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="100" t="s">
-        <v>365</v>
+      <c r="D20" s="99" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13727,7 +13800,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="99" t="s">
         <v>399</v>
       </c>
     </row>
@@ -13737,7 +13810,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="99" t="s">
         <v>399</v>
       </c>
     </row>
@@ -13746,13 +13819,13 @@
         <v>104</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="126" t="s">
         <v>389</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -13761,7 +13834,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="89" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -13782,7 +13855,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13791,48 +13864,48 @@
         <v>3</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D27" s="127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D28" s="127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29" s="99" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13840,13 +13913,13 @@
         <v>105</v>
       </c>
       <c r="B32" s="53"/>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="126" t="s">
         <v>389</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="123"/>
+      <c r="E32" s="122"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -13855,7 +13928,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="89" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -13876,7 +13949,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13885,8 +13958,8 @@
         <v>3</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" t="s">
-        <v>365</v>
+      <c r="D36" s="127" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -13895,8 +13968,8 @@
         <v>4</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" t="s">
-        <v>365</v>
+      <c r="D37" s="127" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -13905,8 +13978,8 @@
         <v>31</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" t="s">
-        <v>365</v>
+      <c r="D38" s="99" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -13951,16 +14024,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13981,18 +14054,18 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="160"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -14010,10 +14083,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14022,10 +14095,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" t="s">
-        <v>365</v>
+        <v>365</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E6" t="s">
         <v>372</v>
@@ -14037,10 +14110,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" t="s">
-        <v>365</v>
+        <v>365</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>372</v>
@@ -14052,9 +14125,9 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14067,7 +14140,7 @@
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14078,8 +14151,8 @@
       <c r="C10" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D10" t="s">
-        <v>407</v>
+      <c r="D10" s="92" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14101,10 +14174,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
         <v>372</v>
@@ -14116,10 +14189,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" t="s">
-        <v>365</v>
+        <v>365</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E13" t="s">
         <v>372</v>
@@ -14131,16 +14204,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" t="s">
-        <v>365</v>
+        <v>365</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E14" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -14149,10 +14222,10 @@
         <v>351</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>6</v>
@@ -14160,11 +14233,11 @@
       <c r="C16" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>8</v>
@@ -14172,8 +14245,8 @@
       <c r="C17" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D17" t="s">
-        <v>365</v>
+      <c r="D17" s="92" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14194,10 +14267,10 @@
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="104" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14221,20 +14294,20 @@
       <c r="C21" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D21" s="101" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" s="100" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="130" t="s">
-        <v>365</v>
+      <c r="D22" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="E22" s="27"/>
     </row>
@@ -14243,11 +14316,11 @@
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="100" t="s">
-        <v>365</v>
+      <c r="D23" s="28" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14255,11 +14328,11 @@
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="134" t="s">
         <v>385</v>
       </c>
-      <c r="D24" s="100" t="s">
-        <v>365</v>
+      <c r="D24" s="99" t="s">
+        <v>503</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -14271,7 +14344,7 @@
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="99" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14283,7 +14356,7 @@
       <c r="C26" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="99" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14318,13 +14391,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>2</v>
@@ -14332,11 +14405,11 @@
       <c r="C30" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D30" s="161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>3</v>
@@ -14344,14 +14417,14 @@
       <c r="C31" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>365</v>
+      <c r="D31" s="163" t="s">
+        <v>164</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7" t="s">
         <v>4</v>
@@ -14359,11 +14432,11 @@
       <c r="C32" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7" t="s">
         <v>47</v>
@@ -14371,11 +14444,11 @@
       <c r="C33" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D33" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="168" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7" t="s">
         <v>31</v>
@@ -14383,11 +14456,11 @@
       <c r="C34" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D34" s="163" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7" t="s">
         <v>6</v>
@@ -14396,7 +14469,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -14407,7 +14480,7 @@
       <c r="C36" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14420,10 +14493,10 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -14444,7 +14517,7 @@
       <c r="C39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="160" t="s">
         <v>365</v>
       </c>
     </row>
@@ -14469,7 +14542,7 @@
         <v>365</v>
       </c>
       <c r="D41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14480,8 +14553,8 @@
       <c r="C42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D42" t="s">
-        <v>365</v>
+      <c r="D42" s="163" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14492,8 +14565,8 @@
       <c r="C43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D43" t="s">
-        <v>365</v>
+      <c r="D43" s="163" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -14504,8 +14577,8 @@
       <c r="C44" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D44" t="s">
-        <v>365</v>
+      <c r="D44" s="28" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14532,16 +14605,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="19"/>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="102" t="s">
         <v>376</v>
       </c>
-      <c r="D47" s="113" t="s">
-        <v>411</v>
+      <c r="D47" s="112" t="s">
+        <v>376</v>
       </c>
       <c r="E47" s="59"/>
     </row>
@@ -14553,6 +14626,9 @@
       <c r="C48" s="18" t="s">
         <v>365</v>
       </c>
+      <c r="D48" s="160" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -14563,7 +14639,7 @@
         <v>339</v>
       </c>
       <c r="D49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14574,6 +14650,9 @@
       <c r="C50" s="18" t="s">
         <v>365</v>
       </c>
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
@@ -14583,6 +14662,9 @@
       <c r="C51" s="18" t="s">
         <v>365</v>
       </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -14593,7 +14675,7 @@
         <v>365</v>
       </c>
       <c r="D52" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14604,6 +14686,9 @@
       <c r="C53" s="18" t="s">
         <v>365</v>
       </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
@@ -14613,26 +14698,35 @@
       <c r="C54" s="18" t="s">
         <v>365</v>
       </c>
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>365</v>
+      <c r="C55" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="E55" s="64" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="D56" s="157" t="s">
+        <v>500</v>
       </c>
       <c r="E56" t="s">
         <v>341</v>
@@ -14646,14 +14740,23 @@
       <c r="C57" s="18" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="91" t="s">
         <v>152</v>
+      </c>
+      <c r="D58" s="163" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -14663,6 +14766,9 @@
       </c>
       <c r="C59" s="5" t="s">
         <v>152</v>
+      </c>
+      <c r="D59" s="160" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -14673,7 +14779,7 @@
     <mergeCell ref="A2:B3"/>
   </mergeCells>
   <pageMargins left="0.6" right="0.6" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>

--- a/documents/QDM-vMR-cross-map.xlsx
+++ b/documents/QDM-vMR-cross-map.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="507">
   <si>
     <t>Diagnosis, Active</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Problem</t>
   </si>
   <si>
-    <t>requestedAppointmentTime or proposedAppointmentTime</t>
-  </si>
-  <si>
     <t>proposedAppointmentTime</t>
   </si>
   <si>
@@ -1265,9 +1262,6 @@
   </si>
   <si>
     <t>(*) TBD</t>
-  </si>
-  <si>
-    <t>(*) Needs "comment" field and/or extension (ClinicalStatement/attribute extension?)</t>
   </si>
   <si>
     <t>No equivalent in vMR</t>
@@ -1430,12 +1424,6 @@
   </si>
   <si>
     <t>See QRDA for Symptom description</t>
-  </si>
-  <si>
-    <t>(*) vMR: AppointmentProposal or AppointmentRequest</t>
-  </si>
-  <si>
-    <t>AppointmentProposal or AppointmentRequest</t>
   </si>
   <si>
     <t>(*) vMR: Should move "comment"+E28 from SubstanceAdministrationProposal to SubstanceAdministrationBase class and/or add to copy to event class</t>
@@ -1586,12 +1574,24 @@
   <si>
     <t>comment + resultsIn</t>
   </si>
+  <si>
+    <t>AppointmentRequest</t>
+  </si>
+  <si>
+    <t>requestedAppointmentTime</t>
+  </si>
+  <si>
+    <t>(*) vMR Needs "comment" field and/or extension (ClinicalStatement/attribute extension?)</t>
+  </si>
+  <si>
+    <t>MissedAppointment, UndeliveredProcedure ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,6 +1699,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1850,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2240,11 +2246,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4784,35 +4793,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="22"/>
     </row>
@@ -4825,10 +4834,10 @@
         <v>7.31</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4840,10 +4849,10 @@
         <v>7.51</v>
       </c>
       <c r="E4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -4860,40 +4869,40 @@
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="85"/>
       <c r="D7" s="31"/>
       <c r="E7" s="22"/>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="86">
         <v>7.7</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G8" s="87"/>
     </row>
@@ -4906,7 +4915,7 @@
         <v>7.8</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
         <v>172</v>
@@ -4921,7 +4930,7 @@
         <v>7.9</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -4941,88 +4950,88 @@
       </c>
       <c r="C12" s="82"/>
       <c r="D12" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>180</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="82"/>
       <c r="D14" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>180</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>148</v>
@@ -5033,101 +5042,101 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="82"/>
       <c r="D18" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="82"/>
       <c r="D19" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="82"/>
       <c r="D20" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="82"/>
       <c r="D21" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="84"/>
       <c r="D23" s="31"/>
       <c r="E23" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="82"/>
       <c r="D24" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>148</v>
@@ -5138,29 +5147,29 @@
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="82"/>
       <c r="D25" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="82"/>
       <c r="D26" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F26" s="88" t="s">
         <v>141</v>
@@ -5168,14 +5177,14 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" s="82"/>
       <c r="D27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>142</v>
@@ -5183,14 +5192,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="82"/>
       <c r="D28" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F28" s="28" t="s">
         <v>143</v>
@@ -5198,20 +5207,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="82"/>
       <c r="D29" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G29" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5224,11 +5233,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E31" t="s">
         <v>146</v>
@@ -5237,31 +5246,29 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="82"/>
       <c r="D32" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>464</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="82"/>
       <c r="D33" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" t="s">
         <v>146</v>
@@ -5272,20 +5279,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="82"/>
       <c r="D34" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E34" t="s">
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -5294,24 +5301,24 @@
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>141</v>
@@ -5319,14 +5326,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>142</v>
@@ -5334,14 +5341,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>143</v>
@@ -5349,17 +5356,17 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5368,63 +5375,63 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="82"/>
       <c r="D41" s="33"/>
       <c r="E41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="82"/>
       <c r="D42" s="32">
         <v>7.32</v>
       </c>
       <c r="E42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="82"/>
       <c r="D43" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="84"/>
@@ -5433,11 +5440,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="82"/>
       <c r="D45" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" t="s">
         <v>148</v>
@@ -5448,26 +5455,26 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="82"/>
       <c r="D46" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>141</v>
@@ -5476,16 +5483,16 @@
         <v>141</v>
       </c>
       <c r="G47" s="109" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C48" s="82"/>
       <c r="D48" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E48" t="s">
         <v>146</v>
@@ -5494,16 +5501,16 @@
         <v>142</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
         <v>143</v>
@@ -5512,22 +5519,22 @@
         <v>143</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C50" s="82"/>
       <c r="D50" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5541,7 +5548,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="82"/>
       <c r="D52" s="31"/>
@@ -5554,30 +5561,30 @@
     </row>
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="82"/>
       <c r="D53" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F53" s="89" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="82"/>
       <c r="D54" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F54" s="88" t="s">
         <v>141</v>
@@ -5586,7 +5593,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="82"/>
       <c r="D55" s="34">
@@ -5602,11 +5609,11 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="82"/>
       <c r="D56" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>145</v>
@@ -5618,15 +5625,15 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="82"/>
       <c r="D57" s="31"/>
       <c r="E57" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F57" s="137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G57" s="40"/>
     </row>
@@ -5643,23 +5650,23 @@
     </row>
     <row r="59" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E59" s="40" t="s">
         <v>138</v>
       </c>
       <c r="F59" s="119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="82"/>
       <c r="D60" s="32">
@@ -5669,13 +5676,13 @@
         <v>138</v>
       </c>
       <c r="F60" s="130" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G60" s="40"/>
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="82"/>
       <c r="D61" s="32">
@@ -5685,17 +5692,17 @@
         <v>140</v>
       </c>
       <c r="F61" s="119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G61" s="40"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="82"/>
       <c r="D62" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>148</v>
@@ -5704,28 +5711,28 @@
         <v>148</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="82"/>
       <c r="D63" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E63" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G63" s="40"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64" s="82"/>
       <c r="D64" s="32">
@@ -5735,41 +5742,41 @@
         <v>139</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B65" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" s="82"/>
       <c r="D65" s="48">
         <v>7.61</v>
       </c>
       <c r="E65" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F66" s="136" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G66" s="40"/>
     </row>
@@ -5781,34 +5788,34 @@
       <c r="C67" s="85"/>
       <c r="D67" s="31"/>
       <c r="E67" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F67" s="138"/>
       <c r="G67" s="40"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C68" s="82"/>
       <c r="D68" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E68" s="139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F68" s="139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G68" s="40"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="82"/>
       <c r="D69" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E69" s="139" t="s">
         <v>141</v>
@@ -5820,11 +5827,11 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" s="82"/>
       <c r="D70" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E70" s="139" t="s">
         <v>142</v>
@@ -5836,11 +5843,11 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C71" s="82"/>
       <c r="D71" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E71" s="139" t="s">
         <v>143</v>
@@ -5863,11 +5870,11 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C73" s="82"/>
       <c r="D73" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>148</v>
@@ -5879,27 +5886,27 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="82"/>
       <c r="D74" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G74" s="40"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C75" s="82"/>
       <c r="D75" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E75" s="40" t="s">
         <v>141</v>
@@ -5911,11 +5918,11 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" s="82"/>
       <c r="D76" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>142</v>
@@ -5927,11 +5934,11 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="82"/>
       <c r="D77" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>143</v>
@@ -5943,17 +5950,17 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C78" s="82"/>
       <c r="D78" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F78" s="140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -5963,28 +5970,28 @@
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F79" s="136"/>
       <c r="G79" s="40"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" s="82"/>
       <c r="D80" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F80" s="139" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G80" s="40"/>
     </row>
@@ -5998,12 +6005,12 @@
       <c r="E81" s="40"/>
       <c r="F81" s="136"/>
       <c r="G81" s="142" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="132">
@@ -6013,17 +6020,17 @@
         <v>140</v>
       </c>
       <c r="F82" s="119" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G82" s="40"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C83" s="82"/>
       <c r="D83" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E83" s="44" t="s">
         <v>148</v>
@@ -6032,78 +6039,78 @@
         <v>148</v>
       </c>
       <c r="G83" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C84" s="82"/>
       <c r="D84" s="30">
         <v>7.61</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F84" s="88" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G84" s="40"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="82"/>
       <c r="D85" s="30">
         <v>7.61</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G85" s="40"/>
     </row>
     <row r="86" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E86" s="114" t="s">
         <v>138</v>
       </c>
       <c r="F86" s="93" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G86" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C87" s="82"/>
       <c r="D87" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E87" s="38" t="s">
         <v>144</v>
       </c>
       <c r="F87" s="141" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G87" s="40"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="84"/>
@@ -6111,72 +6118,72 @@
       <c r="E88" s="42"/>
       <c r="F88" s="28"/>
       <c r="G88" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C89" s="82"/>
       <c r="D89" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>180</v>
       </c>
       <c r="F89" s="136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G89" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90" s="82"/>
       <c r="D90" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>180</v>
       </c>
       <c r="F90" s="136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G90" s="40"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" s="82"/>
       <c r="D91" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E91" s="40" t="s">
         <v>180</v>
       </c>
       <c r="F91" s="136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G91" s="40"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C92" s="82"/>
       <c r="D92" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E92" s="40" t="s">
         <v>180</v>
       </c>
       <c r="F92" s="136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G92" s="40"/>
     </row>
@@ -6186,11 +6193,11 @@
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F93" s="42"/>
       <c r="G93" s="40"/>
@@ -6201,62 +6208,62 @@
       </c>
       <c r="C94" s="82"/>
       <c r="D94" s="90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="32">
         <v>8.1999999999999993</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G96" s="40"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="32">
         <v>8.3000000000000007</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G97" s="40"/>
     </row>
@@ -6301,22 +6308,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6328,7 +6335,7 @@
         <v>140</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -6338,7 +6345,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -6350,10 +6357,10 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6362,10 +6369,10 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6374,10 +6381,10 @@
         <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6386,10 +6393,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6401,7 +6408,7 @@
         <v>170</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6410,13 +6417,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6425,13 +6432,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6443,7 +6450,7 @@
         <v>167</v>
       </c>
       <c r="D13" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6464,10 +6471,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6476,10 +6483,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6501,10 +6508,10 @@
         <v>90</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6513,10 +6520,10 @@
         <v>91</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6525,10 +6532,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6537,10 +6544,10 @@
         <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D21" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -6549,7 +6556,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>164</v>
@@ -6561,7 +6568,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>164</v>
@@ -6573,10 +6580,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6585,10 +6592,10 @@
         <v>93</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D25" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6597,10 +6604,10 @@
         <v>94</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D26" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6609,10 +6616,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6621,10 +6628,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6633,10 +6640,10 @@
       </c>
       <c r="B29" s="52"/>
       <c r="C29" s="58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E29" s="59"/>
     </row>
@@ -6646,10 +6653,10 @@
         <v>90</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D30" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6658,10 +6665,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6670,10 +6677,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6682,10 +6689,10 @@
         <v>92</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D33" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -6694,7 +6701,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>164</v>
@@ -6706,7 +6713,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>164</v>
@@ -6718,10 +6725,10 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6730,10 +6737,10 @@
         <v>93</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D37" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6742,10 +6749,10 @@
         <v>94</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D38" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6754,10 +6761,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6766,10 +6773,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6778,10 +6785,10 @@
       </c>
       <c r="B41" s="52"/>
       <c r="C41" s="58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E41" s="59"/>
     </row>
@@ -6791,10 +6798,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D42" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -6803,118 +6810,118 @@
         <v>91</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D43" s="160" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D45" s="160" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="160" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D50" s="160" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D52" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -6926,7 +6933,7 @@
         <v>138</v>
       </c>
       <c r="D53" s="129" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E53" s="27"/>
     </row>
@@ -6936,7 +6943,7 @@
         <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>170</v>
@@ -6948,10 +6955,10 @@
         <v>91</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D55" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -6963,7 +6970,7 @@
         <v>168</v>
       </c>
       <c r="D56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -6975,7 +6982,7 @@
         <v>164</v>
       </c>
       <c r="D57" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6987,7 +6994,7 @@
         <v>170</v>
       </c>
       <c r="D58" s="64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7002,7 +7009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="7" t="s">
         <v>4</v>
@@ -7020,13 +7027,13 @@
         <v>31</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -7038,7 +7045,7 @@
         <v>167</v>
       </c>
       <c r="D62" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7059,10 +7066,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -7071,10 +7078,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -7086,7 +7093,7 @@
         <v>144</v>
       </c>
       <c r="D66" s="118" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E66" s="27"/>
     </row>
@@ -7096,7 +7103,7 @@
         <v>90</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>170</v>
@@ -7108,10 +7115,10 @@
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D68" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -7123,7 +7130,7 @@
         <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -7135,7 +7142,7 @@
         <v>164</v>
       </c>
       <c r="D70" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -7147,7 +7154,7 @@
         <v>170</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -7180,10 +7187,10 @@
         <v>31</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D74" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -7195,7 +7202,7 @@
         <v>167</v>
       </c>
       <c r="D75" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E75" s="150"/>
     </row>
@@ -7217,10 +7224,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D77" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -7229,10 +7236,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -7297,17 +7304,17 @@
         <v>149</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -7321,10 +7328,10 @@
         <v>180</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7333,16 +7340,16 @@
         <v>121</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
         <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7351,13 +7358,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7366,16 +7373,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
         <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7384,16 +7391,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
         <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7402,16 +7409,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
         <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -7420,7 +7427,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>174</v>
@@ -7435,13 +7442,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="151" t="s">
         <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7456,7 +7463,7 @@
         <v>175</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7468,10 +7475,10 @@
         <v>152</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,7 +7493,7 @@
         <v>180</v>
       </c>
       <c r="E13" s="146" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F13" s="59"/>
     </row>
@@ -7496,13 +7503,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7511,16 +7518,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
         <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7529,16 +7536,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" t="s">
         <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7547,16 +7554,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
         <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7565,7 +7572,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>174</v>
@@ -7580,13 +7587,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" s="151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E19" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7601,7 +7608,7 @@
         <v>175</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7613,10 +7620,10 @@
         <v>152</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7631,7 +7638,7 @@
         <v>180</v>
       </c>
       <c r="E22" s="146" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F22" s="59"/>
     </row>
@@ -7641,13 +7648,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7656,16 +7663,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
         <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7674,16 +7681,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
         <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7692,16 +7699,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
         <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7710,7 +7717,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>174</v>
@@ -7724,13 +7731,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D28" s="152" t="s">
         <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7745,7 +7752,7 @@
         <v>175</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7757,10 +7764,10 @@
         <v>152</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -7775,7 +7782,7 @@
         <v>180</v>
       </c>
       <c r="E31" s="146" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F31" s="59"/>
     </row>
@@ -7785,13 +7792,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7800,16 +7807,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
         <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7818,16 +7825,16 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
         <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7836,16 +7843,16 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s">
         <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,7 +7861,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>174</v>
@@ -7869,13 +7876,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D37" s="153" t="s">
         <v>178</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -7890,7 +7897,7 @@
         <v>175</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7902,10 +7909,10 @@
         <v>152</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7952,28 +7959,28 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
+      <c r="A3" s="168"/>
       <c r="B3" s="92"/>
       <c r="C3" s="104" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7984,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -7993,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -8003,7 +8010,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -8013,7 +8020,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -8023,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -8035,7 +8042,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -8045,7 +8052,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -8055,7 +8062,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -8065,7 +8072,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -8075,26 +8082,26 @@
         <v>8</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="168" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
+      <c r="A15" s="168"/>
       <c r="C15" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D15" s="125" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8105,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8114,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8123,7 +8130,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8132,7 +8139,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8141,7 +8148,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8152,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8160,7 +8167,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8168,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8176,7 +8183,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8184,7 +8191,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8195,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8203,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8211,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8219,7 +8226,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -8227,11 +8234,11 @@
         <v>8</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="167" t="s">
+      <c r="A31" s="168" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="106"/>
@@ -8239,15 +8246,15 @@
       <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="167"/>
+      <c r="A32" s="168"/>
       <c r="C32" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E32" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -8302,10 +8309,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -8400,10 +8407,10 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -8537,13 +8544,13 @@
       <c r="E70" s="92"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="167" t="s">
+      <c r="A71" s="168" t="s">
         <v>38</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="167"/>
+      <c r="A72" s="168"/>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -8617,10 +8624,10 @@
         <v>40</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -8901,10 +8908,10 @@
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="131" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -8988,15 +8995,15 @@
       <c r="E132" s="92"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="167" t="s">
+      <c r="A133" s="168" t="s">
         <v>69</v>
       </c>
       <c r="C133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="167"/>
+      <c r="A134" s="168"/>
       <c r="C134" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
         <v>141</v>
@@ -9010,7 +9017,7 @@
         <v>42</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -9019,7 +9026,7 @@
         <v>10</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -9028,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -9037,7 +9044,7 @@
         <v>4</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -9046,7 +9053,7 @@
         <v>31</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -9055,7 +9062,7 @@
         <v>6</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -9064,7 +9071,7 @@
         <v>8</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -9081,7 +9088,7 @@
         <v>42</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -9090,7 +9097,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -9099,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -9108,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -9117,7 +9124,7 @@
         <v>31</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -9126,7 +9133,7 @@
         <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -9135,7 +9142,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -9152,7 +9159,7 @@
         <v>42</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -9161,7 +9168,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -9170,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -9179,7 +9186,7 @@
         <v>4</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -9188,7 +9195,7 @@
         <v>31</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -9197,7 +9204,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -9206,7 +9213,7 @@
         <v>8</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -9214,7 +9221,7 @@
         <v>62</v>
       </c>
       <c r="D158" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -9223,7 +9230,7 @@
         <v>42</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -9232,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -9241,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -9250,7 +9257,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -9259,7 +9266,7 @@
         <v>31</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -9268,7 +9275,7 @@
         <v>47</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -9277,7 +9284,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -9286,24 +9293,24 @@
         <v>8</v>
       </c>
       <c r="C166" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D166" s="92"/>
       <c r="E166" s="92"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="167" t="s">
+      <c r="A167" s="168" t="s">
         <v>70</v>
       </c>
       <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="167"/>
+      <c r="A168" s="168"/>
       <c r="C168" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D168" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -9314,7 +9321,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -9323,7 +9330,7 @@
         <v>8</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -9334,7 +9341,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -9343,7 +9350,7 @@
         <v>8</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -9354,7 +9361,7 @@
         <v>66</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -9363,7 +9370,7 @@
         <v>67</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -9372,7 +9379,7 @@
         <v>31</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -9383,7 +9390,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="91" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -9392,7 +9399,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -9401,7 +9408,7 @@
         <v>31</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -9412,7 +9419,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -9421,7 +9428,7 @@
         <v>8</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -9432,7 +9439,7 @@
         <v>6</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -9441,7 +9448,7 @@
         <v>8</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -9450,7 +9457,7 @@
         <v>31</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9461,7 +9468,7 @@
         <v>137</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9472,7 +9479,7 @@
         <v>137</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -9483,7 +9490,7 @@
         <v>10</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -9492,7 +9499,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -9501,29 +9508,29 @@
         <v>8</v>
       </c>
       <c r="C188" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D188" s="92"/>
       <c r="E188" s="92"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="167" t="s">
+      <c r="A189" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="B189" s="167"/>
+      <c r="B189" s="168"/>
       <c r="C189" s="5"/>
     </row>
     <row r="190" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A190" s="167"/>
-      <c r="B190" s="167"/>
+      <c r="A190" s="168"/>
+      <c r="B190" s="168"/>
       <c r="C190" s="79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -9534,7 +9541,7 @@
         <v>10</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -9543,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -9552,7 +9559,7 @@
         <v>4</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -9561,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -9570,7 +9577,7 @@
         <v>8</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -9579,26 +9586,26 @@
         <v>47</v>
       </c>
       <c r="C196" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D196" s="92"/>
       <c r="E196" s="92"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="167" t="s">
+      <c r="A197" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="B197" s="167"/>
+      <c r="B197" s="168"/>
       <c r="C197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="167"/>
-      <c r="B198" s="167"/>
+      <c r="A198" s="168"/>
+      <c r="B198" s="168"/>
       <c r="C198" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -9609,7 +9616,7 @@
         <v>10</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -9618,7 +9625,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -9627,26 +9634,26 @@
         <v>8</v>
       </c>
       <c r="C201" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D201" s="92"/>
       <c r="E201" s="92"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="167" t="s">
+      <c r="A202" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="B202" s="167"/>
+      <c r="B202" s="168"/>
       <c r="C202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="167"/>
-      <c r="B203" s="167"/>
+      <c r="A203" s="168"/>
+      <c r="B203" s="168"/>
       <c r="C203" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -9657,7 +9664,7 @@
         <v>10</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -9666,7 +9673,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -9675,7 +9682,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -9684,7 +9691,7 @@
         <v>6</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -9693,7 +9700,7 @@
         <v>8</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -9704,7 +9711,7 @@
         <v>10</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -9713,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -9722,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -9731,7 +9738,7 @@
         <v>6</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -9740,7 +9747,7 @@
         <v>8</v>
       </c>
       <c r="C213" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D213" s="92"/>
       <c r="E213" s="92"/>
@@ -9800,30 +9807,30 @@
         <v>149</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
+      <c r="A3" s="168"/>
       <c r="B3" s="17"/>
       <c r="C3" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9834,10 +9841,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D4" s="164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -9845,13 +9852,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D5" s="159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9859,13 +9866,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D6" s="164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9873,13 +9880,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D7" s="164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9887,10 +9894,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D8" s="164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9898,10 +9905,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -9949,21 +9956,21 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
+      <c r="A3" s="168"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
@@ -9976,10 +9983,10 @@
         <v>180</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -9988,10 +9995,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10000,10 +10007,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -10012,13 +10019,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10027,7 +10034,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
         <v>164</v>
@@ -10054,7 +10061,7 @@
         <v>176</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E10" s="39"/>
     </row>
@@ -10066,7 +10073,7 @@
         <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10078,7 +10085,7 @@
         <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10087,10 +10094,10 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" s="122"/>
     </row>
@@ -10100,13 +10107,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10115,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
         <v>164</v>
@@ -10127,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D16" t="s">
         <v>164</v>
@@ -10139,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
         <v>164</v>
@@ -10177,7 +10184,7 @@
         <v>175</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -10189,7 +10196,7 @@
         <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -10201,7 +10208,7 @@
         <v>180</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E22" s="122"/>
     </row>
@@ -10211,10 +10218,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -10223,10 +10230,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10235,7 +10242,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D25" t="s">
         <v>164</v>
@@ -10247,7 +10254,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
         <v>164</v>
@@ -10273,7 +10280,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -10285,7 +10292,7 @@
         <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E29" s="39"/>
     </row>
@@ -10298,7 +10305,7 @@
         <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10310,7 +10317,7 @@
         <v>180</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E31" s="122"/>
     </row>
@@ -10320,10 +10327,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -10332,10 +10339,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D33" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -10344,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
         <v>164</v>
@@ -10356,7 +10363,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" t="s">
         <v>164</v>
@@ -10377,13 +10384,13 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>178</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E37" s="27"/>
     </row>
@@ -10396,7 +10403,7 @@
         <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -10407,7 +10414,7 @@
         <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -10441,7 +10448,7 @@
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10456,20 +10463,20 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
+      <c r="A3" s="168"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10490,10 +10497,10 @@
         <v>49</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10502,10 +10509,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10514,25 +10521,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="166" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" s="163" t="s">
         <v>164</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>413</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10541,7 +10548,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" s="163" t="s">
         <v>164</v>
@@ -10553,10 +10560,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10568,7 +10575,7 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10577,10 +10584,10 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -10589,10 +10596,10 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10601,22 +10608,22 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="96" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" s="59"/>
     </row>
@@ -10626,10 +10633,10 @@
         <v>44</v>
       </c>
       <c r="C16" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10638,10 +10645,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D17" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10650,7 +10657,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>164</v>
@@ -10662,7 +10669,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>164</v>
@@ -10674,34 +10681,34 @@
         <v>31</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="163" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>181</v>
+        <v>504</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -10723,10 +10730,10 @@
         <v>56</v>
       </c>
       <c r="C24" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -10735,10 +10742,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -10747,22 +10754,22 @@
         <v>44</v>
       </c>
       <c r="C26" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="D27" s="160" t="s">
-        <v>365</v>
+      <c r="C27" s="161" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="169" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -10771,7 +10778,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>164</v>
@@ -10783,7 +10790,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>164</v>
@@ -10795,10 +10802,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" s="163" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -10810,7 +10817,7 @@
         <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -10819,10 +10826,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D32" s="166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10831,10 +10838,10 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D33" s="166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10843,10 +10850,10 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D34" s="166" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -10858,7 +10865,7 @@
         <v>147</v>
       </c>
       <c r="D35" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E35" s="59"/>
     </row>
@@ -10868,10 +10875,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -10880,10 +10887,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D37" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -10916,10 +10923,10 @@
         <v>31</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="163" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10928,10 +10935,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -10940,10 +10947,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -10992,22 +10999,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="167"/>
+      <c r="A2" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11028,10 +11035,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11040,13 +11047,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11055,13 +11062,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11070,10 +11077,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11082,10 +11089,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11094,10 +11101,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E10" s="92"/>
     </row>
@@ -11107,10 +11114,10 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11119,10 +11126,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11131,13 +11138,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11146,13 +11153,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -11161,10 +11168,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11173,10 +11180,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -11185,10 +11192,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E17" s="92"/>
     </row>
@@ -11210,10 +11217,10 @@
         <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -11222,10 +11229,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D20" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -11234,13 +11241,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="163" t="s">
         <v>164</v>
       </c>
       <c r="E21" s="157" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -11249,13 +11256,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11264,13 +11271,13 @@
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -11282,7 +11289,7 @@
         <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11294,7 +11301,7 @@
         <v>162</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E25" s="92"/>
     </row>
@@ -11304,7 +11311,7 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D26" s="155" t="s">
         <v>142</v>
@@ -11316,10 +11323,10 @@
         <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11328,13 +11335,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -11343,13 +11350,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="163" t="s">
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11358,13 +11365,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -11373,13 +11380,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11391,7 +11398,7 @@
         <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -11403,7 +11410,7 @@
         <v>173</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E33" s="92"/>
     </row>
@@ -11419,7 +11426,7 @@
         <v>143</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -11428,10 +11435,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -11440,13 +11447,13 @@
         <v>10</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" s="161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -11479,10 +11486,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -11491,10 +11498,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -11503,10 +11510,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D41" s="92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E41" s="92"/>
     </row>
@@ -11516,10 +11523,10 @@
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" s="113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -11531,7 +11538,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11540,13 +11547,13 @@
         <v>10</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -11555,13 +11562,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -11570,13 +11577,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -11585,13 +11592,13 @@
         <v>31</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -11603,7 +11610,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -11615,7 +11622,7 @@
         <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -11627,7 +11634,7 @@
         <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -11636,13 +11643,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -11690,22 +11697,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -11726,10 +11733,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11765,7 +11772,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11777,7 +11784,7 @@
         <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11789,7 +11796,7 @@
         <v>158</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E10" s="92"/>
     </row>
@@ -11799,10 +11806,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11811,10 +11818,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11847,10 +11854,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -11862,7 +11869,7 @@
         <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11874,7 +11881,7 @@
         <v>158</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E17" s="92"/>
     </row>
@@ -11884,13 +11891,13 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D18" s="158" t="s">
         <v>141</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11902,7 +11909,7 @@
         <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11911,10 +11918,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D20" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -11950,7 +11957,7 @@
         <v>160</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11962,7 +11969,7 @@
         <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -11974,7 +11981,7 @@
         <v>159</v>
       </c>
       <c r="D25" s="92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E25" s="92"/>
     </row>
@@ -12000,7 +12007,7 @@
         <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -12009,10 +12016,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12048,10 +12055,10 @@
         <v>154</v>
       </c>
       <c r="D31" s="163" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E31" s="115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -12063,7 +12070,7 @@
         <v>162</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12075,7 +12082,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E33" s="92"/>
     </row>
@@ -12091,7 +12098,7 @@
         <v>143</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -12103,7 +12110,7 @@
         <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -12112,10 +12119,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -12151,7 +12158,7 @@
         <v>164</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12163,10 +12170,10 @@
         <v>154</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -12178,7 +12185,7 @@
         <v>154</v>
       </c>
       <c r="D41" s="148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E41" s="92"/>
     </row>
@@ -12188,10 +12195,10 @@
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" s="108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12203,7 +12210,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -12212,10 +12219,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -12263,7 +12270,7 @@
         <v>153</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -12275,7 +12282,7 @@
         <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -12287,10 +12294,10 @@
         <v>152</v>
       </c>
       <c r="D50" s="163" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12302,7 +12309,7 @@
         <v>152</v>
       </c>
       <c r="D51" s="162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" s="92"/>
     </row>
@@ -12350,23 +12357,23 @@
         <v>149</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="5"/>
       <c r="D3" s="26"/>
     </row>
@@ -12379,10 +12386,10 @@
         <v>138</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -12391,10 +12398,10 @@
         <v>89</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12403,7 +12410,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>170</v>
@@ -12415,10 +12422,10 @@
         <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12427,10 +12434,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12442,7 +12449,7 @@
         <v>170</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12478,7 +12485,7 @@
         <v>167</v>
       </c>
       <c r="D12" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12499,10 +12506,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12511,10 +12518,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12526,7 +12533,7 @@
         <v>171</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E16" s="40"/>
     </row>
@@ -12551,7 +12558,7 @@
         <v>172</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12563,7 +12570,7 @@
         <v>172</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -12599,7 +12606,7 @@
         <v>172</v>
       </c>
       <c r="D22" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -12623,7 +12630,7 @@
         <v>172</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -12635,7 +12642,7 @@
         <v>172</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12647,7 +12654,7 @@
         <v>140</v>
       </c>
       <c r="D26" s="117" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E26" s="27"/>
     </row>
@@ -12657,7 +12664,7 @@
         <v>90</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>170</v>
@@ -12669,13 +12676,13 @@
         <v>31</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D28" s="149" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12684,10 +12691,10 @@
         <v>91</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -12696,10 +12703,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -12711,7 +12718,7 @@
         <v>170</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -12720,13 +12727,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="99" t="s">
         <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -12735,13 +12742,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D33" s="99" t="s">
         <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -12762,10 +12769,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -12774,10 +12781,10 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -12786,10 +12793,10 @@
         <v>66</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -12798,10 +12805,10 @@
         <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -12823,10 +12830,10 @@
         <v>90</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -12835,10 +12842,10 @@
         <v>91</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -12847,10 +12854,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -12859,10 +12866,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -12871,7 +12878,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D44" s="99" t="s">
         <v>164</v>
@@ -12883,7 +12890,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D45" s="99" t="s">
         <v>164</v>
@@ -12895,10 +12902,10 @@
         <v>26</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -12907,10 +12914,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -12919,10 +12926,10 @@
         <v>94</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D48" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -12931,10 +12938,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -12943,10 +12950,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -12955,10 +12962,10 @@
       </c>
       <c r="B51" s="54"/>
       <c r="C51" s="95" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D51" s="95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E51" s="59"/>
     </row>
@@ -12968,10 +12975,10 @@
         <v>90</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -12980,10 +12987,10 @@
         <v>91</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D53" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -12992,10 +12999,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -13004,10 +13011,10 @@
         <v>92</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D55" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -13016,7 +13023,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D56" s="99" t="s">
         <v>164</v>
@@ -13028,7 +13035,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D57" s="99" t="s">
         <v>164</v>
@@ -13040,10 +13047,10 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -13052,10 +13059,10 @@
         <v>93</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -13064,10 +13071,10 @@
         <v>94</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13076,10 +13083,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -13088,10 +13095,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D62" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13103,7 +13110,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E63" s="59"/>
     </row>
@@ -13113,10 +13120,10 @@
         <v>89</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D64" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -13125,7 +13132,7 @@
         <v>90</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D65" s="99" t="s">
         <v>170</v>
@@ -13137,10 +13144,10 @@
         <v>91</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D66" s="109" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -13149,10 +13156,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -13161,10 +13168,10 @@
         <v>92</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13173,13 +13180,13 @@
         <v>3</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" s="149" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -13188,13 +13195,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -13203,10 +13210,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -13227,10 +13234,10 @@
         <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -13239,10 +13246,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -13251,10 +13258,10 @@
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E75" s="59"/>
     </row>
@@ -13264,10 +13271,10 @@
         <v>90</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D76" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -13276,10 +13283,10 @@
         <v>91</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D77" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -13288,10 +13295,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -13300,10 +13307,10 @@
         <v>92</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -13312,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D80" s="99" t="s">
         <v>164</v>
@@ -13324,7 +13331,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" s="99" t="s">
         <v>164</v>
@@ -13336,10 +13343,10 @@
         <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -13348,10 +13355,10 @@
         <v>93</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D83" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -13360,10 +13367,10 @@
         <v>94</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D84" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13372,10 +13379,10 @@
         <v>6</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -13384,10 +13391,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13399,7 +13406,7 @@
         <v>138</v>
       </c>
       <c r="D87" s="145" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E87" s="40"/>
     </row>
@@ -13409,10 +13416,10 @@
         <v>89</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D88" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -13421,7 +13428,7 @@
         <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>170</v>
@@ -13433,10 +13440,10 @@
         <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D90" s="64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -13448,7 +13455,7 @@
         <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -13460,7 +13467,7 @@
         <v>164</v>
       </c>
       <c r="D92" s="165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -13472,7 +13479,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="64" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -13505,13 +13512,13 @@
         <v>31</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D96" s="88" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E96" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -13523,7 +13530,7 @@
         <v>167</v>
       </c>
       <c r="D97" s="150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -13544,10 +13551,10 @@
         <v>6</v>
       </c>
       <c r="C99" s="110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D99" s="92" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E99" s="92"/>
     </row>
@@ -13597,23 +13604,23 @@
         <v>149</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
@@ -13622,10 +13629,10 @@
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="144" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E4" s="27"/>
     </row>
@@ -13636,7 +13643,7 @@
       </c>
       <c r="C5" s="91"/>
       <c r="D5" s="89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -13647,7 +13654,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13657,7 +13664,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13707,7 +13714,7 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13717,7 +13724,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13726,7 +13733,7 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D14" s="143" t="s">
         <v>141</v>
@@ -13740,7 +13747,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -13751,7 +13758,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13761,7 +13768,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13791,7 +13798,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="99" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13801,7 +13808,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -13811,7 +13818,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -13820,7 +13827,7 @@
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>142</v>
@@ -13834,7 +13841,7 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -13845,7 +13852,7 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -13855,7 +13862,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -13885,7 +13892,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="99" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -13895,7 +13902,7 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -13905,7 +13912,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -13914,7 +13921,7 @@
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>143</v>
@@ -13928,7 +13935,7 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -13939,7 +13946,7 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -13949,7 +13956,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -13979,7 +13986,7 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="99" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -13989,7 +13996,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -13999,7 +14006,7 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -14047,22 +14054,22 @@
         <v>149</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="168"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -14083,10 +14090,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14095,13 +14102,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14110,13 +14117,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14125,10 +14132,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14137,10 +14144,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14149,10 +14156,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="92" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14161,10 +14168,10 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11" s="59"/>
     </row>
@@ -14174,13 +14181,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14189,13 +14196,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14204,13 +14211,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -14219,10 +14226,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -14231,10 +14238,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -14243,10 +14250,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14271,7 +14278,7 @@
         <v>164</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14280,10 +14287,10 @@
         <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14292,10 +14299,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D21" s="100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -14329,10 +14336,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D24" s="99" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -14345,7 +14352,7 @@
         <v>162</v>
       </c>
       <c r="D25" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14357,7 +14364,7 @@
         <v>162</v>
       </c>
       <c r="D26" s="99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14379,10 +14386,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -14391,10 +14398,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -14403,10 +14410,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -14415,13 +14422,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="163" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -14430,7 +14437,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>164</v>
@@ -14442,10 +14449,10 @@
         <v>47</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="168" t="s">
-        <v>506</v>
+        <v>184</v>
+      </c>
+      <c r="D33" s="167" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -14454,10 +14461,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D34" s="163" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -14469,7 +14476,7 @@
         <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -14478,10 +14485,10 @@
         <v>110</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -14493,7 +14500,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -14518,7 +14525,7 @@
         <v>164</v>
       </c>
       <c r="D39" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -14527,10 +14534,10 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -14539,10 +14546,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14575,10 +14582,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14587,10 +14594,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14599,10 +14606,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -14611,10 +14618,10 @@
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E47" s="59"/>
     </row>
@@ -14624,10 +14631,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D48" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -14636,10 +14643,10 @@
         <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14648,7 +14655,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D50" t="s">
         <v>164</v>
@@ -14660,7 +14667,7 @@
         <v>39</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D51" t="s">
         <v>164</v>
@@ -14672,10 +14679,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14684,7 +14691,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D53" t="s">
         <v>164</v>
@@ -14696,7 +14703,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D54" t="s">
         <v>164</v>
@@ -14708,13 +14715,13 @@
         <v>31</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -14723,13 +14730,13 @@
         <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D56" s="157" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -14738,10 +14745,10 @@
         <v>7</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -14753,10 +14760,10 @@
         <v>152</v>
       </c>
       <c r="D58" s="163" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -14768,7 +14775,7 @@
         <v>152</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
